--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B34289-F289-4D03-B47B-1E60B69D3FCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C69F49-C5C9-45EC-863B-B2D7309D5EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>1)60%  2) 100%</t>
+  </si>
+  <si>
+    <t>QMVAR - alignment issues</t>
+  </si>
+  <si>
+    <t>QMVAR -Alignment issues fixing</t>
   </si>
 </sst>
 </file>
@@ -1338,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1819,32 +1825,145 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="C32" s="5"/>
-      <c r="D32" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="6"/>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="7"/>
-      <c r="D34" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28">
+        <v>44128</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28">
+        <v>44129</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28">
+        <v>44130</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44131</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44132</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44133</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="27">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44134</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="5"/>
+      <c r="D35" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="6"/>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" s="7"/>
+      <c r="D37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="8"/>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="D36" t="s">
+    <row r="38" spans="3:4">
+      <c r="C38" s="8"/>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C69F49-C5C9-45EC-863B-B2D7309D5EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E7D19-D97E-43FB-8D5F-3D09C230EDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
   <si>
     <t>Task</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>QMVAR -Alignment issues fixing</t>
+  </si>
+  <si>
+    <t>QMVAR -issues fixing</t>
+  </si>
+  <si>
+    <t>QMVAR -Newly highlidhted  issues fixing</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1919,10 +1925,18 @@
       <c r="B30" s="11">
         <v>44133</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="15"/>
+      <c r="C30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -1932,11 +1946,34 @@
       <c r="B31" s="11">
         <v>44134</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="27">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44135</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="5"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E7D19-D97E-43FB-8D5F-3D09C230EDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3A7D0-9D72-4564-B7F1-BD1F7EC159D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>QMVAR -Newly highlidhted  issues fixing</t>
+  </si>
+  <si>
+    <t>nMVAR , Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Hayaai flyer design Editted                                                2)nMVAR_Invc Started                                        </t>
+  </si>
+  <si>
+    <t>2) 20%</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -494,6 +503,24 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1352,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2014,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2053,21 +2080,39 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44136</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="33.6" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44137</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
@@ -2076,7 +2121,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="16"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -2085,7 +2130,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="16"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -2094,7 +2139,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="16"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
@@ -2103,7 +2148,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="19"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3A7D0-9D72-4564-B7F1-BD1F7EC159D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95231E-9D2E-435E-B2AF-88A9BEAEF351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>2) 20%</t>
+  </si>
+  <si>
+    <t>nMVAR , QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)QMVAR - dropdown issue fixed                                             2)nMVAR_Invc Started                                        </t>
+  </si>
+  <si>
+    <t>2) 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR_QA  started                         </t>
   </si>
 </sst>
 </file>
@@ -424,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,9 +530,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,7 +2054,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2116,21 +2128,45 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44138</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="40"/>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44139</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -2139,7 +2175,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="16"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="41"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB95231E-9D2E-435E-B2AF-88A9BEAEF351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC491758-8C5F-4493-9073-8235CB8424C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="80">
   <si>
     <t>Task</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t xml:space="preserve">nMVAR_QA  started                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR_QA           </t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) nMVAR_QA                                                                     2)nMVAR_TSS       </t>
+  </si>
+  <si>
+    <t>1) 100% 2)10%</t>
   </si>
 </sst>
 </file>
@@ -439,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -530,9 +542,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2054,7 +2063,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2062,7 +2071,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
@@ -2129,7 +2138,7 @@
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
       <c r="A4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>44138</v>
@@ -2150,7 +2159,7 @@
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="22.2" customHeight="1">
       <c r="A5" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11">
         <v>44139</v>
@@ -2170,26 +2179,94 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44140</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44141</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44142</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44143</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="29.4" customHeight="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44144</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
     <row r="12" spans="1:7" s="3" customFormat="1"/>
     <row r="13" spans="1:7" s="3" customFormat="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC491758-8C5F-4493-9073-8235CB8424C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FE25C-D74B-4C27-9CA6-4E5E90821D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>1) 100% 2)10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                nMVAR_TSS       </t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -444,6 +447,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -451,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -543,6 +559,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2063,7 +2086,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2100,7 +2123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+    <row r="2" spans="1:7" ht="27" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -2220,7 +2243,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -2228,12 +2251,14 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="42" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="39"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="19.2" customHeight="1">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="12"/>
       <c r="F9" s="39"/>
       <c r="G9" s="1"/>
@@ -2267,7 +2292,27 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44145</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
     <row r="12" spans="1:7" s="3" customFormat="1"/>
     <row r="13" spans="1:7" s="3" customFormat="1"/>
     <row r="14" spans="1:7" s="3" customFormat="1"/>
@@ -2303,6 +2348,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FE25C-D74B-4C27-9CA6-4E5E90821D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA56076-11D5-4CC3-9B4D-9E77F87D7E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>Task</t>
   </si>
@@ -264,13 +264,16 @@
     <t>COMPLETED</t>
   </si>
   <si>
-    <t xml:space="preserve">1) nMVAR_QA                                                                     2)nMVAR_TSS       </t>
-  </si>
-  <si>
-    <t>1) 100% 2)10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                nMVAR_TSS       </t>
+    <t>1) nMVAR_QA                                                                     2)nMVAR_Export_bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) nMVAR_QA    2)nMVAR_Export_bat        </t>
+  </si>
+  <si>
+    <t>nMVAR_Import_bat</t>
+  </si>
+  <si>
+    <t>nMVAR_Import_bat testing with import file</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -447,19 +450,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -467,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -560,11 +550,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2086,7 +2075,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2233,7 +2222,7 @@
         <v>72</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E7" s="12">
         <v>0.8</v>
@@ -2251,7 +2240,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2284,15 +2273,15 @@
       <c r="D10" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>79</v>
+      <c r="E10" s="12">
+        <v>1</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -2308,12 +2297,32 @@
       <c r="E11" s="12">
         <v>0.4</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
+      <c r="F11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44146</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
     <row r="13" spans="1:7" s="3" customFormat="1"/>
     <row r="14" spans="1:7" s="3" customFormat="1"/>
     <row r="15" spans="1:7" s="3" customFormat="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA56076-11D5-4CC3-9B4D-9E77F87D7E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293934DA-AD2A-4227-BCF6-5F7FBF980CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="84">
   <si>
     <t>Task</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>nMVAR_Import_bat testing with import file</t>
+  </si>
+  <si>
+    <t>Tested for Biccamera report soukatu - Japanese text                                                                        2) nMVAR_TSS</t>
+  </si>
+  <si>
+    <t>2)70%</t>
   </si>
 </sst>
 </file>
@@ -2075,7 +2081,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2323,7 +2329,27 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44147</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
     <row r="14" spans="1:7" s="3" customFormat="1"/>
     <row r="15" spans="1:7" s="3" customFormat="1"/>
     <row r="16" spans="1:7" s="3" customFormat="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293934DA-AD2A-4227-BCF6-5F7FBF980CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C94347-EA49-426A-8F62-BEA45E8EEE72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2)70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nMVAR_TSS</t>
   </si>
 </sst>
 </file>
@@ -2080,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2350,7 +2353,27 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44148</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
     <row r="15" spans="1:7" s="3" customFormat="1"/>
     <row r="16" spans="1:7" s="3" customFormat="1"/>
     <row r="19" spans="2:3">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C94347-EA49-426A-8F62-BEA45E8EEE72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915DF6C-E2D0-4088-87F9-8677D459B2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t xml:space="preserve"> nMVAR_TSS</t>
+  </si>
+  <si>
+    <t>QA_import_bat- Errors checking</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>QA_import_bat - Errors completed</t>
   </si>
 </sst>
 </file>
@@ -292,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +363,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -466,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -563,6 +580,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2081,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2209,7 +2232,7 @@
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="42" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="12">
@@ -2374,40 +2397,124 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44149</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44150</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44151</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44152</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44153</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="5"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="6"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
+    <row r="25" spans="1:7">
+      <c r="B25" s="7"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="8"/>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A915DF6C-E2D0-4088-87F9-8677D459B2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C2B7E-2737-4704-AEE2-7AE40C3B0E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17928" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
   <si>
     <t>Task</t>
   </si>
@@ -288,10 +288,16 @@
     <t>QA_import_bat- Errors checking</t>
   </si>
   <si>
-    <t>Sick Leave</t>
-  </si>
-  <si>
     <t>QA_import_bat - Errors completed</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>QA_import_bat , QA_export_bat - tested</t>
+  </si>
+  <si>
+    <t>nMVAR_QA tested fully</t>
   </si>
 </sst>
 </file>
@@ -576,16 +582,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2106,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2232,7 +2238,7 @@
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="40" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="12">
@@ -2272,7 +2278,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2287,7 +2293,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="12"/>
       <c r="F9" s="39"/>
       <c r="G9" s="1"/>
@@ -2405,7 +2411,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2420,7 +2426,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="12"/>
       <c r="F16" s="39"/>
       <c r="G16" s="1"/>
@@ -2454,8 +2460,8 @@
         <v>44152</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="43" t="s">
-        <v>86</v>
+      <c r="D18" s="41" t="s">
+        <v>87</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="39"/>
@@ -2472,7 +2478,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="12">
         <v>1</v>
@@ -2481,6 +2487,48 @@
         <v>77</v>
       </c>
       <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" s="9" t="s">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C2B7E-2737-4704-AEE2-7AE40C3B0E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C011885-0481-4996-914E-23728D34A90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17928" windowHeight="10860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>Task</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>nMVAR_QA tested fully</t>
+  </si>
+  <si>
+    <t>nMVAR_Import_bat, nMVAR_Export_bat tested and created EXE file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nMVAR_QA  - issues fixed </t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,6 +599,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2531,38 +2552,118 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="C22" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44156</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="5"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="6"/>
-      <c r="C24" t="s">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44157</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44158</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44159</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="7"/>
-      <c r="C25" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="8"/>
-      <c r="C26" t="s">
+    <row r="31" spans="1:7">
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D22:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C011885-0481-4996-914E-23728D34A90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE49862-E5BB-4052-B259-C801907C8D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
   <si>
     <t>Task</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t xml:space="preserve">nMVAR_QA  - issues fixed </t>
+  </si>
+  <si>
+    <t>nMVAR-Exe files created</t>
+  </si>
+  <si>
+    <t>Soniya Setup files created</t>
   </si>
 </sst>
 </file>
@@ -594,26 +600,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2131,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2299,7 +2305,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2314,7 +2320,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="12"/>
       <c r="F9" s="39"/>
       <c r="G9" s="1"/>
@@ -2432,7 +2438,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2447,7 +2453,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="12"/>
       <c r="F16" s="39"/>
       <c r="G16" s="1"/>
@@ -2559,7 +2565,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2574,7 +2580,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="12"/>
       <c r="F23" s="39"/>
       <c r="G23" s="1"/>
@@ -2622,40 +2628,112 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44160</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="C27" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44161</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="B28" s="5"/>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44162</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="6"/>
-      <c r="C29" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="7"/>
-      <c r="C30" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="B31" s="8"/>
-      <c r="C31" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE49862-E5BB-4052-B259-C801907C8D18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA8D93-61C5-468B-8330-1EC9A2959D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>Soniya Setup files created</t>
+  </si>
+  <si>
+    <t>Soniya Setup files created and tested</t>
+  </si>
+  <si>
+    <t>nMVAR-Exe files issues check</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -599,21 +605,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2137,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2305,7 +2296,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2320,7 +2311,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="48"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="12"/>
       <c r="F9" s="39"/>
       <c r="G9" s="1"/>
@@ -2438,7 +2429,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2453,7 +2444,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="12"/>
       <c r="F16" s="39"/>
       <c r="G16" s="1"/>
@@ -2565,7 +2556,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2580,7 +2571,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="12"/>
       <c r="F23" s="39"/>
       <c r="G23" s="1"/>
@@ -2659,7 +2650,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" s="12">
         <v>1</v>
@@ -2691,57 +2682,89 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44163</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44164</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44165</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="5"/>
-      <c r="C32" t="s">
-        <v>3</v>
+      <c r="C32" s="9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="8"/>
-      <c r="C35" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA8D93-61C5-468B-8330-1EC9A2959D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BFEA55-18F7-4E42-91C6-68947E21431E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>nMVAR-Exe files issues check</t>
+  </si>
+  <si>
+    <t>SONIYA, nQGCare , nMVAR</t>
+  </si>
+  <si>
+    <t>SONIYA setup tested. nQGCare Setup files created</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nQGCare , nMVAR</t>
+  </si>
+  <si>
+    <t>nQGCare,nMVAR Setup files created</t>
   </si>
 </sst>
 </file>
@@ -374,14 +386,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2130,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2775,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2814,21 +2826,45 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44167</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>77</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BFEA55-18F7-4E42-91C6-68947E21431E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F0E60-C529-4947-BF4E-19CAEB5DA142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>nQGCare,nMVAR Setup files created</t>
+  </si>
+  <si>
+    <t>nQGCare, nMVAR Report generate tested</t>
   </si>
 </sst>
 </file>
@@ -2788,7 +2791,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2868,12 +2871,24 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2F0E60-C529-4947-BF4E-19CAEB5DA142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D2FF7-255B-4E4A-9060-C204376F19C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -522,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -551,17 +551,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,7 +992,7 @@
       <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
@@ -1019,7 +1013,7 @@
       <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
@@ -1040,7 +1034,7 @@
       <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -1061,7 +1055,7 @@
       <c r="E5" s="12">
         <v>0.4</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -1082,7 +1076,7 @@
       <c r="E6" s="12">
         <v>0.75</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -1103,7 +1097,7 @@
       <c r="E7" s="12">
         <v>0.85</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
@@ -1124,7 +1118,7 @@
       <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
@@ -1145,7 +1139,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -1166,7 +1160,7 @@
       <c r="E10" s="12">
         <v>0.7</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
@@ -1187,7 +1181,7 @@
       <c r="E11" s="12">
         <v>0.75</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -1208,7 +1202,7 @@
       <c r="E12" s="12">
         <v>0.8</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1"/>
@@ -1229,7 +1223,7 @@
       <c r="E13" s="12">
         <v>0.85</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -1250,7 +1244,7 @@
       <c r="E14" s="12">
         <v>0.95</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
@@ -1271,7 +1265,7 @@
       <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1"/>
@@ -1292,7 +1286,7 @@
       <c r="E16" s="12">
         <v>0.6</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G16" s="1"/>
@@ -1313,7 +1307,7 @@
       <c r="E17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1"/>
@@ -1355,7 +1349,7 @@
       <c r="E19" s="12">
         <v>0.35</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
@@ -1376,7 +1370,7 @@
       <c r="E20" s="12">
         <v>0.7</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -1385,7 +1379,7 @@
       <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="21">
         <v>44102</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -1406,7 +1400,7 @@
       <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="21">
         <v>44103</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -1418,7 +1412,7 @@
       <c r="E22" s="12">
         <v>0.3</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="1"/>
@@ -1427,7 +1421,7 @@
       <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="21">
         <v>44104</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -1439,24 +1433,24 @@
       <c r="E23" s="12">
         <v>0.5</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="C29" s="25"/>
+      <c r="C29" s="23"/>
       <c r="D29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="26"/>
+      <c r="C30" s="24"/>
       <c r="D30" t="s">
         <v>4</v>
       </c>
@@ -1543,49 +1537,49 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>44106</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="28">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
         <v>44107</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>44108</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
       <c r="A6" s="10">
@@ -1597,7 +1591,7 @@
       <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="12">
@@ -1618,7 +1612,7 @@
       <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="12">
@@ -1639,13 +1633,13 @@
       <c r="C8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="12">
         <v>0.4</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -1660,13 +1654,13 @@
       <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -1693,33 +1687,33 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>44114</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>44115</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -1828,33 +1822,33 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>44114</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>44115</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="28.8">
@@ -1894,7 +1888,7 @@
       <c r="E21" s="12">
         <v>0.5</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -1963,52 +1957,52 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="26">
         <v>44128</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <v>44129</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>44130</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
       <c r="B28" s="11">
@@ -2029,7 +2023,7 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
       <c r="B29" s="11">
@@ -2050,7 +2044,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
       <c r="B30" s="11">
@@ -2071,7 +2065,7 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
       <c r="B31" s="11">
@@ -2092,14 +2086,14 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
       <c r="B32" s="11">
         <v>44135</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="12"/>
@@ -2146,7 +2140,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G31"/>
+      <selection activeCell="A29" sqref="A29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2191,12 +2185,12 @@
         <v>44136</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="33.6" customHeight="1">
       <c r="A3" s="10">
@@ -2208,13 +2202,13 @@
       <c r="C3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="36" t="s">
         <v>69</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
@@ -2229,13 +2223,13 @@
       <c r="C4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -2256,7 +2250,7 @@
       <c r="E5" s="12">
         <v>0.3</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -2271,13 +2265,13 @@
       <c r="C6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>76</v>
       </c>
       <c r="E6" s="12">
         <v>0.5</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -2298,7 +2292,7 @@
       <c r="E7" s="12">
         <v>0.8</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
@@ -2311,11 +2305,11 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="19.2" customHeight="1">
@@ -2326,9 +2320,9 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="29.4" customHeight="1">
@@ -2347,7 +2341,7 @@
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="1"/>
@@ -2368,7 +2362,7 @@
       <c r="E11" s="12">
         <v>0.4</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -2389,7 +2383,7 @@
       <c r="E12" s="12">
         <v>0.7</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="1"/>
@@ -2410,7 +2404,7 @@
       <c r="E13" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -2431,7 +2425,7 @@
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="1"/>
@@ -2444,11 +2438,11 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="39"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1">
@@ -2459,9 +2453,9 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -2480,7 +2474,7 @@
       <c r="E17" s="12">
         <v>0.7</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1"/>
@@ -2493,11 +2487,11 @@
         <v>44152</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="39"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2516,7 +2510,7 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="1"/>
@@ -2537,7 +2531,7 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="1"/>
@@ -2558,7 +2552,7 @@
       <c r="E21" s="12">
         <v>1</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="1"/>
@@ -2571,11 +2565,11 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -2586,9 +2580,9 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="43"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="39"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="28.8">
@@ -2607,7 +2601,7 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G24" s="1"/>
@@ -2628,7 +2622,7 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="1"/>
@@ -2649,7 +2643,7 @@
       <c r="E26" s="12">
         <v>0.7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="1"/>
@@ -2670,7 +2664,7 @@
       <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G27" s="1"/>
@@ -2691,7 +2685,7 @@
       <c r="E28" s="12">
         <v>0.9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="1"/>
@@ -2704,11 +2698,11 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="39"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -2719,9 +2713,9 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="43"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="39"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -2740,7 +2734,7 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G31" s="1"/>
@@ -2791,7 +2785,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2844,7 +2838,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="1"/>
@@ -2865,7 +2859,7 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="1"/>
@@ -2886,36 +2880,58 @@
       <c r="E4" s="12">
         <v>0.6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44170</v>
+      </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44171</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1"/>
@@ -2957,6 +2973,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D2FF7-255B-4E4A-9060-C204376F19C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0EF16-6B6D-498D-A0F8-8546E71989A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="468" windowWidth="13656" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>Task</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>nQGCare, nMVAR Report generate tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nMVAR issues checking</t>
   </si>
 </sst>
 </file>
@@ -2782,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2934,41 +2940,98 @@
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" s="3" customFormat="1"/>
     <row r="12" spans="1:7" s="3" customFormat="1"/>
     <row r="13" spans="1:7" s="3" customFormat="1"/>
     <row r="14" spans="1:7" s="3" customFormat="1"/>
     <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
+    <row r="18" spans="2:3">
+      <c r="C18" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
-        <v>1</v>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0EF16-6B6D-498D-A0F8-8546E71989A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2084F7-175E-448B-BE6A-D31CCC125C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="468" windowWidth="13656" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
   <si>
     <t>Task</t>
   </si>
@@ -337,6 +337,18 @@
   </si>
   <si>
     <t xml:space="preserve"> nMVAR issues checking</t>
+  </si>
+  <si>
+    <t>GSS Website</t>
+  </si>
+  <si>
+    <t>website changes are updated</t>
+  </si>
+  <si>
+    <t>website changes are updated, Document created for Project report</t>
+  </si>
+  <si>
+    <t>GSS, Hayaai Website</t>
   </si>
 </sst>
 </file>
@@ -2788,10 +2800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2980,6 +2992,7 @@
       <c r="F9" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="10">
@@ -3000,44 +3013,150 @@
       <c r="F10" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="18" spans="2:3">
-      <c r="C18" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44175</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44176</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44177</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44178</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44179</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="5"/>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="6"/>
+      <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7"/>
-      <c r="C21" t="s">
+    <row r="23" spans="1:7">
+      <c r="B23" s="7"/>
+      <c r="C23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="8"/>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2084F7-175E-448B-BE6A-D31CCC125C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD3E79-CF2D-415C-B84D-AABCE394CFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>GSS, Hayaai Website</t>
+  </si>
+  <si>
+    <t>QMVAR, YEARLY REPORT</t>
+  </si>
+  <si>
+    <t>QMVAR issues checked , Yearly report-2020 created</t>
   </si>
 </sst>
 </file>
@@ -2803,7 +2809,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3107,13 +3113,25 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44180</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD3E79-CF2D-415C-B84D-AABCE394CFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6C364-B3A6-4FE9-B2D6-033ED1311D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
   <si>
     <t>Task</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t>QMVAR issues checked , Yearly report-2020 created</t>
+  </si>
+  <si>
+    <t>1) 90% 2) 30%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Yearly report-2020 created, 2) GSS website News page edited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YEARLY REPORT, GSS Website</t>
   </si>
 </sst>
 </file>
@@ -2808,15 +2817,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -3133,14 +3142,26 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44181</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" s="9" t="s">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE6C364-B3A6-4FE9-B2D6-033ED1311D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DB9CE-5E3A-4E50-B82A-546293833ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t xml:space="preserve"> YEARLY REPORT, GSS Website</t>
+  </si>
+  <si>
+    <t>Week Off</t>
+  </si>
+  <si>
+    <t>1) 90% 2) 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) Yearly report-2020 created, 2) GSS website News page edited 3) SONIYA exe files rechecking</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -653,6 +662,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2815,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3163,39 +3187,199 @@
       </c>
       <c r="G17" s="1"/>
     </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44182</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44183</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="1"/>
+    </row>
     <row r="20" spans="1:7">
-      <c r="C20" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44184</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="B21" s="5"/>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="6"/>
-      <c r="C22" t="s">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44185</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44186</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="5"/>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="7"/>
-      <c r="C23" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="8"/>
-      <c r="C24" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584DB9CE-5E3A-4E50-B82A-546293833ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EEBB6-7D7C-4398-B770-78643D05211C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 1) Yearly report-2020 created, 2) GSS website News page edited 3) SONIYA exe files rechecking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YEARLY REPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yearly report-2020 created</t>
   </si>
 </sst>
 </file>
@@ -657,12 +663,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,6 +677,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2362,7 +2368,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2377,7 +2383,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="41"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2495,7 +2501,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2510,7 +2516,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="41"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2622,7 +2628,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2637,7 +2643,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2755,7 +2761,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2770,7 +2776,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="41"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -2842,7 +2848,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2971,7 +2977,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -2986,7 +2992,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="41"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3104,7 +3110,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="45" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3119,7 +3125,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3195,7 +3201,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="45" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3210,7 +3216,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3223,7 +3229,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="45" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3238,7 +3244,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="41"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3265,84 +3271,96 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44187</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EEBB6-7D7C-4398-B770-78643D05211C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5AC474-2D37-4398-8AE0-FB183CD41950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4572" yWindow="312" windowWidth="17328" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
   <si>
     <t>Task</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Yearly report-2020 created</t>
+  </si>
+  <si>
+    <t>Hayaai, QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) QMVAR- Issues checking , 2) Hayaai-B2B new design - Login page                                                                 </t>
   </si>
 </sst>
 </file>
@@ -2847,8 +2853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44187</v>
@@ -3291,14 +3297,26 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="3"/>
+    <row r="24" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44188</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="40"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5AC474-2D37-4398-8AE0-FB183CD41950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553B01F7-2A98-490D-9932-EB0F362E2B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4572" yWindow="312" windowWidth="17328" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="122">
   <si>
     <t>Task</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t xml:space="preserve">1) QMVAR- Issues checking , 2) Hayaai-B2B new design - Login page                                                                 </t>
+  </si>
+  <si>
+    <t>Hayaai, Yearly Report - Hayyai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hayaai - mobile new models images edited , 2) Hayaai-Yearly report creating                                                              </t>
+  </si>
+  <si>
+    <t>1)100% 2) 50%</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -569,6 +578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -576,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -687,7 +707,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2374,7 +2403,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2389,7 +2418,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="46"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2507,7 +2536,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2522,7 +2551,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2634,7 +2663,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2649,7 +2678,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2767,7 +2796,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2782,7 +2811,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -2851,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2983,7 +3012,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -2998,7 +3027,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="46"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3116,7 +3145,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3131,7 +3160,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3207,7 +3236,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3222,7 +3251,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3235,7 +3264,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="46" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3250,7 +3279,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="46"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3318,41 +3347,69 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="1:7" ht="28.8">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44189</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44190</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44191</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44192</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="40"/>
@@ -3382,40 +3439,59 @@
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="C32" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="5"/>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="6"/>
-      <c r="C34" t="s">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" t="s">
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="8"/>
-      <c r="C36" t="s">
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553B01F7-2A98-490D-9932-EB0F362E2B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6DED15-95E0-4C83-A4E1-6EA07659A319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
   <si>
     <t>Task</t>
   </si>
@@ -387,13 +387,28 @@
     <t xml:space="preserve">1) QMVAR- Issues checking , 2) Hayaai-B2B new design - Login page                                                                 </t>
   </si>
   <si>
-    <t>Hayaai, Yearly Report - Hayyai</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Hayaai - mobile new models images edited , 2) Hayaai-Yearly report creating                                                              </t>
   </si>
   <si>
     <t>1)100% 2) 50%</t>
+  </si>
+  <si>
+    <t>Hayaai, Yearly Report - Hayaai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) B2B - new layout started 2) Hayaai-Yearly report creating                                                              </t>
+  </si>
+  <si>
+    <t>1)20% 2) 70%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hayaai - B2B new layout for login and dashboard designed , 2) Hayaai-Yearly report                                                 </t>
+  </si>
+  <si>
+    <t>1)40% 2) 100%</t>
+  </si>
+  <si>
+    <t>2020/12/231</t>
   </si>
 </sst>
 </file>
@@ -596,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -718,6 +733,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2883,7 +2901,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3355,13 +3373,13 @@
         <v>44189</v>
       </c>
       <c r="C25" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>3</v>
@@ -3411,41 +3429,73 @@
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="3"/>
+    <row r="29" spans="1:7" ht="28.8">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44193</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.8">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44194</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44195</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="3"/>
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="40"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6DED15-95E0-4C83-A4E1-6EA07659A319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C41E882-6438-4D10-81B9-0D3C56840809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>2020/12/231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Hayaai - B2B new layout for login and dashboard designed, 2) Design template created                                          </t>
   </si>
 </sst>
 </file>
@@ -722,6 +728,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,9 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2421,7 +2427,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2436,7 +2442,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2554,7 +2560,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2569,7 +2575,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2681,7 +2687,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2696,7 +2702,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2814,7 +2820,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2829,7 +2835,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -2900,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3030,7 +3036,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3045,7 +3051,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3163,7 +3169,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3178,7 +3184,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3254,7 +3260,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3269,7 +3275,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3282,7 +3288,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3297,7 +3303,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3409,7 +3415,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3424,7 +3430,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3471,17 +3477,25 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="28.8">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="11">
         <v>44195</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -3494,7 +3508,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C41E882-6438-4D10-81B9-0D3C56840809}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C03205-0AB2-494F-9024-CC82E0F06F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
   <si>
     <t>Task</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">1) Hayaai - B2B new layout for login and dashboard designed, 2) Design template created                                          </t>
+  </si>
+  <si>
+    <t>Hayaai - B2B new layout</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -727,9 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2427,7 +2427,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2442,7 +2442,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="48"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2560,7 +2560,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2575,7 +2575,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2687,7 +2687,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2702,7 +2702,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2820,7 +2820,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2835,7 +2835,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -2907,7 +2907,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3036,7 +3036,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3051,7 +3051,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3169,7 +3169,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3184,7 +3184,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3260,7 +3260,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3275,7 +3275,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3288,7 +3288,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="46" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3303,7 +3303,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3415,7 +3415,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3430,7 +3430,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3505,10 +3505,18 @@
       <c r="B32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="46"/>
+      <c r="C32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C03205-0AB2-494F-9024-CC82E0F06F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209CE8C-E61B-421D-A66F-72B49471CE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5712" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
     <sheet name="OCT-2020" sheetId="7" r:id="rId2"/>
     <sheet name="NOV-2020" sheetId="20" r:id="rId3"/>
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
+    <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -406,9 +407,6 @@
   </si>
   <si>
     <t>1)40% 2) 100%</t>
-  </si>
-  <si>
-    <t>2020/12/231</t>
   </si>
   <si>
     <t xml:space="preserve">1)50% </t>
@@ -620,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -734,6 +732,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,6 +743,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2427,7 +2434,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2442,7 +2449,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="47"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2560,7 +2567,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2575,7 +2582,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="47"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2687,7 +2694,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2702,7 +2709,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2820,7 +2827,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2835,7 +2842,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -2906,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3036,7 +3043,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3051,7 +3058,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="47"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3169,7 +3176,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="47" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3184,7 +3191,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="47"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3260,7 +3267,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3275,7 +3282,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="47"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3288,7 +3295,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3303,7 +3310,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="47"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3415,7 +3422,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3430,7 +3437,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3488,10 +3495,10 @@
         <v>46</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>3</v>
@@ -3502,14 +3509,14 @@
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>126</v>
+      <c r="B32" s="11">
+        <v>44196</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E32" s="12">
         <v>0.7</v>
@@ -3568,4 +3575,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.399999999999999" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44198</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="10.199999999999999" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44199</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44200</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44201</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44202</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44203</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44204</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44205</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44206</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44207</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44208</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44209</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44210</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44211</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44212</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44213</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44214</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44215</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44216</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44217</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44218</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44219</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44220</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44221</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44222</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44223</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44224</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44225</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44226</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44227</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3209CE8C-E61B-421D-A66F-72B49471CE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB654AA-B60E-4843-B44E-AB0D7721D7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5712" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="131">
   <si>
     <t>Task</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>Hayaai - B2B new layout</t>
+  </si>
+  <si>
+    <t>Muji Store</t>
+  </si>
+  <si>
+    <t>Fixing Alignment issues</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -732,6 +738,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,11 +756,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2434,7 +2446,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2449,7 +2461,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="48"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2567,7 +2579,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2582,7 +2594,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2694,7 +2706,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2709,7 +2721,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2827,7 +2839,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2842,7 +2854,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3043,7 +3055,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3058,7 +3070,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3176,7 +3188,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="49" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3191,7 +3203,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3267,7 +3279,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="49" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3282,7 +3294,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3295,7 +3307,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="49" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3310,7 +3322,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3422,7 +3434,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3437,7 +3449,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3582,7 +3594,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3631,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="51"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
@@ -3642,11 +3654,11 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="51"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="10.199999999999999" customHeight="1">
@@ -3657,9 +3669,9 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="50"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="52"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -3688,10 +3700,18 @@
       <c r="B6" s="11">
         <v>44201</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="37"/>
+      <c r="C6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
@@ -3702,7 +3722,7 @@
         <v>44202</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3717,7 +3737,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="14"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="52"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -3730,7 +3750,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="14"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="52"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -3743,7 +3763,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="14"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -3756,7 +3776,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="14"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -3769,7 +3789,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="14"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="52"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -3780,7 +3800,7 @@
         <v>44208</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="47"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="12"/>
       <c r="F13" s="37"/>
       <c r="G13" s="1"/>
@@ -3793,7 +3813,7 @@
         <v>44209</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3808,7 +3828,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="51"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3821,7 +3841,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="14"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3834,7 +3854,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="14"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="52"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -3845,7 +3865,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3858,7 +3878,7 @@
         <v>44214</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3871,7 +3891,7 @@
         <v>44215</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="47"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="12"/>
       <c r="F20" s="37"/>
       <c r="G20" s="1"/>
@@ -3884,7 +3904,7 @@
         <v>44216</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3899,7 +3919,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="14"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="52"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3912,7 +3932,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="51"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="26.4" customHeight="1">
@@ -3925,7 +3945,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="14"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="52"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -3938,7 +3958,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="52"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -3962,7 +3982,7 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -3975,7 +3995,7 @@
         <v>44223</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="50"/>
+      <c r="D28" s="52"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3990,7 +4010,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4003,7 +4023,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="52"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4016,7 +4036,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="52"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -4029,7 +4049,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="52"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -4071,13 +4091,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D6:D7"/>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB654AA-B60E-4843-B44E-AB0D7721D7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09198DD7-F483-459F-9FCB-FF883E5CF007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="432" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
   <si>
     <t>Task</t>
   </si>
@@ -624,7 +624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -744,6 +744,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,12 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2446,7 +2443,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2461,7 +2458,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2579,7 +2576,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2594,7 +2591,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2706,7 +2703,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2721,7 +2718,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2839,7 +2836,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2854,7 +2851,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3055,7 +3052,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3070,7 +3067,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3188,7 +3185,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3203,7 +3200,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3279,7 +3276,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3294,7 +3291,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3307,7 +3304,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3322,7 +3319,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3434,7 +3431,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3449,7 +3446,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3594,7 +3591,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3654,7 +3651,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3669,7 +3666,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12"/>
       <c r="F4" s="48"/>
       <c r="G4" s="1"/>
@@ -3703,7 +3700,7 @@
       <c r="C6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="49" t="s">
         <v>130</v>
       </c>
       <c r="E6" s="12">
@@ -3721,10 +3718,18 @@
       <c r="B7" s="11">
         <v>44202</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="37"/>
+      <c r="C7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -3800,7 +3805,7 @@
         <v>44208</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="12"/>
       <c r="F13" s="37"/>
       <c r="G13" s="1"/>
@@ -3813,7 +3818,7 @@
         <v>44209</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3865,7 +3870,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3878,7 +3883,7 @@
         <v>44214</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3891,7 +3896,7 @@
         <v>44215</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="12"/>
       <c r="F20" s="37"/>
       <c r="G20" s="1"/>
@@ -3904,7 +3909,7 @@
         <v>44216</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3982,7 +3987,7 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -3995,7 +4000,7 @@
         <v>44223</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="52"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09198DD7-F483-459F-9FCB-FF883E5CF007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BA790-282B-4DC0-B2BB-BFE21866E3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="432" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Fixing Alignment issues</t>
+  </si>
+  <si>
+    <t>User Manual creating</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3594,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3739,10 +3742,18 @@
       <c r="B8" s="11">
         <v>44203</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BA790-282B-4DC0-B2BB-BFE21866E3F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D796D17-2389-491F-BCDF-B4E2067141AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -3594,7 +3594,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3763,10 +3763,18 @@
       <c r="B9" s="11">
         <v>44204</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D796D17-2389-491F-BCDF-B4E2067141AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935D35C-173E-47C0-98B6-00657E7E67EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -3594,7 +3594,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3785,9 +3785,11 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -3798,9 +3800,9 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -3810,10 +3812,18 @@
       <c r="B12" s="11">
         <v>44207</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="48"/>
+      <c r="C12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -4115,12 +4125,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935D35C-173E-47C0-98B6-00657E7E67EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CE673-9C64-41DA-8DF7-01DE50BCCE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1896" yWindow="168" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="134">
   <si>
     <t>Task</t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t>User Manual creating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONIA </t>
+  </si>
+  <si>
+    <t>Creating User manual</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3600,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3833,10 +3839,18 @@
       <c r="B13" s="11">
         <v>44208</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="37"/>
+      <c r="C13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -3846,10 +3860,18 @@
       <c r="B14" s="11">
         <v>44209</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -4125,9 +4147,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317CE673-9C64-41DA-8DF7-01DE50BCCE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A35B9-CB94-4E80-8060-404EC5283F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1896" yWindow="168" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
   <si>
     <t>Task</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Creating User manual</t>
+  </si>
+  <si>
+    <t>Sonia - MS access Document creation</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -767,6 +770,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3600,7 +3606,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3882,7 +3888,9 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="47"/>
       <c r="G15" s="1"/>
@@ -3895,7 +3903,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="48"/>
       <c r="G16" s="1"/>
@@ -3908,7 +3916,9 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="14"/>
+      <c r="D17" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="48"/>
       <c r="G17" s="1"/>
@@ -3921,7 +3931,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3933,10 +3943,18 @@
       <c r="B19" s="11">
         <v>44214</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4147,12 +4165,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A35B9-CB94-4E80-8060-404EC5283F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D37263-FFC1-4E67-8400-25341D745F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="468" windowWidth="17328" windowHeight="11892" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
   <si>
     <t>Task</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Sonia - MS access Document creation</t>
+  </si>
+  <si>
+    <t>Sonia - 1 ) MS access Document , 2) User manual</t>
+  </si>
+  <si>
+    <t>1) 100%   2) 75%</t>
   </si>
 </sst>
 </file>
@@ -759,6 +765,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,9 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2458,7 +2464,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2473,7 +2479,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2591,7 +2597,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2606,7 +2612,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2718,7 +2724,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2733,7 +2739,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2851,7 +2857,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2866,7 +2872,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3067,7 +3073,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3082,7 +3088,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3200,7 +3206,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3215,7 +3221,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3291,7 +3297,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="51" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3306,7 +3312,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3319,7 +3325,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3334,7 +3340,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3446,7 +3452,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3461,7 +3467,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3606,7 +3612,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3666,7 +3672,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3681,7 +3687,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="12"/>
       <c r="F4" s="48"/>
       <c r="G4" s="1"/>
@@ -3797,7 +3803,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3812,7 +3818,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="12"/>
       <c r="F11" s="48"/>
       <c r="G11" s="1"/>
@@ -3888,7 +3894,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3903,7 +3909,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="12"/>
       <c r="F16" s="48"/>
       <c r="G16" s="1"/>
@@ -3916,7 +3922,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3931,7 +3937,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3946,7 +3952,7 @@
       <c r="C19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="50" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="12">
@@ -3964,10 +3970,18 @@
       <c r="B20" s="11">
         <v>44215</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="37"/>
+      <c r="C20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -3978,7 +3992,7 @@
         <v>44216</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -4056,7 +4070,7 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="52"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -4069,7 +4083,7 @@
         <v>44223</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4165,9 +4179,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D15:D16"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D37263-FFC1-4E67-8400-25341D745F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D34944-490B-46D3-902E-49B378D4FCEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="139">
   <si>
     <t>Task</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>1) 100%   2) 75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Sonia - User manual ,2) Logo designed </t>
+  </si>
+  <si>
+    <t>1)85%  2)100%</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,9 +759,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,6 +782,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2464,7 +2473,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2479,7 +2488,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2597,7 +2606,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2612,7 +2621,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2724,7 +2733,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2739,7 +2748,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="52"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2857,7 +2866,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2872,7 +2881,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="52"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3073,7 +3082,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3088,7 +3097,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="52"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3206,7 +3215,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3221,7 +3230,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3297,7 +3306,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3312,7 +3321,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="52"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3325,7 +3334,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3340,7 +3349,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3452,7 +3461,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3467,7 +3476,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3611,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3661,7 +3670,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="47"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
@@ -3672,11 +3681,11 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="47"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="10.199999999999999" customHeight="1">
@@ -3687,9 +3696,9 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="54"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="48"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -3721,7 +3730,7 @@
       <c r="C6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="48" t="s">
         <v>130</v>
       </c>
       <c r="E6" s="12">
@@ -3742,7 +3751,7 @@
       <c r="C7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="12">
@@ -3803,11 +3812,11 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="47"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -3818,9 +3827,9 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="48"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -3854,7 +3863,7 @@
       <c r="C13" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="12">
@@ -3875,7 +3884,7 @@
       <c r="C14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="48" t="s">
         <v>133</v>
       </c>
       <c r="E14" s="12">
@@ -3894,11 +3903,11 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="47"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3909,9 +3918,9 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="48"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3922,11 +3931,11 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="48"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -3937,7 +3946,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3952,7 +3961,7 @@
       <c r="C19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>134</v>
       </c>
       <c r="E19" s="12">
@@ -3973,7 +3982,7 @@
       <c r="C20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="49" t="s">
         <v>135</v>
       </c>
       <c r="E20" s="12" t="s">
@@ -3991,10 +4000,18 @@
       <c r="B21" s="11">
         <v>44216</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="37"/>
+      <c r="C21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4007,7 +4024,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="14"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="48"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4020,7 +4037,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="26.4" customHeight="1">
@@ -4033,7 +4050,7 @@
       <c r="C24" s="10"/>
       <c r="D24" s="14"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4046,7 +4063,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4057,7 +4074,7 @@
         <v>44221</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="12"/>
       <c r="F26" s="37"/>
       <c r="G26" s="1"/>
@@ -4070,7 +4087,7 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="53"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -4098,7 +4115,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="14"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="48"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4111,7 +4128,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="14"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="48"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4124,7 +4141,7 @@
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="48"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -4137,7 +4154,7 @@
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="48"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -4179,9 +4196,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D34944-490B-46D3-902E-49B378D4FCEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C9D91-BEF3-410E-81B8-8303D059FE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -439,13 +439,19 @@
     <t>Sonia - 1 ) MS access Document , 2) User manual</t>
   </si>
   <si>
-    <t>1) 100%   2) 75%</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Sonia - User manual ,2) Logo designed </t>
   </si>
   <si>
-    <t>1)85%  2)100%</t>
+    <t>Sonia - User manual</t>
+  </si>
+  <si>
+    <t>Creating User manual, MS access Document</t>
+  </si>
+  <si>
+    <t>1) 100%   2) 50%</t>
+  </si>
+  <si>
+    <t>1)65%  2)100%</t>
   </si>
 </sst>
 </file>
@@ -771,6 +777,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -782,12 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2473,7 +2479,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2488,7 +2494,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2606,7 +2612,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2621,7 +2627,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2733,7 +2739,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2748,7 +2754,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2866,7 +2872,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2881,7 +2887,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3082,7 +3088,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3097,7 +3103,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3215,7 +3221,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3230,7 +3236,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="51"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3306,7 +3312,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3321,7 +3327,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3334,7 +3340,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3349,7 +3355,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3461,7 +3467,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3476,7 +3482,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3621,7 +3627,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3681,7 +3687,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3696,7 +3702,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3812,7 +3818,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3827,7 +3833,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3867,7 +3873,7 @@
         <v>133</v>
       </c>
       <c r="E13" s="12">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>3</v>
@@ -3885,10 +3891,10 @@
         <v>132</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E14" s="12">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>3</v>
@@ -3903,7 +3909,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3918,7 +3924,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -3931,7 +3937,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3946,7 +3952,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -3986,7 +3992,7 @@
         <v>135</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>3</v>
@@ -4004,10 +4010,10 @@
         <v>132</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>3</v>
@@ -4021,10 +4027,18 @@
       <c r="B22" s="11">
         <v>44217</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="47"/>
+      <c r="C22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4087,7 +4101,7 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="55"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -4100,7 +4114,7 @@
         <v>44223</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C9D91-BEF3-410E-81B8-8303D059FE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439315CD-59A0-441D-8D08-DDF7619BF456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4048,10 +4048,18 @@
       <c r="B23" s="11">
         <v>44218</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="26.4" customHeight="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop files\DESKtop_backup\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439315CD-59A0-441D-8D08-DDF7619BF456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F8CF9-7E7C-4BAE-B260-90BFB921D4E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="144">
   <si>
     <t>Task</t>
   </si>
@@ -452,6 +452,15 @@
   </si>
   <si>
     <t>1)65%  2)100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonia - User manual - Modifications </t>
+  </si>
+  <si>
+    <t>QMVAR - ChangePassword Screen</t>
+  </si>
+  <si>
+    <t>QMVAR-2.0</t>
   </si>
 </sst>
 </file>
@@ -654,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,12 +784,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2479,7 +2482,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2494,7 +2497,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2612,7 +2615,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2627,7 +2630,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2739,7 +2742,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2754,7 +2757,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2872,7 +2875,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2887,7 +2890,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3088,7 +3091,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3103,7 +3106,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3221,7 +3224,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="50" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3236,7 +3239,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3312,7 +3315,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="50" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3327,7 +3330,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3340,7 +3343,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3355,7 +3358,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3467,7 +3470,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3482,7 +3485,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3626,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3687,7 +3690,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3702,7 +3705,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3818,7 +3821,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3833,7 +3836,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3909,7 +3912,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3924,7 +3927,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -3937,7 +3940,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="50" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3952,7 +3955,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4062,7 +4065,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="26.4" customHeight="1">
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4070,7 +4073,9 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4083,7 +4088,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4095,10 +4100,18 @@
       <c r="B26" s="11">
         <v>44221</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="37"/>
+      <c r="C26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4109,7 +4122,9 @@
         <v>44222</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="51"/>
+      <c r="D27" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="37"/>
       <c r="G27" s="1"/>
@@ -4121,10 +4136,18 @@
       <c r="B28" s="11">
         <v>44223</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="37"/>
+      <c r="C28" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4135,7 +4158,9 @@
         <v>44224</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -4147,10 +4172,18 @@
       <c r="B30" s="11">
         <v>44225</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4161,7 +4194,9 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="50" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="47"/>
       <c r="G31" s="1"/>
@@ -4174,7 +4209,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4218,11 +4253,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5F8CF9-7E7C-4BAE-B260-90BFB921D4E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DC622-394C-48E0-A99E-CE3248AE1EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NOV-2020" sheetId="20" r:id="rId3"/>
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
+    <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="146">
   <si>
     <t>Task</t>
   </si>
@@ -461,6 +462,12 @@
   </si>
   <si>
     <t>QMVAR-2.0</t>
+  </si>
+  <si>
+    <t>GSS , Qmvar-2.0</t>
+  </si>
+  <si>
+    <t>GSS Website Backup, Qmvar - overall alignments checked</t>
   </si>
 </sst>
 </file>
@@ -663,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -797,6 +804,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3629,7 +3645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4264,4 +4280,508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44228</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44229</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44230</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44231</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44232</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44233</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44234</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44235</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44236</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44237</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44238</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44208</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44209</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44210</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44211</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44212</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44213</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44214</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44215</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44216</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44217</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44218</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44219</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44220</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44221</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44222</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44223</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44224</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44225</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44226</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44227</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D31:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28DC622-394C-48E0-A99E-CE3248AE1EC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A617D-BCD1-43E6-B310-B20269FDD7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="148">
   <si>
     <t>Task</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>GSS Website Backup, Qmvar - overall alignments checked</t>
+  </si>
+  <si>
+    <t>Hayaai, Qmvar-2.0</t>
+  </si>
+  <si>
+    <t>Hayaai Website Backup, Qmvar -Changes Requested completed</t>
   </si>
 </sst>
 </file>
@@ -670,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,6 +799,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,15 +816,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2498,7 +2501,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2513,7 +2516,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2631,7 +2634,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2646,7 +2649,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2758,7 +2761,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2773,7 +2776,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2891,7 +2894,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2906,7 +2909,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="51"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3107,7 +3110,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3122,7 +3125,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3240,7 +3243,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3255,7 +3258,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="51"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3331,7 +3334,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3346,7 +3349,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="51"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3359,7 +3362,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3374,7 +3377,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="51"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3486,7 +3489,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3501,7 +3504,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3706,7 +3709,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3721,7 +3724,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3837,7 +3840,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3852,7 +3855,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3928,7 +3931,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3943,7 +3946,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -3956,7 +3959,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3971,7 +3974,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4089,7 +4092,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4104,7 +4107,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="51"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4210,7 +4213,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4225,7 +4228,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4287,7 +4290,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4334,7 +4337,7 @@
       <c r="C2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="51" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="12">
@@ -4352,10 +4355,18 @@
       <c r="B3" s="11">
         <v>44229</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -4366,7 +4377,7 @@
         <v>44230</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="54"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4444,7 +4455,7 @@
         <v>44236</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="52"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -4457,7 +4468,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4509,7 +4520,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4522,7 +4533,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="51"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4535,7 +4546,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="12"/>
       <c r="F17" s="47"/>
       <c r="G17" s="1"/>
@@ -4548,7 +4559,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4626,7 +4637,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4639,7 +4650,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="51"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4717,7 +4728,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="50"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="12"/>
       <c r="F31" s="47"/>
       <c r="G31" s="1"/>
@@ -4730,7 +4741,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="51"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2A617D-BCD1-43E6-B310-B20269FDD7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E72F0B-871A-477D-B6E1-0051D3480918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="150">
   <si>
     <t>Task</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Hayaai Website Backup, Qmvar -Changes Requested completed</t>
+  </si>
+  <si>
+    <t>Sonia Issues traker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonia </t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -816,6 +825,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2501,7 +2513,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2516,7 +2528,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2634,7 +2646,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2649,7 +2661,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2761,7 +2773,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2776,7 +2788,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2894,7 +2906,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2909,7 +2921,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3110,7 +3122,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3125,7 +3137,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3243,7 +3255,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="51" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3258,7 +3270,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3334,7 +3346,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3349,7 +3361,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3362,7 +3374,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3377,7 +3389,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3489,7 +3501,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3504,7 +3516,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3709,7 +3721,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3724,7 +3736,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3840,7 +3852,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3855,7 +3867,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3931,7 +3943,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3946,7 +3958,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -3959,7 +3971,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3974,7 +3986,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4092,7 +4104,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4107,7 +4119,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4213,7 +4225,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="51" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4228,7 +4240,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4290,7 +4302,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4337,7 +4349,7 @@
       <c r="C2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="50" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="12">
@@ -4358,7 +4370,7 @@
       <c r="C3" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>147</v>
       </c>
       <c r="E3" s="12">
@@ -4376,10 +4388,16 @@
       <c r="B4" s="11">
         <v>44230</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>148</v>
+      </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="47"/>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -4455,7 +4473,7 @@
         <v>44236</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -4468,7 +4486,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4520,7 +4538,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4533,7 +4551,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4546,7 +4564,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="12"/>
       <c r="F17" s="47"/>
       <c r="G17" s="1"/>
@@ -4559,7 +4577,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4637,7 +4655,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="52"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4650,7 +4668,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4728,7 +4746,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="52"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="12"/>
       <c r="F31" s="47"/>
       <c r="G31" s="1"/>
@@ -4741,7 +4759,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="52"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E72F0B-871A-477D-B6E1-0051D3480918}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95BE333-3936-4D1C-BAFD-ACC322C65CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5568" yWindow="72" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="150">
   <si>
     <t>Task</t>
   </si>
@@ -814,6 +814,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -825,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2513,7 +2513,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2528,7 +2528,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2646,7 +2646,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2661,7 +2661,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2773,7 +2773,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2788,7 +2788,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2906,7 +2906,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2921,7 +2921,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="52"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3122,7 +3122,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3137,7 +3137,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="52"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3255,7 +3255,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3270,7 +3270,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3346,7 +3346,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3361,7 +3361,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="52"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3374,7 +3374,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3389,7 +3389,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="52"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3501,7 +3501,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3516,7 +3516,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3721,7 +3721,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3736,7 +3736,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3852,7 +3852,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3867,7 +3867,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3943,7 +3943,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3958,7 +3958,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -3971,7 +3971,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -3986,7 +3986,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4104,7 +4104,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4119,7 +4119,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4225,7 +4225,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4240,7 +4240,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="52"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4302,7 +4302,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4394,8 +4394,10 @@
       <c r="D4" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -4407,10 +4409,18 @@
       <c r="B5" s="11">
         <v>44231</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="20.399999999999999" customHeight="1">
@@ -4473,7 +4483,7 @@
         <v>44236</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -4486,7 +4496,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4538,7 +4548,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4551,7 +4561,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4564,7 +4574,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="12"/>
       <c r="F17" s="47"/>
       <c r="G17" s="1"/>
@@ -4577,7 +4587,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4655,7 +4665,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4668,7 +4678,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4746,7 +4756,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="12"/>
       <c r="F31" s="47"/>
       <c r="G31" s="1"/>
@@ -4759,7 +4769,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="52"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95BE333-3936-4D1C-BAFD-ACC322C65CDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7188CC-CC2B-4085-8E73-08DA810A350A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="72" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="153">
   <si>
     <t>Task</t>
   </si>
@@ -480,6 +480,15 @@
   </si>
   <si>
     <t xml:space="preserve">Sonia </t>
+  </si>
+  <si>
+    <t>Hayyai - B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Layout - Login screen and Main screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Layout -  Registration - Add New Product screen </t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -827,6 +836,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3661,7 +3679,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4302,7 +4320,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4430,10 +4448,18 @@
       <c r="B6" s="11">
         <v>44232</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
@@ -4444,12 +4470,14 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="46"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -4457,22 +4485,30 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>44235</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -4483,7 +4519,7 @@
         <v>44236</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -4496,7 +4532,7 @@
         <v>44237</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4814,7 +4850,7 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D24:D25"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7188CC-CC2B-4085-8E73-08DA810A350A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7D6AE-9A0C-4555-B7F2-D64E8DE112AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="157">
   <si>
     <t>Task</t>
   </si>
@@ -489,6 +489,19 @@
   </si>
   <si>
     <t xml:space="preserve">New Layout -  Registration - Add New Product screen </t>
+  </si>
+  <si>
+    <t>1) New Layout -  Registration - View Registration  screen
+2) nMVAR - UAT issues tracker created</t>
+  </si>
+  <si>
+    <t>Hayyai - B2B , nMVAR</t>
+  </si>
+  <si>
+    <t>2) 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Layout - Token system design and flow  </t>
   </si>
 </sst>
 </file>
@@ -697,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -837,12 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4320,7 +4327,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4485,7 +4492,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="58"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -4511,17 +4518,25 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44236</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -4531,10 +4546,18 @@
       <c r="B11" s="11">
         <v>44237</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE7D6AE-9A0C-4555-B7F2-D64E8DE112AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325965E-E070-47AD-9D7F-7D86F42C92C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="159">
   <si>
     <t>Task</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t xml:space="preserve">New Layout - Token system design and flow  </t>
+  </si>
+  <si>
+    <t>New Layout - Registration - View Registration  screen</t>
+  </si>
+  <si>
+    <t>New Layout -Registration -  Search Registration Screen</t>
   </si>
 </sst>
 </file>
@@ -710,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -853,6 +859,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4324,10 +4339,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4560,30 +4575,46 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="11">
         <v>44238</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>44208</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="46"/>
+        <v>44239</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -4591,10 +4622,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44209</v>
+        <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="46"/>
       <c r="G14" s="1"/>
@@ -4604,25 +4637,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>44210</v>
+        <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>44211</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="47"/>
+        <v>44242</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4630,10 +4671,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>44212</v>
+        <v>44243</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="12"/>
       <c r="F17" s="47"/>
       <c r="G17" s="1"/>
@@ -4643,10 +4684,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>44213</v>
+        <v>44244</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4656,7 +4697,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>44214</v>
+        <v>44245</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="49"/>
@@ -4669,7 +4710,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>44215</v>
+        <v>44246</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="49"/>
@@ -4682,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>44216</v>
+        <v>44247</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="49"/>
@@ -4695,7 +4736,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>44217</v>
+        <v>44248</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="49"/>
@@ -4708,7 +4749,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>44218</v>
+        <v>44249</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="49"/>
@@ -4721,7 +4762,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>44219</v>
+        <v>44250</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="52"/>
@@ -4734,7 +4775,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>44220</v>
+        <v>44251</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="53"/>
@@ -4747,7 +4788,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>44221</v>
+        <v>44252</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="49"/>
@@ -4760,7 +4801,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>44222</v>
+        <v>44253</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="34"/>
@@ -4773,7 +4814,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>44223</v>
+        <v>44254</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="49"/>
@@ -4786,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>44224</v>
+        <v>44255</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="34"/>
@@ -4795,89 +4836,48 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="10">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>44225</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>44226</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="1"/>
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>44227</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="C34" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="6"/>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="7"/>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="8"/>
-      <c r="C38" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325965E-E070-47AD-9D7F-7D86F42C92C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909A7D1-9BE0-484E-946F-42A24BD99A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="160">
   <si>
     <t>Task</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>New Layout -Registration -  Search Registration Screen</t>
+  </si>
+  <si>
+    <t>New Layout -Registration - View and  Search Registration Screen modified full design</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -845,6 +848,9 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,14 +866,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2553,7 +2553,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2568,7 +2568,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2686,7 +2686,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2701,7 +2701,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2813,7 +2813,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2828,7 +2828,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2946,7 +2946,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2961,7 +2961,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3162,7 +3162,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3177,7 +3177,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3295,7 +3295,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="53" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3310,7 +3310,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3386,7 +3386,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="53" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3401,7 +3401,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3414,7 +3414,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3429,7 +3429,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3541,7 +3541,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3556,7 +3556,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3761,7 +3761,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3776,7 +3776,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3892,7 +3892,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3907,7 +3907,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3983,7 +3983,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3998,7 +3998,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4011,7 +4011,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4026,7 +4026,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4144,7 +4144,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4159,7 +4159,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4265,7 +4265,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4280,7 +4280,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4342,7 +4342,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4492,7 +4492,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -4507,7 +4507,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -4625,7 +4625,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -4666,17 +4666,25 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44243</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4687,7 +4695,7 @@
         <v>44244</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="59"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4765,7 +4773,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4778,7 +4786,7 @@
         <v>44251</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8909A7D1-9BE0-484E-946F-42A24BD99A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB14E92-ACCF-4221-B30D-4A4FD69B498A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="161">
   <si>
     <t>Task</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>New Layout -Registration - View and  Search Registration Screen modified full design</t>
+  </si>
+  <si>
+    <t>New Layout -Service Job Management - Acknowledgement &amp; Engineer Assign, create Job - 2 screens designed</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -847,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2553,7 +2553,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2568,7 +2568,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="54"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2686,7 +2686,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2701,7 +2701,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="54"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2813,7 +2813,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2828,7 +2828,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="54"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -2946,7 +2946,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -2961,7 +2961,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="54"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3162,7 +3162,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3177,7 +3177,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="54"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3295,7 +3295,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3310,7 +3310,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="54"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3386,7 +3386,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3401,7 +3401,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="54"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3414,7 +3414,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3429,7 +3429,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3541,7 +3541,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3556,7 +3556,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="56"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3761,7 +3761,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3776,7 +3776,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -3892,7 +3892,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -3907,7 +3907,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="56"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -3983,7 +3983,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -3998,7 +3998,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="54"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4011,7 +4011,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4026,7 +4026,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="54"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4144,7 +4144,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4159,7 +4159,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4265,7 +4265,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="53" t="s">
+      <c r="D31" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4280,7 +4280,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="54"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4342,7 +4342,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4492,7 +4492,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -4507,7 +4507,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="57"/>
+      <c r="D8" s="56"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -4625,7 +4625,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -4640,7 +4640,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4687,17 +4687,25 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="43.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44244</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="37"/>
+      <c r="C18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4773,7 +4781,7 @@
         <v>44250</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="53"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="12"/>
       <c r="F24" s="47"/>
       <c r="G24" s="1"/>
@@ -4786,7 +4794,7 @@
         <v>44251</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="54"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB14E92-ACCF-4221-B30D-4A4FD69B498A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81A752-57FB-4DDE-A276-8AAEF0EB8646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="756" windowWidth="17280" windowHeight="11604" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
   <si>
     <t>Task</t>
   </si>
@@ -514,6 +514,18 @@
   </si>
   <si>
     <t>New Layout -Service Job Management - Acknowledgement &amp; Engineer Assign, create Job - 2 screens designed</t>
+  </si>
+  <si>
+    <t>New Layout -Service Job Management - Acknowledgement &amp; Engineer Assign, create Job - 2 screens Modification</t>
+  </si>
+  <si>
+    <t>Modification in Registration layout</t>
+  </si>
+  <si>
+    <t>Service Job Management - Serach Job screen new layout</t>
+  </si>
+  <si>
+    <t>Dashboard - Pending calls screen</t>
   </si>
 </sst>
 </file>
@@ -4341,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4708,17 +4720,25 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>44245</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4728,10 +4748,18 @@
       <c r="B20" s="11">
         <v>44246</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4742,7 +4770,9 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="49"/>
+      <c r="D21" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="46"/>
       <c r="G21" s="1"/>
@@ -4755,22 +4785,30 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="49"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44249</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -4780,10 +4818,18 @@
       <c r="B24" s="11">
         <v>44250</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4794,7 +4840,7 @@
         <v>44251</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4892,8 +4938,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D81A752-57FB-4DDE-A276-8AAEF0EB8646}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB78576-41AD-4352-A154-8B6F235B327A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="756" windowWidth="17280" windowHeight="11604" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="166">
   <si>
     <t>Task</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Dashboard - Pending calls screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard - Main screen designed and View details screen </t>
   </si>
 </sst>
 </file>
@@ -4354,7 +4357,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E32" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4832,17 +4835,25 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="28.8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44251</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB78576-41AD-4352-A154-8B6F235B327A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373FA851-127C-4E0B-8C1A-8BB020D928AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="756" windowWidth="17280" windowHeight="11604" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="167">
   <si>
     <t>Task</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dashboard - Main screen designed and View details screen </t>
+  </si>
+  <si>
+    <t>Parts Infromation Screen</t>
   </si>
 </sst>
 </file>
@@ -4356,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E31:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4856,17 +4859,25 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44252</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4876,10 +4887,18 @@
       <c r="B27" s="11">
         <v>44253</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="37"/>
+      <c r="C27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4890,7 +4909,9 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="46"/>
       <c r="G28" s="1"/>
@@ -4903,7 +4924,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -4947,10 +4968,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373FA851-127C-4E0B-8C1A-8BB020D928AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40826C95-A37F-4F2D-AA1A-E137A2AD382F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="756" windowWidth="17280" windowHeight="11604" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
+    <sheet name="MAR-2021 " sheetId="24" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="174">
   <si>
     <t>Task</t>
   </si>
@@ -532,6 +533,27 @@
   </si>
   <si>
     <t>Parts Infromation Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai B2B </t>
+  </si>
+  <si>
+    <t>Parts Information pending</t>
+  </si>
+  <si>
+    <t>B2B new layout Document and Design Modifications</t>
+  </si>
+  <si>
+    <t>Service Job management Screen modification</t>
+  </si>
+  <si>
+    <t>Warranty Extention - View &amp; download screen</t>
+  </si>
+  <si>
+    <t>Warranty Extention - EW invoice Details, Create new Job screen</t>
+  </si>
+  <si>
+    <t>Japanese version fully tested</t>
   </si>
 </sst>
 </file>
@@ -3718,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
@@ -4359,8 +4381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4977,4 +4999,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>47908</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>47909</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>47910</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>47911</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>47912</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>47913</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>47914</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>47915</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>47916</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>47917</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>47918</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>47919</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>47920</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>47921</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>47922</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>47923</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>47924</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>47925</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>47926</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>47927</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>47928</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>47929</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>47930</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>47931</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>47932</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>47933</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>47934</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>47935</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="5"/>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D28:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40826C95-A37F-4F2D-AA1A-E137A2AD382F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72D7A2-8166-48EA-96F7-25BEACD4C28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="176">
   <si>
     <t>Task</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>Japanese version fully tested</t>
+  </si>
+  <si>
+    <t>Muji Store,Sonia,Nmvar</t>
+  </si>
+  <si>
+    <t>Japanese version fully tested, Sonia and Nmvar - UAT issues doc modified</t>
   </si>
 </sst>
 </file>
@@ -5006,7 +5012,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5197,17 +5203,25 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>47916</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72D7A2-8166-48EA-96F7-25BEACD4C28C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82A1FD-7C73-469E-BA44-F90DA3B77BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="181">
   <si>
     <t>Task</t>
   </si>
@@ -560,6 +560,21 @@
   </si>
   <si>
     <t>Japanese version fully tested, Sonia and Nmvar - UAT issues doc modified</t>
+  </si>
+  <si>
+    <t>nMVAR,Hayaai B2B</t>
+  </si>
+  <si>
+    <t>nMVAR UAT issues Doc translated, Warranty Extention</t>
+  </si>
+  <si>
+    <t>Parts Information screen</t>
+  </si>
+  <si>
+    <t>Existing Screen - Jobs Screen designed fully</t>
+  </si>
+  <si>
+    <t>Existing Screen - Jobs, Dashboard Screen designed fully</t>
   </si>
 </sst>
 </file>
@@ -5012,7 +5027,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5224,17 +5239,25 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>47917</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -5244,10 +5267,18 @@
       <c r="B12" s="11">
         <v>47918</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -5257,10 +5288,18 @@
       <c r="B13" s="11">
         <v>47919</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="47"/>
+      <c r="C13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -5271,7 +5310,9 @@
         <v>47920</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52"/>
+      <c r="D14" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="46"/>
       <c r="G14" s="1"/>
@@ -5289,17 +5330,25 @@
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>47922</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82A1FD-7C73-469E-BA44-F90DA3B77BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B2B5B-CF51-46BD-8284-67742F92179D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="183">
   <si>
     <t>Task</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Existing Screen - Jobs, Dashboard Screen designed fully</t>
+  </si>
+  <si>
+    <t>Hayaai-RPA</t>
+  </si>
+  <si>
+    <t>Creating Hayaai Rpa Proposal for Rlogic</t>
   </si>
 </sst>
 </file>
@@ -5027,7 +5033,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5358,10 +5364,18 @@
       <c r="B17" s="11">
         <v>47923</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9B2B5B-CF51-46BD-8284-67742F92179D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420AA069-53D5-44C9-80D8-D7524BE8C5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="185">
   <si>
     <t>Task</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>Creating Hayaai Rpa Proposal for Rlogic</t>
+  </si>
+  <si>
+    <t>Hayaai-RPA , B2B</t>
+  </si>
+  <si>
+    <t>Creating Hayaai Rpa Proposal for Rlogic, Modifiaction screens</t>
   </si>
 </sst>
 </file>
@@ -5032,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5378,17 +5384,25 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="28.8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>47924</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420AA069-53D5-44C9-80D8-D7524BE8C5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF838B-ABF2-45AD-8EA4-8FBB50E0B9F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="189">
   <si>
     <t>Task</t>
   </si>
@@ -587,6 +587,18 @@
   </si>
   <si>
     <t>Creating Hayaai Rpa Proposal for Rlogic, Modifiaction screens</t>
+  </si>
+  <si>
+    <t>Modifiaction screens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai-RPA </t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>Created Hayaai LetterHead</t>
   </si>
 </sst>
 </file>
@@ -5039,7 +5051,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5412,10 +5424,18 @@
       <c r="B19" s="11">
         <v>47925</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -5425,10 +5445,18 @@
       <c r="B20" s="11">
         <v>47926</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -5439,7 +5467,9 @@
         <v>47927</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="52"/>
+      <c r="D21" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="46"/>
       <c r="G21" s="1"/>
@@ -5464,10 +5494,18 @@
       <c r="B23" s="11">
         <v>47929</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="47"/>
+      <c r="C23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BF838B-ABF2-45AD-8EA4-8FBB50E0B9F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A9460-5BD1-4DBE-A3E2-8D2571FEBE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="193">
   <si>
     <t>Task</t>
   </si>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>Created Hayaai LetterHead</t>
+  </si>
+  <si>
+    <t>Hayaai -B2B</t>
+  </si>
+  <si>
+    <t>Modification screen</t>
+  </si>
+  <si>
+    <t>Qmvar-2.0</t>
+  </si>
+  <si>
+    <t>design issues checked</t>
   </si>
 </sst>
 </file>
@@ -5050,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5093,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>47908</v>
+        <v>44256</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>167</v>
@@ -5114,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>47909</v>
+        <v>44257</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>167</v>
@@ -5135,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>47910</v>
+        <v>44258</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>167</v>
@@ -5156,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>47911</v>
+        <v>44259</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>167</v>
@@ -5177,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>47912</v>
+        <v>44260</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>167</v>
@@ -5198,7 +5210,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>47913</v>
+        <v>44261</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="52" t="s">
@@ -5213,7 +5225,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>47914</v>
+        <v>44262</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="56"/>
@@ -5226,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>47915</v>
+        <v>44263</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>129</v>
@@ -5247,7 +5259,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>47916</v>
+        <v>44264</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>174</v>
@@ -5268,7 +5280,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>47917</v>
+        <v>44265</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>176</v>
@@ -5289,7 +5301,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>47918</v>
+        <v>44266</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>167</v>
@@ -5310,7 +5322,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>47919</v>
+        <v>44267</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>167</v>
@@ -5331,7 +5343,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>47920</v>
+        <v>44268</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="52" t="s">
@@ -5346,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>47921</v>
+        <v>44269</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="57"/>
@@ -5359,7 +5371,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>47922</v>
+        <v>44270</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>167</v>
@@ -5380,7 +5392,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>47923</v>
+        <v>44271</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>181</v>
@@ -5401,7 +5413,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>47924</v>
+        <v>44272</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>183</v>
@@ -5422,7 +5434,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>47925</v>
+        <v>44273</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>186</v>
@@ -5443,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>47926</v>
+        <v>44274</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>187</v>
@@ -5464,7 +5476,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>47927</v>
+        <v>44275</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="52" t="s">
@@ -5479,7 +5491,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>47928</v>
+        <v>44276</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="53"/>
@@ -5492,7 +5504,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>47929</v>
+        <v>44277</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>46</v>
@@ -5501,10 +5513,10 @@
         <v>188</v>
       </c>
       <c r="E23" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -5513,12 +5525,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>47930</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="46"/>
+        <v>44278</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5526,12 +5546,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>47931</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="46"/>
+        <v>44279</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -5539,7 +5567,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>47932</v>
+        <v>44280</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="48"/>
@@ -5552,7 +5580,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>47933</v>
+        <v>44281</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="48"/>
@@ -5565,7 +5593,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>47934</v>
+        <v>44282</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="52"/>
@@ -5578,7 +5606,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>47935</v>
+        <v>44283</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="53"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A9460-5BD1-4DBE-A3E2-8D2571FEBE4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FA7DD-CA3A-41E9-A717-AFA0F0480AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="195">
   <si>
     <t>Task</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>design issues checked</t>
+  </si>
+  <si>
+    <t>nMVAR</t>
+  </si>
+  <si>
+    <t>nMVAR UAT issues Doc translated</t>
   </si>
 </sst>
 </file>
@@ -5063,7 +5069,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5569,10 +5575,18 @@
       <c r="B26" s="11">
         <v>44280</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FA7DD-CA3A-41E9-A717-AFA0F0480AF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50FBE9D-C245-4DF6-9F28-71256A74838E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
   <si>
     <t>Task</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>nMVAR UAT issues Doc translated</t>
+  </si>
+  <si>
+    <t>Dropdown menu design issues checked</t>
+  </si>
+  <si>
+    <t>Invoice Design created</t>
   </si>
 </sst>
 </file>
@@ -5066,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5596,10 +5602,18 @@
       <c r="B27" s="11">
         <v>44281</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="47"/>
+      <c r="C27" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -5610,7 +5624,9 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="52"/>
+      <c r="D28" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="46"/>
       <c r="G28" s="1"/>
@@ -5623,46 +5639,84 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="53"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44284</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="C31" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44285</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="5"/>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44286</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
-      <c r="C33" t="s">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="8"/>
-      <c r="C35" t="s">
+    <row r="36" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="8"/>
+      <c r="C37" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50FBE9D-C245-4DF6-9F28-71256A74838E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1E1F5-0320-4349-9118-6B3D53E75F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
     <sheet name="MAR-2021 " sheetId="24" r:id="rId7"/>
+    <sheet name="APR-2021" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="205">
   <si>
     <t>Task</t>
   </si>
@@ -623,6 +624,31 @@
   </si>
   <si>
     <t>Invoice Design created</t>
+  </si>
+  <si>
+    <t>Jobsheet , Delivery Report created</t>
+  </si>
+  <si>
+    <t>Invoice Design created, Job sheet</t>
+  </si>
+  <si>
+    <t>Advance Payment Receipt created</t>
+  </si>
+  <si>
+    <t>Report designs all created in Jasper tool</t>
+  </si>
+  <si>
+    <t>Advance Payment information and Billing Information screen design</t>
+  </si>
+  <si>
+    <t>Hayaai,nMVAR,SONIA</t>
+  </si>
+  <si>
+    <t>nMVAR,SONIA - UAT issues listed
+Hayaai- B2B- design</t>
+  </si>
+  <si>
+    <t>Advance Payment information and Billing Information screen design Modifications</t>
   </si>
 </sst>
 </file>
@@ -831,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -959,6 +985,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2662,7 +2697,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2677,7 +2712,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="53"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2795,7 +2830,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2810,7 +2845,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -2922,7 +2957,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -2937,7 +2972,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3055,7 +3090,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3070,7 +3105,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3271,7 +3306,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3286,7 +3321,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3404,7 +3439,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3419,7 +3454,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3495,7 +3530,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3510,7 +3545,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="53"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3523,7 +3558,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3538,7 +3573,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="53"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3650,7 +3685,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3665,7 +3700,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3870,7 +3905,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3885,7 +3920,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4001,7 +4036,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4016,7 +4051,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4092,7 +4127,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="55" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4107,7 +4142,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="53"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4120,7 +4155,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4135,7 +4170,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="53"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4253,7 +4288,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4268,7 +4303,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4374,7 +4409,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4389,7 +4424,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4601,7 +4636,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -4616,7 +4651,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -4734,7 +4769,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -4749,7 +4784,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4867,7 +4902,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -4882,7 +4917,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -5000,7 +5035,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5015,7 +5050,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="53"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5074,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5225,7 +5260,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5240,7 +5275,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -5358,7 +5393,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5373,7 +5408,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="57"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -5491,7 +5526,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5506,7 +5541,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -5624,7 +5659,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="55" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5639,7 +5674,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="55"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5672,10 +5707,18 @@
       <c r="B31" s="11">
         <v>44285</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -5685,10 +5728,18 @@
       <c r="B32" s="11">
         <v>44286</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="47"/>
+      <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:3">
@@ -5730,4 +5781,532 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FA9378-3FD8-4CAA-A24B-FDD9B55EDBC4}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44287</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44288</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44289</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44290</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44291</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44292</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44293</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44294</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44295</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44296</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44297</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44298</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44299</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44300</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44301</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44302</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44303</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44304</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44305</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44306</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44307</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44308</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44309</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44310</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44311</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44312</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44313</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44314</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44315</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44316</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="8"/>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD1E1F5-0320-4349-9118-6B3D53E75F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
   <si>
     <t>Task</t>
   </si>
@@ -649,12 +643,27 @@
   </si>
   <si>
     <t>Advance Payment information and Billing Information screen design Modifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Payment information modification </t>
+  </si>
+  <si>
+    <t>Muji store checked</t>
+  </si>
+  <si>
+    <t>Mujistore</t>
+  </si>
+  <si>
+    <t>Advance payment Receipt design Created in Jasper Tool</t>
+  </si>
+  <si>
+    <t>Translation and design issues fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1016,7 +1025,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,7 +1083,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1126,7 +1135,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1320,14 +1329,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E06C6F-66E6-4959-95A6-A6A5CCD93E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1866,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2528,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3173,7 +3182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3841,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB87480-600E-4328-B2C1-EE555063B4FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4482,7 +4491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F7686D-21E6-48B3-8F19-B41CF1B063AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5106,7 +5115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB159A-2C61-4542-8842-2AA29C253C87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5784,11 +5793,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FA9378-3FD8-4CAA-A24B-FDD9B55EDBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5996,7 +6005,9 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="55" t="s">
+        <v>112</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="46"/>
       <c r="G11" s="1"/>
@@ -6009,7 +6020,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="12"/>
       <c r="F12" s="46"/>
       <c r="G12" s="1"/>
@@ -6021,10 +6032,18 @@
       <c r="B13" s="11">
         <v>44298</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -6035,7 +6054,9 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="55" t="s">
+        <v>40</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="46"/>
       <c r="G14" s="1"/>
@@ -6048,7 +6069,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -6060,23 +6081,35 @@
       <c r="B16" s="11">
         <v>44301</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>206</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="46"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44302</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="47"/>
+      <c r="C17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -6087,7 +6120,9 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="55" t="s">
+        <v>112</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="47"/>
       <c r="G18" s="1"/>
@@ -6100,7 +6135,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -6112,10 +6147,18 @@
       <c r="B20" s="11">
         <v>44305</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -6300,11 +6343,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daily_Tracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131836-CCB7-418B-A32F-A79F2F6A137D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
   <si>
     <t>Task</t>
   </si>
@@ -658,12 +664,15 @@
   </si>
   <si>
     <t>Translation and design issues fixed</t>
+  </si>
+  <si>
+    <t>Translation validation messages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -1025,7 +1034,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,14 +1338,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1875,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2537,7 +2546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3182,7 +3191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3850,7 +3859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4491,7 +4500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5115,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5793,11 +5802,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6168,10 +6177,18 @@
       <c r="B21" s="11">
         <v>44306</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -6181,10 +6198,18 @@
       <c r="B22" s="11">
         <v>44307</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="46"/>
+      <c r="C22" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -6194,10 +6219,18 @@
       <c r="B23" s="11">
         <v>44308</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -6343,9 +6376,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D11:D12"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F131836-CCB7-418B-A32F-A79F2F6A137D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A584BE-CF49-49AB-948B-FAEA592C95B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="211">
   <si>
     <t>Task</t>
   </si>
@@ -875,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1031,6 +1031,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1098,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1144,7 +1150,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5805,8 +5811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6240,10 +6246,18 @@
       <c r="B24" s="11">
         <v>44309</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -6254,7 +6268,9 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="55" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -6267,7 +6283,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="12"/>
       <c r="F26" s="46"/>
       <c r="G26" s="1"/>
@@ -6293,7 +6309,7 @@
         <v>44313</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="12"/>
       <c r="F28" s="46"/>
       <c r="G28" s="1"/>
@@ -6306,7 +6322,7 @@
         <v>44314</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6378,10 +6394,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D28:D29"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A584BE-CF49-49AB-948B-FAEA592C95B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E6957-0FEA-4E55-9691-DEAFC61261EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
   <si>
     <t>Task</t>
   </si>
@@ -667,6 +667,18 @@
   </si>
   <si>
     <t>Translation validation messages</t>
+  </si>
+  <si>
+    <t>QC new screen designed</t>
+  </si>
+  <si>
+    <t>Sales Invoice Screen designed</t>
+  </si>
+  <si>
+    <t>Mujistore,Hayaai</t>
+  </si>
+  <si>
+    <t>Full test, Reports modified</t>
   </si>
 </sst>
 </file>
@@ -875,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1030,12 +1042,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5812,7 +5818,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6295,10 +6301,18 @@
       <c r="B27" s="11">
         <v>44312</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="47"/>
+      <c r="C27" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -6308,10 +6322,18 @@
       <c r="B28" s="11">
         <v>44313</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -6321,10 +6343,18 @@
       <c r="B29" s="11">
         <v>44314</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="47"/>
+      <c r="C29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8E6957-0FEA-4E55-9691-DEAFC61261EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2833E75B-38CB-4A9D-AC42-8076714B9A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="216">
   <si>
     <t>Task</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Full test, Reports modified</t>
+  </si>
+  <si>
+    <t>Sales Invoice Screen Modifications</t>
   </si>
 </sst>
 </file>
@@ -5817,8 +5820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6364,10 +6367,18 @@
       <c r="B30" s="11">
         <v>44315</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="47"/>
+      <c r="C30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2833E75B-38CB-4A9D-AC42-8076714B9A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F03B56-D096-4090-B6C2-A3AC0AE56C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="216">
   <si>
     <t>Task</t>
   </si>
@@ -5821,7 +5821,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6374,7 +6374,7 @@
         <v>215</v>
       </c>
       <c r="E30" s="12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>5</v>
@@ -6388,10 +6388,18 @@
       <c r="B31" s="11">
         <v>44316</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="47"/>
+      <c r="C31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F03B56-D096-4090-B6C2-A3AC0AE56C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428DE9A-6F2B-4EF7-B619-349FC33955BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19200" windowHeight="10800" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="FEB-2021" sheetId="23" r:id="rId6"/>
     <sheet name="MAR-2021 " sheetId="24" r:id="rId7"/>
     <sheet name="APR-2021" sheetId="25" r:id="rId8"/>
+    <sheet name="MAY-2021" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="218">
   <si>
     <t>Task</t>
   </si>
@@ -682,6 +683,14 @@
   </si>
   <si>
     <t>Sales Invoice Screen Modifications</t>
+  </si>
+  <si>
+    <t>Full Site checked.  
+Sales Requirement completed</t>
+  </si>
+  <si>
+    <t>Mujistore
+Hayaai</t>
   </si>
 </sst>
 </file>
@@ -5820,7 +5829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -6451,4 +6460,495 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4D79EF-9242-4234-B2BC-EBFFA0FBA808}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44317</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44318</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44319</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44320</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44321</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44322</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44323</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44324</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44325</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44326</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44327</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44328</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44329</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44330</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44332</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44333</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44334</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44335</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44336</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44337</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44338</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44339</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44340</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44341</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44342</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44343</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44344</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44345</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44346</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="8"/>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1428DE9A-6F2B-4EF7-B619-349FC33955BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E9C61-2B89-42F8-B9A0-4054868C5982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="19200" windowHeight="10800" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="218">
   <si>
     <t>Task</t>
   </si>
@@ -700,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +771,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -899,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1054,6 +1062,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6467,7 +6487,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6520,7 +6540,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="63" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -6532,10 +6552,18 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -6546,7 +6574,7 @@
         <v>44319</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="12"/>
       <c r="F4" s="46"/>
       <c r="G4" s="1"/>
@@ -6559,7 +6587,7 @@
         <v>44320</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="58"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="12"/>
       <c r="F5" s="46"/>
       <c r="G5" s="1"/>
@@ -6941,8 +6969,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="4">
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D18:D19"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29E9C61-2B89-42F8-B9A0-4054868C5982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CB8B3-BAC9-4FA4-91E8-DA9610A7D700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="19200" windowHeight="10800" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="219">
   <si>
     <t>Task</t>
   </si>
@@ -691,6 +691,9 @@
   <si>
     <t>Mujistore
 Hayaai</t>
+  </si>
+  <si>
+    <t>Token System requirement discuss and started design</t>
   </si>
 </sst>
 </file>
@@ -1045,6 +1048,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1063,16 +1072,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2759,7 +2762,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2774,7 +2777,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2892,7 +2895,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2907,7 +2910,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3019,7 +3022,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3034,7 +3037,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3152,7 +3155,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3167,7 +3170,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="56"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3368,7 +3371,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3383,7 +3386,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="56"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3501,7 +3504,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="57" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3516,7 +3519,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="56"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3592,7 +3595,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="57" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3607,7 +3610,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="56"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3620,7 +3623,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3635,7 +3638,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="56"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3747,7 +3750,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3762,7 +3765,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3967,7 +3970,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -3982,7 +3985,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4098,7 +4101,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="59" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4113,7 +4116,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="58"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="12"/>
       <c r="F11" s="47"/>
       <c r="G11" s="1"/>
@@ -4189,7 +4192,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4204,7 +4207,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="56"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="12"/>
       <c r="F16" s="47"/>
       <c r="G16" s="1"/>
@@ -4217,7 +4220,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4232,7 +4235,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="56"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="12"/>
       <c r="F18" s="37"/>
       <c r="G18" s="1"/>
@@ -4350,7 +4353,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4365,7 +4368,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -4471,7 +4474,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4486,7 +4489,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="56"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4698,7 +4701,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -4713,7 +4716,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -4831,7 +4834,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -4846,7 +4849,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -4964,7 +4967,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -4979,7 +4982,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -5097,7 +5100,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5112,7 +5115,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="56"/>
+      <c r="D29" s="58"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5322,7 +5325,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5337,7 +5340,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="12"/>
       <c r="F8" s="46"/>
       <c r="G8" s="1"/>
@@ -5455,7 +5458,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5470,7 +5473,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -5588,7 +5591,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5603,7 +5606,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -5721,7 +5724,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5736,7 +5739,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5850,7 +5853,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D25" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5931,7 +5934,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -5946,7 +5949,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="58"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="12"/>
       <c r="F5" s="46"/>
       <c r="G5" s="1"/>
@@ -6058,7 +6061,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -6073,7 +6076,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="12"/>
       <c r="F12" s="46"/>
       <c r="G12" s="1"/>
@@ -6107,7 +6110,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -6122,7 +6125,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -6173,7 +6176,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -6188,7 +6191,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -6306,7 +6309,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -6321,7 +6324,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="12"/>
       <c r="F26" s="46"/>
       <c r="G26" s="1"/>
@@ -6487,7 +6490,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6524,25 +6527,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11">
         <v>44317</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
@@ -6552,70 +6549,94 @@
       <c r="B3" s="11">
         <v>44318</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>3</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>44319</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="11">
         <v>44320</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="11">
         <v>44321</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11">
         <v>44322</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
@@ -6665,7 +6686,7 @@
         <v>44326</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="12"/>
       <c r="F11" s="46"/>
       <c r="G11" s="1"/>
@@ -6678,7 +6699,7 @@
         <v>44327</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="59"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="12"/>
       <c r="F12" s="46"/>
       <c r="G12" s="1"/>
@@ -6704,7 +6725,7 @@
         <v>44329</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="12"/>
       <c r="F14" s="46"/>
       <c r="G14" s="1"/>
@@ -6717,7 +6738,7 @@
         <v>44330</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="58"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="12"/>
       <c r="F15" s="46"/>
       <c r="G15" s="1"/>
@@ -6756,7 +6777,7 @@
         <v>44333</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="55"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="12"/>
       <c r="F18" s="47"/>
       <c r="G18" s="1"/>
@@ -6769,7 +6790,7 @@
         <v>44334</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -6847,7 +6868,7 @@
         <v>44340</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="55"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="12"/>
       <c r="F25" s="47"/>
       <c r="G25" s="1"/>
@@ -6860,7 +6881,7 @@
         <v>44341</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="59"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="12"/>
       <c r="F26" s="46"/>
       <c r="G26" s="1"/>
@@ -6969,11 +6990,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387CB8B3-BAC9-4FA4-91E8-DA9610A7D700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE96818-7B2E-4D57-8199-40FEBA707211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="221">
   <si>
     <t>Task</t>
   </si>
@@ -694,6 +694,12 @@
   </si>
   <si>
     <t>Token System requirement discuss and started design</t>
+  </si>
+  <si>
+    <t>Token System design</t>
+  </si>
+  <si>
+    <t>Token System  design</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1076,6 +1082,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3910,7 +3925,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4004,7 +4019,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -4025,7 +4040,7 @@
       <c r="E6" s="12">
         <v>0.4</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -4046,7 +4061,7 @@
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
@@ -4067,7 +4082,7 @@
       <c r="E8" s="12">
         <v>0.5</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -4088,7 +4103,7 @@
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -4105,7 +4120,7 @@
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="46"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -4118,7 +4133,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="60"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -4137,7 +4152,7 @@
       <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -4158,7 +4173,7 @@
       <c r="E13" s="12">
         <v>0.2</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -4179,7 +4194,7 @@
       <c r="E14" s="12">
         <v>0.4</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
@@ -4196,7 +4211,7 @@
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4209,7 +4224,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="58"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="47"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4224,7 +4239,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="47"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4237,7 +4252,7 @@
       <c r="C18" s="10"/>
       <c r="D18" s="58"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4256,7 +4271,7 @@
       <c r="E19" s="12">
         <v>0.8</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
@@ -4277,7 +4292,7 @@
       <c r="E20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -4298,7 +4313,7 @@
       <c r="E21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -4319,7 +4334,7 @@
       <c r="E22" s="12">
         <v>0.8</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="1"/>
@@ -4340,7 +4355,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -4357,7 +4372,7 @@
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="47"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4370,7 +4385,7 @@
       <c r="C25" s="13"/>
       <c r="D25" s="58"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4389,7 +4404,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -4406,7 +4421,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4425,7 +4440,7 @@
       <c r="E28" s="12">
         <v>0.4</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="66" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="1"/>
@@ -4442,7 +4457,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="47"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4461,7 +4476,7 @@
       <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1"/>
@@ -4551,7 +4566,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F2" sqref="F2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4604,7 +4619,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -4625,7 +4640,7 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
@@ -4646,7 +4661,7 @@
       <c r="E4" s="12">
         <v>0.4</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -4667,7 +4682,7 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
@@ -4688,7 +4703,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -4705,7 +4720,7 @@
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -4718,7 +4733,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="61"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="46"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -4737,7 +4752,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -4758,7 +4773,7 @@
       <c r="E10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -4779,7 +4794,7 @@
       <c r="E11" s="12">
         <v>0.4</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -4800,7 +4815,7 @@
       <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -4821,7 +4836,7 @@
       <c r="E13" s="12">
         <v>0.5</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -4838,7 +4853,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -4851,7 +4866,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="62"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -4870,7 +4885,7 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
@@ -4891,7 +4906,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -4912,7 +4927,7 @@
       <c r="E18" s="12">
         <v>0.7</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1"/>
@@ -4933,7 +4948,7 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
@@ -4954,7 +4969,7 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
@@ -4971,7 +4986,7 @@
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4984,7 +4999,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="58"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -5003,7 +5018,7 @@
       <c r="E23" s="12">
         <v>0.8</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="1"/>
@@ -5024,7 +5039,7 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1"/>
@@ -5045,7 +5060,7 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="1"/>
@@ -5066,7 +5081,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -5087,7 +5102,7 @@
       <c r="E27" s="12">
         <v>0.7</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1"/>
@@ -5174,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F2:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5228,7 +5243,7 @@
       <c r="E2" s="12">
         <v>0.8</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
@@ -5249,7 +5264,7 @@
       <c r="E3" s="12">
         <v>0.2</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
@@ -5270,7 +5285,7 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
@@ -5291,7 +5306,7 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
@@ -5312,7 +5327,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -5329,7 +5344,7 @@
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -5342,7 +5357,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="61"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="46"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -5361,7 +5376,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -5382,7 +5397,7 @@
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -5403,7 +5418,7 @@
       <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
@@ -5424,7 +5439,7 @@
       <c r="E12" s="12">
         <v>0.85</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -5445,7 +5460,7 @@
       <c r="E13" s="12">
         <v>0.7</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
@@ -5462,7 +5477,7 @@
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -5475,7 +5490,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="62"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -5494,7 +5509,7 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
@@ -5515,7 +5530,7 @@
       <c r="E17" s="12">
         <v>0.7</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1"/>
@@ -5536,7 +5551,7 @@
       <c r="E18" s="12">
         <v>0.85</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1"/>
@@ -5557,7 +5572,7 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
@@ -5578,7 +5593,7 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
@@ -5595,7 +5610,7 @@
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5608,7 +5623,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="58"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="46"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5627,7 +5642,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -5648,7 +5663,7 @@
       <c r="E24" s="12">
         <v>0.9</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="1"/>
@@ -5669,7 +5684,7 @@
       <c r="E25" s="12">
         <v>0.9</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F25" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1"/>
@@ -5690,7 +5705,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -5711,7 +5726,7 @@
       <c r="E27" s="12">
         <v>0.9</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1"/>
@@ -5728,7 +5743,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5741,7 +5756,7 @@
       <c r="C29" s="13"/>
       <c r="D29" s="60"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="47"/>
+      <c r="F29" s="65"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5760,7 +5775,7 @@
       <c r="E30" s="12">
         <v>0.8</v>
       </c>
-      <c r="F30" s="51" t="s">
+      <c r="F30" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="1"/>
@@ -5781,7 +5796,7 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="1"/>
@@ -5802,7 +5817,7 @@
       <c r="E32" s="12">
         <v>1</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="1"/>
@@ -5852,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5906,7 +5921,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -5923,7 +5938,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="47"/>
+      <c r="F3" s="65"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -5938,7 +5953,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="46"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -5951,7 +5966,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="60"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="46"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
@@ -5970,7 +5985,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -5987,7 +6002,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -6006,7 +6021,7 @@
       <c r="E8" s="12">
         <v>0.7</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -6027,7 +6042,7 @@
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -6048,7 +6063,7 @@
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -6065,7 +6080,7 @@
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="46"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -6078,7 +6093,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="61"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -6097,7 +6112,7 @@
       <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
@@ -6114,7 +6129,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -6127,7 +6142,7 @@
       <c r="C15" s="10"/>
       <c r="D15" s="60"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="46"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -6144,7 +6159,7 @@
         <v>206</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="46"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -6163,7 +6178,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -6180,7 +6195,7 @@
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6193,7 +6208,7 @@
       <c r="C19" s="10"/>
       <c r="D19" s="61"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -6212,7 +6227,7 @@
       <c r="E20" s="12">
         <v>0.7</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -6233,7 +6248,7 @@
       <c r="E21" s="12">
         <v>0.8</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -6254,7 +6269,7 @@
       <c r="E22" s="12">
         <v>1</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="1"/>
@@ -6275,7 +6290,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -6296,7 +6311,7 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1"/>
@@ -6313,7 +6328,7 @@
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -6326,7 +6341,7 @@
       <c r="C26" s="10"/>
       <c r="D26" s="61"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -6345,7 +6360,7 @@
       <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="1"/>
@@ -6366,7 +6381,7 @@
       <c r="E28" s="12">
         <v>1</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1"/>
@@ -6387,7 +6402,7 @@
       <c r="E29" s="12">
         <v>0.8</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="56" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="1"/>
@@ -6408,7 +6423,7 @@
       <c r="E30" s="12">
         <v>0.9</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1"/>
@@ -6429,7 +6444,7 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="1"/>
@@ -6490,7 +6505,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6646,10 +6661,18 @@
       <c r="B8" s="11">
         <v>44323</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="51"/>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -6660,9 +6683,11 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="54"/>
+      <c r="D9" s="57" t="s">
+        <v>112</v>
+      </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="51"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -6673,9 +6698,9 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="54"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -6685,10 +6710,18 @@
       <c r="B11" s="11">
         <v>44326</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -6698,10 +6731,18 @@
       <c r="B12" s="11">
         <v>44327</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -6991,11 +7032,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE96818-7B2E-4D57-8199-40FEBA707211}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276E9A2F-1C24-4013-B62D-662590C31E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="226">
   <si>
     <t>Task</t>
   </si>
@@ -700,6 +700,34 @@
   </si>
   <si>
     <t>Token System  design</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Requirement meeting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sick Leave)</t>
+    </r>
+  </si>
+  <si>
+    <t>Token System requirement doc</t>
+  </si>
+  <si>
+    <t>Token System design modifications</t>
+  </si>
+  <si>
+    <t>Token System- requirement doc , TV display deign</t>
   </si>
 </sst>
 </file>
@@ -916,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,6 +1088,15 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1084,13 +1121,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2777,7 +2811,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2792,7 +2826,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="58"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2910,7 +2944,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2925,7 +2959,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="58"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3037,7 +3071,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3052,7 +3086,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="58"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3170,7 +3204,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3185,7 +3219,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="58"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3386,7 +3420,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3401,7 +3435,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="58"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3519,7 +3553,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="60" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3534,7 +3568,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="58"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3610,7 +3644,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="60" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3625,7 +3659,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="58"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3638,7 +3672,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3653,7 +3687,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3765,7 +3799,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="62" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3780,7 +3814,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="60"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -3985,7 +4019,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="62" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4000,7 +4034,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="60"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4019,7 +4053,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -4040,7 +4074,7 @@
       <c r="E6" s="12">
         <v>0.4</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -4082,7 +4116,7 @@
       <c r="E8" s="12">
         <v>0.5</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -4103,7 +4137,7 @@
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -4116,11 +4150,11 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="62" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -4131,9 +4165,9 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="60"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -4173,7 +4207,7 @@
       <c r="E13" s="12">
         <v>0.2</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -4194,7 +4228,7 @@
       <c r="E14" s="12">
         <v>0.4</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
@@ -4207,11 +4241,11 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4222,9 +4256,9 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="58"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4235,11 +4269,11 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="65"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4250,9 +4284,9 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="58"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="67"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4271,7 +4305,7 @@
       <c r="E19" s="12">
         <v>0.8</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
@@ -4292,7 +4326,7 @@
       <c r="E20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -4313,7 +4347,7 @@
       <c r="E21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -4334,7 +4368,7 @@
       <c r="E22" s="12">
         <v>0.8</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="1"/>
@@ -4368,11 +4402,11 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="65"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4383,9 +4417,9 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="58"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="65"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4421,7 +4455,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="67"/>
+      <c r="F27" s="59"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4440,7 +4474,7 @@
       <c r="E28" s="12">
         <v>0.4</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="58" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="1"/>
@@ -4457,7 +4491,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="65"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4489,7 +4523,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4504,7 +4538,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4716,11 +4750,11 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -4731,9 +4765,9 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -4849,11 +4883,11 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="65"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -4864,9 +4898,9 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -4982,11 +5016,11 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="65"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4997,9 +5031,9 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="58"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="65"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -5115,7 +5149,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5130,7 +5164,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5340,11 +5374,11 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -5355,9 +5389,9 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -5473,11 +5507,11 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="65"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -5488,9 +5522,9 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="62"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -5606,11 +5640,11 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="65"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5621,9 +5655,9 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="58"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="65"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5739,11 +5773,11 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="65"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5754,9 +5788,9 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="60"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="65"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5938,7 +5972,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="65"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -5949,11 +5983,11 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="65"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -5964,9 +5998,9 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="60"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
@@ -6002,7 +6036,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -6076,11 +6110,11 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="65"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -6091,9 +6125,9 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="61"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -6125,11 +6159,11 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="60" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="65"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -6140,9 +6174,9 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="65"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -6159,7 +6193,7 @@
         <v>206</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -6191,11 +6225,11 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="65"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6206,9 +6240,9 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="65"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -6324,11 +6358,11 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="65"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -6339,9 +6373,9 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="65"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -6505,7 +6539,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6550,7 +6584,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -6565,7 +6599,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="64"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6683,7 +6717,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="60" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -6698,7 +6732,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -6717,7 +6751,7 @@
         <v>219</v>
       </c>
       <c r="E11" s="12">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>3</v>
@@ -6752,10 +6786,18 @@
       <c r="B13" s="11">
         <v>44328</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -6765,10 +6807,18 @@
       <c r="B14" s="11">
         <v>44329</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="46"/>
+      <c r="C14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -6778,10 +6828,18 @@
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -6792,7 +6850,9 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="62" t="s">
+        <v>112</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="46"/>
       <c r="G16" s="1"/>
@@ -6804,10 +6864,12 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="57" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -6817,10 +6879,18 @@
       <c r="B18" s="11">
         <v>44333</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6830,8 +6900,12 @@
       <c r="B19" s="11">
         <v>44334</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>222</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -6844,9 +6918,11 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="62" t="s">
+        <v>221</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="51"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -6857,9 +6933,9 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -6870,9 +6946,9 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -6883,9 +6959,11 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="60" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -6896,9 +6974,9 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -6908,10 +6986,18 @@
       <c r="B25" s="11">
         <v>44340</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -6921,10 +7007,18 @@
       <c r="B26" s="11">
         <v>44341</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="46"/>
+      <c r="C26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -7032,11 +7126,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D25:D26"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D16:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276E9A2F-1C24-4013-B62D-662590C31E28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DD5CE2-7281-43ED-AA7F-DA9D2EF63134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="768" windowWidth="19200" windowHeight="10800" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="229">
   <si>
     <t>Task</t>
   </si>
@@ -728,6 +728,15 @@
   </si>
   <si>
     <t>Token System- requirement doc , TV display deign</t>
+  </si>
+  <si>
+    <t>QMVAR2.0</t>
+  </si>
+  <si>
+    <t>Issues fixes</t>
+  </si>
+  <si>
+    <t>Token System requirement doc discussion, Modification</t>
   </si>
 </sst>
 </file>
@@ -944,7 +953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1070,9 +1079,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1095,6 +1101,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1121,11 +1133,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2811,7 +2824,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2826,7 +2839,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2944,7 +2957,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2959,7 +2972,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3071,7 +3084,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3086,7 +3099,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3204,7 +3217,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3219,7 +3232,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3420,7 +3433,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3435,7 +3448,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3553,7 +3566,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="61" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3568,7 +3581,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3644,7 +3657,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="61" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3659,7 +3672,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3672,7 +3685,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3687,7 +3700,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3799,7 +3812,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="62" t="s">
+      <c r="D27" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3814,7 +3827,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="63"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4019,7 +4032,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4034,7 +4047,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4053,7 +4066,7 @@
         <v>128</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -4074,7 +4087,7 @@
       <c r="E6" s="12">
         <v>0.4</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -4095,7 +4108,7 @@
       <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="1"/>
@@ -4116,7 +4129,7 @@
       <c r="E8" s="12">
         <v>0.5</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -4137,7 +4150,7 @@
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -4150,11 +4163,11 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="57"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -4165,9 +4178,9 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -4186,7 +4199,7 @@
       <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -4207,7 +4220,7 @@
       <c r="E13" s="12">
         <v>0.2</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -4228,7 +4241,7 @@
       <c r="E14" s="12">
         <v>0.4</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="1"/>
@@ -4241,11 +4254,11 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="61" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4256,9 +4269,9 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4269,11 +4282,11 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4284,9 +4297,9 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="61"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="59"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4305,7 +4318,7 @@
       <c r="E19" s="12">
         <v>0.8</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="1"/>
@@ -4326,7 +4339,7 @@
       <c r="E20" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -4347,7 +4360,7 @@
       <c r="E21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -4368,7 +4381,7 @@
       <c r="E22" s="12">
         <v>0.8</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="1"/>
@@ -4389,7 +4402,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -4402,11 +4415,11 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="57"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4417,9 +4430,9 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4438,7 +4451,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -4455,7 +4468,7 @@
         <v>40</v>
       </c>
       <c r="E27" s="12"/>
-      <c r="F27" s="59"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4474,7 +4487,7 @@
       <c r="E28" s="12">
         <v>0.4</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
         <v>3</v>
       </c>
       <c r="G28" s="1"/>
@@ -4491,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="12"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4510,7 +4523,7 @@
       <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1"/>
@@ -4523,7 +4536,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4538,7 +4551,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4653,7 +4666,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -4674,7 +4687,7 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
@@ -4695,7 +4708,7 @@
       <c r="E4" s="12">
         <v>0.4</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="1"/>
@@ -4716,7 +4729,7 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
@@ -4737,7 +4750,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -4750,11 +4763,11 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -4765,9 +4778,9 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -4786,7 +4799,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -4807,7 +4820,7 @@
       <c r="E10" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -4828,7 +4841,7 @@
       <c r="E11" s="12">
         <v>0.4</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -4849,7 +4862,7 @@
       <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -4870,7 +4883,7 @@
       <c r="E13" s="12">
         <v>0.5</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="1"/>
@@ -4883,11 +4896,11 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -4898,9 +4911,9 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -4919,7 +4932,7 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
@@ -4940,7 +4953,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -4961,7 +4974,7 @@
       <c r="E18" s="12">
         <v>0.7</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1"/>
@@ -4982,7 +4995,7 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
@@ -5003,7 +5016,7 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
@@ -5016,11 +5029,11 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5031,9 +5044,9 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="28.8">
@@ -5052,7 +5065,7 @@
       <c r="E23" s="12">
         <v>0.8</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G23" s="1"/>
@@ -5073,7 +5086,7 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1"/>
@@ -5094,7 +5107,7 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="1"/>
@@ -5115,7 +5128,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -5136,7 +5149,7 @@
       <c r="E27" s="12">
         <v>0.7</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1"/>
@@ -5149,7 +5162,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5164,7 +5177,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5277,7 +5290,7 @@
       <c r="E2" s="12">
         <v>0.8</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1"/>
@@ -5298,7 +5311,7 @@
       <c r="E3" s="12">
         <v>0.2</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="1"/>
@@ -5319,7 +5332,7 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
@@ -5340,7 +5353,7 @@
       <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="1"/>
@@ -5361,7 +5374,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -5374,11 +5387,11 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="13.8" customHeight="1">
@@ -5389,9 +5402,9 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="64"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="57"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -5410,7 +5423,7 @@
       <c r="E9" s="12">
         <v>1</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="1"/>
@@ -5431,7 +5444,7 @@
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -5452,7 +5465,7 @@
       <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1"/>
@@ -5473,7 +5486,7 @@
       <c r="E12" s="12">
         <v>0.85</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -5494,7 +5507,7 @@
       <c r="E13" s="12">
         <v>0.7</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
@@ -5507,11 +5520,11 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -5522,9 +5535,9 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="65"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="28.8">
@@ -5543,7 +5556,7 @@
       <c r="E16" s="12">
         <v>1</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
@@ -5564,7 +5577,7 @@
       <c r="E17" s="12">
         <v>0.7</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G17" s="1"/>
@@ -5585,7 +5598,7 @@
       <c r="E18" s="12">
         <v>0.85</v>
       </c>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G18" s="1"/>
@@ -5606,7 +5619,7 @@
       <c r="E19" s="12">
         <v>1</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="1"/>
@@ -5627,7 +5640,7 @@
       <c r="E20" s="12">
         <v>1</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
@@ -5640,11 +5653,11 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5655,9 +5668,9 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5676,7 +5689,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -5697,7 +5710,7 @@
       <c r="E24" s="12">
         <v>0.9</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="1"/>
@@ -5718,7 +5731,7 @@
       <c r="E25" s="12">
         <v>0.9</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1"/>
@@ -5739,7 +5752,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -5760,7 +5773,7 @@
       <c r="E27" s="12">
         <v>0.9</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G27" s="1"/>
@@ -5773,11 +5786,11 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5788,9 +5801,9 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="63"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="56"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5809,7 +5822,7 @@
       <c r="E30" s="12">
         <v>0.8</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G30" s="1"/>
@@ -5830,7 +5843,7 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="1"/>
@@ -5851,7 +5864,7 @@
       <c r="E32" s="12">
         <v>1</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G32" s="1"/>
@@ -5955,7 +5968,7 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
@@ -5972,7 +5985,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="57"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
@@ -5983,11 +5996,11 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="57"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
@@ -5998,9 +6011,9 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="57"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
@@ -6019,7 +6032,7 @@
       <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="1"/>
@@ -6036,7 +6049,7 @@
         <v>40</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="57"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
@@ -6049,13 +6062,13 @@
       <c r="C8" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>201</v>
       </c>
       <c r="E8" s="12">
         <v>0.7</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -6070,13 +6083,13 @@
       <c r="C9" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>203</v>
       </c>
       <c r="E9" s="12">
         <v>0.8</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
@@ -6091,13 +6104,13 @@
       <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>204</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1"/>
@@ -6110,11 +6123,11 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -6125,9 +6138,9 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="64"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="57"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -6146,7 +6159,7 @@
       <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
@@ -6159,11 +6172,11 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -6174,9 +6187,9 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="63"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -6193,7 +6206,7 @@
         <v>206</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="28.8">
@@ -6212,7 +6225,7 @@
       <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -6225,11 +6238,11 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="57"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6240,9 +6253,9 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="57"/>
+      <c r="F19" s="56"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -6261,7 +6274,7 @@
       <c r="E20" s="12">
         <v>0.7</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G20" s="1"/>
@@ -6282,7 +6295,7 @@
       <c r="E21" s="12">
         <v>0.8</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
@@ -6303,7 +6316,7 @@
       <c r="E22" s="12">
         <v>1</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="1"/>
@@ -6324,7 +6337,7 @@
       <c r="E23" s="12">
         <v>1</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
@@ -6345,7 +6358,7 @@
       <c r="E24" s="12">
         <v>1</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="1"/>
@@ -6358,11 +6371,11 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -6373,9 +6386,9 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="64"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="57"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -6394,7 +6407,7 @@
       <c r="E27" s="12">
         <v>1</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G27" s="1"/>
@@ -6415,7 +6428,7 @@
       <c r="E28" s="12">
         <v>1</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="1"/>
@@ -6436,7 +6449,7 @@
       <c r="E29" s="12">
         <v>0.8</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G29" s="1"/>
@@ -6457,7 +6470,7 @@
       <c r="E30" s="12">
         <v>0.9</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G30" s="1"/>
@@ -6478,7 +6491,7 @@
       <c r="E31" s="12">
         <v>1</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="1"/>
@@ -6487,9 +6500,9 @@
       <c r="A32" s="40"/>
       <c r="B32" s="41"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="52"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="43"/>
-      <c r="F32" s="53"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:3">
@@ -6536,10 +6549,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4D79EF-9242-4234-B2BC-EBFFA0FBA808}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6584,7 +6597,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -6599,7 +6612,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6620,7 +6633,7 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
@@ -6641,7 +6654,7 @@
       <c r="E5" s="12">
         <v>0.7</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -6662,7 +6675,7 @@
       <c r="E6" s="12">
         <v>0.5</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -6683,7 +6696,7 @@
       <c r="E7" s="12">
         <v>0.65</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
@@ -6704,7 +6717,7 @@
       <c r="E8" s="12">
         <v>0.85</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="1"/>
@@ -6717,7 +6730,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -6732,7 +6745,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="64"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -6753,7 +6766,7 @@
       <c r="E11" s="12">
         <v>0.95</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="1"/>
@@ -6774,7 +6787,7 @@
       <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="1"/>
@@ -6795,7 +6808,7 @@
       <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
@@ -6816,7 +6829,7 @@
       <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="1"/>
@@ -6837,7 +6850,7 @@
       <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="1"/>
@@ -6850,7 +6863,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -6865,9 +6878,9 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="57" t="s">
+      <c r="D17" s="65"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="56" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="1"/>
@@ -6888,7 +6901,7 @@
       <c r="E18" s="12">
         <v>1</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="1"/>
@@ -6903,7 +6916,7 @@
       <c r="C19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="59" t="s">
         <v>222</v>
       </c>
       <c r="E19" s="12"/>
@@ -6918,7 +6931,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="63" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -6933,7 +6946,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -6946,7 +6959,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -6959,7 +6972,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="61" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -6974,7 +6987,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="64"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -6995,7 +7008,7 @@
       <c r="E25" s="12">
         <v>0.6</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="55" t="s">
         <v>3</v>
       </c>
       <c r="G25" s="1"/>
@@ -7016,7 +7029,7 @@
       <c r="E26" s="12">
         <v>1</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="54" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="1"/>
@@ -7028,10 +7041,18 @@
       <c r="B27" s="11">
         <v>44342</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -7041,23 +7062,39 @@
       <c r="B28" s="11">
         <v>44343</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44344</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="51"/>
+      <c r="C29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -7068,7 +7105,9 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="61" t="s">
+        <v>112</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="19"/>
       <c r="G30" s="1"/>
@@ -7081,51 +7120,66 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="12"/>
       <c r="F31" s="19"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="5"/>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="6"/>
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44347</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
       <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="7"/>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="8"/>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D23:D24"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DD5CE2-7281-43ED-AA7F-DA9D2EF63134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E270B-BC70-4043-8779-F093BB735D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="768" windowWidth="19200" windowHeight="10800" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="230">
   <si>
     <t>Task</t>
   </si>
@@ -737,6 +737,9 @@
   </si>
   <si>
     <t>Token System requirement doc discussion, Modification</t>
+  </si>
+  <si>
+    <t>Translated newly highlighted issues</t>
   </si>
 </sst>
 </file>
@@ -953,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1109,6 +1112,10 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,13 +1139,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2824,7 +2824,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -2839,7 +2839,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="62"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -2957,7 +2957,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -2972,7 +2972,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="62"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3084,7 +3084,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3099,7 +3099,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3217,7 +3217,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3232,7 +3232,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="62"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3433,7 +3433,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3448,7 +3448,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="62"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -3566,7 +3566,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -3581,7 +3581,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="62"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -3657,7 +3657,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="63" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -3672,7 +3672,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="62"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -3685,7 +3685,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3700,7 +3700,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -3812,7 +3812,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3827,7 +3827,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="64"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4032,7 +4032,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4047,7 +4047,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="64"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4163,7 +4163,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4178,7 +4178,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="64"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -4254,7 +4254,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="63" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4269,7 +4269,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="62"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4282,7 +4282,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4297,7 +4297,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="62"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -4415,7 +4415,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4430,7 +4430,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -4536,7 +4536,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -4551,7 +4551,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -4763,7 +4763,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -4778,7 +4778,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="65"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -4896,7 +4896,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -4911,7 +4911,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5029,7 +5029,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5044,7 +5044,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -5162,7 +5162,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5177,7 +5177,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="62"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5387,7 +5387,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5402,7 +5402,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="65"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -5520,7 +5520,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5535,7 +5535,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5653,7 +5653,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5668,7 +5668,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -5786,7 +5786,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5801,7 +5801,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="64"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -5996,7 +5996,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -6011,7 +6011,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="64"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -6123,7 +6123,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="61" t="s">
+      <c r="D11" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -6138,7 +6138,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="65"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -6172,7 +6172,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="63" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -6187,7 +6187,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="64"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6238,7 +6238,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -6253,7 +6253,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="65"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -6371,7 +6371,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -6386,7 +6386,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -6552,7 +6552,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6597,7 +6597,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -6612,7 +6612,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="68"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -6730,7 +6730,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -6745,7 +6745,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="65"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -6863,7 +6863,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -6878,7 +6878,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="65"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -6931,7 +6931,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="65" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -6946,7 +6946,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -6959,7 +6959,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -6972,7 +6972,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -6987,7 +6987,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -7105,11 +7105,11 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="63" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -7120,9 +7120,9 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="64"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -7132,10 +7132,18 @@
       <c r="B32" s="11">
         <v>44347</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -7144,14 +7152,14 @@
       <c r="C33" s="40"/>
       <c r="D33" s="51"/>
       <c r="E33" s="43"/>
-      <c r="F33" s="69"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
       <c r="C34" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="70"/>
+      <c r="F34" s="62"/>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="5"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E270B-BC70-4043-8779-F093BB735D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCFBD5-11E2-444B-9D11-B3491410D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="MAR-2021 " sheetId="24" r:id="rId7"/>
     <sheet name="APR-2021" sheetId="25" r:id="rId8"/>
     <sheet name="MAY-2021" sheetId="26" r:id="rId9"/>
+    <sheet name="JUNE-2021" sheetId="27" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="234">
   <si>
     <t>Task</t>
   </si>
@@ -740,6 +741,18 @@
   </si>
   <si>
     <t>Translated newly highlighted issues</t>
+  </si>
+  <si>
+    <t>Qmvar</t>
+  </si>
+  <si>
+    <t>Alignmanet issues fix</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>UiPath install and learn to run task</t>
   </si>
 </sst>
 </file>
@@ -956,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1139,6 +1152,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1992,6 +2011,527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1365C-21B8-46CF-A31D-46CDA68F2AFF}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44317</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="72">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44318</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="72">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44319</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44320</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44321</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44322</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44323</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44324</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44325</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44326</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44327</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44328</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44329</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44330</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44331</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44332</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44333</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44334</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44335</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44336</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44337</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44338</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44339</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44340</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44341</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44342</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44343</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44344</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44345</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44346</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44347</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D30:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
@@ -6551,8 +7091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4D79EF-9242-4234-B2BC-EBFFA0FBA808}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCFBD5-11E2-444B-9D11-B3491410D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DFC93-EA0D-4DE8-A6FD-08B46F7C4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="237">
   <si>
     <t>Task</t>
   </si>
@@ -752,7 +752,16 @@
     <t>RPA</t>
   </si>
   <si>
-    <t>UiPath install and learn to run task</t>
+    <t>REVER</t>
+  </si>
+  <si>
+    <t>PPT Created</t>
+  </si>
+  <si>
+    <t>UiPath install and learn to run task , REVER- PPT Created</t>
+  </si>
+  <si>
+    <t>PPT Modified</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1129,6 +1138,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,11 +1168,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2016,7 +2028,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2063,10 +2075,10 @@
       <c r="C2" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="64">
         <v>0.6</v>
       </c>
       <c r="F2" s="55" t="s">
@@ -2084,10 +2096,10 @@
       <c r="C3" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="64">
         <v>0.8</v>
       </c>
       <c r="F3" s="55" t="s">
@@ -2095,7 +2107,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E4" s="12">
         <v>0.1</v>
@@ -2123,10 +2135,18 @@
       <c r="B5" s="11">
         <v>44320</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
@@ -2137,7 +2157,9 @@
         <v>44321</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="65" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -2150,7 +2172,7 @@
         <v>44322</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2162,10 +2184,18 @@
       <c r="B8" s="11">
         <v>44323</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2176,7 +2206,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="12"/>
       <c r="F9" s="47"/>
       <c r="G9" s="1"/>
@@ -2189,7 +2219,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="67"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -2267,7 +2297,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="65"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="12"/>
       <c r="F16" s="46"/>
       <c r="G16" s="1"/>
@@ -2280,7 +2310,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="1"/>
@@ -2319,7 +2349,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -2332,7 +2362,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2345,7 +2375,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -2358,7 +2388,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="12"/>
       <c r="F23" s="46"/>
       <c r="G23" s="1"/>
@@ -2371,7 +2401,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="67"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -2449,7 +2479,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="63"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="12"/>
       <c r="F30" s="46"/>
       <c r="G30" s="1"/>
@@ -2462,7 +2492,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="66"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>
@@ -2521,7 +2551,7 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D24"/>
@@ -3364,7 +3394,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -3379,7 +3409,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="64"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -3497,7 +3527,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -3512,7 +3542,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="64"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3624,7 +3654,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3639,7 +3669,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3757,7 +3787,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3772,7 +3802,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="64"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -3973,7 +4003,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -3988,7 +4018,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="64"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -4106,7 +4136,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="65" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -4121,7 +4151,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="64"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -4197,7 +4227,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="65" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -4212,7 +4242,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -4225,7 +4255,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -4240,7 +4270,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="64"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -4352,7 +4382,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -4367,7 +4397,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="66"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4572,7 +4602,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4587,7 +4617,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="66"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4703,7 +4733,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4718,7 +4748,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="66"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -4794,7 +4824,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="65" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4809,7 +4839,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="64"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4822,7 +4852,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4837,7 +4867,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="64"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -4955,7 +4985,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -4970,7 +5000,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5076,7 +5106,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5091,7 +5121,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="64"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -5303,7 +5333,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5318,7 +5348,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -5436,7 +5466,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5451,7 +5481,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5569,7 +5599,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5584,7 +5614,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -5702,7 +5732,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5717,7 +5747,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="64"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -5927,7 +5957,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5942,7 +5972,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6060,7 +6090,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6075,7 +6105,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6193,7 +6223,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6208,7 +6238,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="64"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6326,7 +6356,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6341,7 +6371,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="66"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6536,7 +6566,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -6551,7 +6581,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="66"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -6663,7 +6693,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -6678,7 +6708,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="67"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -6712,7 +6742,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="65" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -6727,7 +6757,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6778,7 +6808,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -6793,7 +6823,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -6911,7 +6941,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -6926,7 +6956,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="67"/>
+      <c r="D26" s="69"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -7092,7 +7122,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7137,7 +7167,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -7152,7 +7182,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="70"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7270,7 +7300,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -7285,7 +7315,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="67"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -7403,7 +7433,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -7418,7 +7448,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="67"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -7471,7 +7501,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="67" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -7486,7 +7516,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -7499,7 +7529,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -7512,7 +7542,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -7527,7 +7557,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="67"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -7645,7 +7675,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="65" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -7660,7 +7690,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="66"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DFC93-EA0D-4DE8-A6FD-08B46F7C4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C0EE8-D771-48E2-9F67-17E96C27B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="240">
   <si>
     <t>Task</t>
   </si>
@@ -762,6 +762,17 @@
   </si>
   <si>
     <t>PPT Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)PPT Modified 
+2)qmvar issues fixed </t>
+  </si>
+  <si>
+    <t>1)PPT Modified 
+2)qmvar issues fixed</t>
+  </si>
+  <si>
+    <t>REVER,QMVAR</t>
   </si>
 </sst>
 </file>
@@ -978,7 +989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1167,9 +1178,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2028,7 +2036,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2198,30 +2206,46 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>44324</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44325</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32C0EE8-D771-48E2-9F67-17E96C27B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8480E3D-7399-4C5D-9EE2-6EBDC171CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="241">
   <si>
     <t>Task</t>
   </si>
@@ -764,15 +764,17 @@
     <t>PPT Modified</t>
   </si>
   <si>
-    <t xml:space="preserve">1)PPT Modified 
-2)qmvar issues fixed </t>
-  </si>
-  <si>
     <t>1)PPT Modified 
 2)qmvar issues fixed</t>
   </si>
   <si>
     <t>REVER,QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPT Modified </t>
+  </si>
+  <si>
+    <t>Inventory Sceens design</t>
   </si>
 </sst>
 </file>
@@ -989,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1178,6 +1180,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2036,7 +2044,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2214,10 +2222,10 @@
         <v>44324</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E9" s="12">
         <v>0.8</v>
@@ -2227,7 +2235,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
+    <row r="10" spans="1:7" s="3" customFormat="1">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2235,16 +2243,16 @@
         <v>44325</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>237</v>
-      </c>
       <c r="E10" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -2255,10 +2263,18 @@
       <c r="B11" s="11">
         <v>44326</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -2268,10 +2284,18 @@
       <c r="B12" s="11">
         <v>44327</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -2282,7 +2306,9 @@
         <v>44328</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="65" t="s">
+        <v>112</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -2295,7 +2321,7 @@
         <v>44329</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2321,7 +2347,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="46"/>
       <c r="G16" s="1"/>
@@ -2334,7 +2360,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="69"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="1"/>
@@ -2360,7 +2386,7 @@
         <v>44334</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="59"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -2373,7 +2399,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -2386,7 +2412,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2399,7 +2425,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="69"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -2412,7 +2438,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="65"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="12"/>
       <c r="F23" s="46"/>
       <c r="G23" s="1"/>
@@ -2425,7 +2451,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="69"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -2574,12 +2600,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8480E3D-7399-4C5D-9EE2-6EBDC171CDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84137F9-926E-4FE0-B361-CBB31983BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="242">
   <si>
     <t>Task</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>Inventory Sceens design</t>
+  </si>
+  <si>
+    <t>Inventory Sceens design , Worked for Web application Template</t>
   </si>
 </sst>
 </file>
@@ -1157,6 +1160,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,12 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2044,7 +2047,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2173,7 +2176,7 @@
         <v>44321</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2188,7 +2191,7 @@
         <v>44322</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="69"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2306,7 +2309,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2321,22 +2324,30 @@
         <v>44329</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="69"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44330</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -2346,10 +2357,18 @@
       <c r="B16" s="11">
         <v>44331</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="46"/>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -2386,7 +2405,7 @@
         <v>44334</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="12"/>
       <c r="F19" s="46"/>
       <c r="G19" s="1"/>
@@ -2399,7 +2418,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -2412,7 +2431,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2438,7 +2457,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="12"/>
       <c r="F23" s="46"/>
       <c r="G23" s="1"/>
@@ -2529,7 +2548,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="65"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="12"/>
       <c r="F30" s="46"/>
       <c r="G30" s="1"/>
@@ -2542,7 +2561,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="68"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>
@@ -3443,7 +3462,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -3458,7 +3477,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="66"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -3576,7 +3595,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -3591,7 +3610,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="66"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3703,7 +3722,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3718,7 +3737,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="66"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3836,7 +3855,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3851,7 +3870,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="66"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -4052,7 +4071,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -4067,7 +4086,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="66"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -4185,7 +4204,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -4200,7 +4219,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -4276,7 +4295,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="67" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -4291,7 +4310,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="66"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -4304,7 +4323,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -4319,7 +4338,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -4431,7 +4450,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -4446,7 +4465,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="68"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4651,7 +4670,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4666,7 +4685,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="68"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4782,7 +4801,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4797,7 +4816,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="68"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -4873,7 +4892,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4888,7 +4907,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="66"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4901,7 +4920,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4916,7 +4935,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="66"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -5034,7 +5053,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5049,7 +5068,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="66"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5155,7 +5174,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5170,7 +5189,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="66"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -5382,7 +5401,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5397,7 +5416,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -5515,7 +5534,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5530,7 +5549,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5648,7 +5667,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5663,7 +5682,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="66"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -5781,7 +5800,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5796,7 +5815,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="66"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6006,7 +6025,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6021,7 +6040,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6139,7 +6158,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6154,7 +6173,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6272,7 +6291,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6287,7 +6306,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="66"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6405,7 +6424,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6420,7 +6439,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="68"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6615,7 +6634,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -6630,7 +6649,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="68"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -6742,7 +6761,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -6757,7 +6776,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="69"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -6791,7 +6810,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -6806,7 +6825,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6857,7 +6876,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -6872,7 +6891,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="69"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -6990,7 +7009,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -7005,7 +7024,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -7216,7 +7235,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -7231,7 +7250,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="72"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7349,7 +7368,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -7364,7 +7383,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="69"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -7482,7 +7501,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -7497,7 +7516,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="69"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -7550,7 +7569,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="69" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -7565,7 +7584,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -7578,7 +7597,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="69"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -7591,7 +7610,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -7606,7 +7625,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="69"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -7724,7 +7743,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -7739,7 +7758,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="68"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84137F9-926E-4FE0-B361-CBB31983BC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E33EF4-8B04-43A7-9EEF-AD804117E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="243">
   <si>
     <t>Task</t>
   </si>
@@ -778,6 +778,9 @@
   </si>
   <si>
     <t>Inventory Sceens design , Worked for Web application Template</t>
+  </si>
+  <si>
+    <t>ChangeRequest</t>
   </si>
 </sst>
 </file>
@@ -2046,8 +2049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1365C-21B8-46CF-A31D-46CDA68F2AFF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2378,10 +2381,18 @@
       <c r="B17" s="11">
         <v>44332</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -2391,10 +2402,18 @@
       <c r="B18" s="11">
         <v>44333</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -2404,10 +2423,18 @@
       <c r="B19" s="11">
         <v>44334</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -2418,7 +2445,9 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -2443,10 +2472,18 @@
       <c r="B22" s="11">
         <v>44337</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="46"/>
+      <c r="C22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E33EF4-8B04-43A7-9EEF-AD804117E9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55A8DC3-B292-4610-A02D-BFA254B23242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="246">
   <si>
     <t>Task</t>
   </si>
@@ -781,6 +781,15 @@
   </si>
   <si>
     <t>ChangeRequest</t>
+  </si>
+  <si>
+    <t>REVER_MJA</t>
+  </si>
+  <si>
+    <t>Proposal Document Created</t>
+  </si>
+  <si>
+    <t>Inventory Sceens 2nd Flow designed</t>
   </si>
 </sst>
 </file>
@@ -1163,9 +1172,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1192,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2049,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1365C-21B8-46CF-A31D-46CDA68F2AFF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2179,7 +2188,7 @@
         <v>44321</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2194,7 +2203,7 @@
         <v>44322</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2312,7 +2321,7 @@
         <v>44328</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2327,7 +2336,7 @@
         <v>44329</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="71"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2426,11 +2435,11 @@
       <c r="C19" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>242</v>
       </c>
       <c r="E19" s="12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="55" t="s">
         <v>3</v>
@@ -2445,7 +2454,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2460,7 +2469,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2479,7 +2488,7 @@
         <v>240</v>
       </c>
       <c r="E22" s="12">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F22" s="55" t="s">
         <v>3</v>
@@ -2493,10 +2502,18 @@
       <c r="B23" s="11">
         <v>44338</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -2506,10 +2523,18 @@
       <c r="B24" s="11">
         <v>44339</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="46"/>
+      <c r="C24" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -2519,10 +2544,18 @@
       <c r="B25" s="11">
         <v>44340</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -2532,10 +2565,18 @@
       <c r="B26" s="11">
         <v>44341</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -2546,7 +2587,9 @@
         <v>44342</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -2559,7 +2602,7 @@
         <v>44343</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2572,7 +2615,9 @@
         <v>44344</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="50"/>
+      <c r="D29" s="34" t="s">
+        <v>221</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -2584,10 +2629,18 @@
       <c r="B30" s="11">
         <v>44345</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="46"/>
+      <c r="C30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -2598,7 +2651,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="70"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>
@@ -2658,9 +2711,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D30:D31"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3499,7 +3552,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -3514,7 +3567,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -3632,7 +3685,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -3647,7 +3700,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -3759,7 +3812,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -3774,7 +3827,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="68"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -3892,7 +3945,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -3907,7 +3960,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="68"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -4108,7 +4161,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -4123,7 +4176,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -4241,7 +4294,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -4256,7 +4309,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="68"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -4332,7 +4385,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -4347,7 +4400,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -4360,7 +4413,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -4375,7 +4428,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -4487,7 +4540,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -4502,7 +4555,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -4707,7 +4760,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -4722,7 +4775,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="70"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -4838,7 +4891,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -4853,7 +4906,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -4929,7 +4982,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -4944,7 +4997,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4957,7 +5010,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -4972,7 +5025,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -5090,7 +5143,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5105,7 +5158,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="68"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5211,7 +5264,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5226,7 +5279,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="68"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -5438,7 +5491,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5453,7 +5506,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -5571,7 +5624,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -5586,7 +5639,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5704,7 +5757,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -5719,7 +5772,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -5837,7 +5890,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -5852,7 +5905,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="68"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6062,7 +6115,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6077,7 +6130,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6195,7 +6248,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6210,7 +6263,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6328,7 +6381,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6343,7 +6396,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6461,7 +6514,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6476,7 +6529,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="70"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6671,7 +6724,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -6686,7 +6739,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -6798,7 +6851,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -6813,7 +6866,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="71"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -6847,7 +6900,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -6862,7 +6915,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6913,7 +6966,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -6928,7 +6981,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="71"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -7046,7 +7099,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -7061,7 +7114,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="71"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -7272,7 +7325,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -7287,7 +7340,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="74"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7405,7 +7458,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -7420,7 +7473,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -7538,7 +7591,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -7553,7 +7606,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="71"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -7606,7 +7659,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="68" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -7621,7 +7674,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -7634,7 +7687,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="71"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -7647,7 +7700,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -7662,7 +7715,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="71"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -7780,7 +7833,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -7795,7 +7848,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="70"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55A8DC3-B292-4610-A02D-BFA254B23242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465EA93B-F2A1-4A50-A76E-DB8EB8BB92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="612" windowWidth="19200" windowHeight="10800" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="247">
   <si>
     <t>Task</t>
   </si>
@@ -790,6 +790,9 @@
   </si>
   <si>
     <t>Inventory Sceens 2nd Flow designed</t>
+  </si>
+  <si>
+    <t>Inventory Sceens modifications done</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1198,9 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1365C-21B8-46CF-A31D-46CDA68F2AFF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>230</v>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>44318</v>
+        <v>44349</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>230</v>
@@ -2143,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>44319</v>
+        <v>44350</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>232</v>
@@ -2164,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>44320</v>
+        <v>44351</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>233</v>
@@ -2185,7 +2185,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44321</v>
+        <v>44352</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="66" t="s">
@@ -2200,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>44322</v>
+        <v>44353</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="70"/>
@@ -2213,7 +2213,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44323</v>
+        <v>44354</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>233</v>
@@ -2234,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44324</v>
+        <v>44355</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>238</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>44325</v>
+        <v>44356</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>233</v>
@@ -2276,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>44326</v>
+        <v>44357</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>46</v>
@@ -2297,7 +2297,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>44327</v>
+        <v>44358</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>46</v>
@@ -2318,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>44328</v>
+        <v>44359</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="66" t="s">
@@ -2333,7 +2333,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44329</v>
+        <v>44360</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="70"/>
@@ -2346,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>44330</v>
+        <v>44361</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>46</v>
@@ -2367,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>44331</v>
+        <v>44362</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>46</v>
@@ -2388,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>44332</v>
+        <v>44363</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>46</v>
@@ -2409,7 +2409,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>44333</v>
+        <v>44364</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>46</v>
@@ -2430,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>44334</v>
+        <v>44365</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>207</v>
@@ -2451,7 +2451,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>44335</v>
+        <v>44366</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="66" t="s">
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>44336</v>
+        <v>44367</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="69"/>
@@ -2479,7 +2479,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>44337</v>
+        <v>44368</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>46</v>
@@ -2500,7 +2500,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>44338</v>
+        <v>44369</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>243</v>
@@ -2521,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>44339</v>
+        <v>44370</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>243</v>
@@ -2542,7 +2542,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>44340</v>
+        <v>44371</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>243</v>
@@ -2563,7 +2563,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>44341</v>
+        <v>44372</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>243</v>
@@ -2584,7 +2584,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>44342</v>
+        <v>44373</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="66" t="s">
@@ -2599,7 +2599,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>44343</v>
+        <v>44374</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="70"/>
@@ -2612,7 +2612,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>44344</v>
+        <v>44375</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="34" t="s">
@@ -2627,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>44345</v>
+        <v>44376</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>46</v>
@@ -2648,21 +2648,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>44346</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="46"/>
+        <v>44377</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>44347</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="53"/>
       <c r="E32" s="12"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465EA93B-F2A1-4A50-A76E-DB8EB8BB92BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883CC5D-7711-411B-B2AE-ABD48FEB8A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="612" windowWidth="19200" windowHeight="10800" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="APR-2021" sheetId="25" r:id="rId8"/>
     <sheet name="MAY-2021" sheetId="26" r:id="rId9"/>
     <sheet name="JUNE-2021" sheetId="27" r:id="rId10"/>
+    <sheet name="JULY-2021" sheetId="28" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="248">
   <si>
     <t>Task</t>
   </si>
@@ -793,6 +794,9 @@
   </si>
   <si>
     <t>Inventory Sceens modifications done</t>
+  </si>
+  <si>
+    <t>Invenetpory - screens designed and alignment fixed</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1201,6 +1205,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2058,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B1365C-21B8-46CF-A31D-46CDA68F2AFF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2718,6 +2725,512 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D33972-07D6-4C4F-8CDA-FF7C4943C63D}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44378</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44379</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44380</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44381</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44382</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44384</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44385</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44386</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44387</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44388</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44389</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44390</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44391</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44392</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44393</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44394</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44395</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44396</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44397</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44398</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44399</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44400</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44401</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44402</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44403</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44404</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44405</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44406</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44407</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44408</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4883CC5D-7711-411B-B2AE-ABD48FEB8A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260534C-1115-4FC7-8CBB-26A7F7EB86C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="249">
   <si>
     <t>Task</t>
   </si>
@@ -796,7 +796,11 @@
     <t>Inventory Sceens modifications done</t>
   </si>
   <si>
-    <t>Invenetpory - screens designed and alignment fixed</t>
+    <t>Invenetory - screens designed and alignment fixed</t>
+  </si>
+  <si>
+    <t>1) Invenetory - screens designed and alignment fixed
+2) Hayaai website - India address changed for both Japanese and english</t>
   </si>
 </sst>
 </file>
@@ -1182,6 +1186,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,9 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2195,7 +2199,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2210,7 +2214,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2328,7 +2332,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2343,7 +2347,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2461,7 +2465,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2476,7 +2480,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2594,7 +2598,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2609,7 +2613,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2736,7 +2740,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2794,17 +2798,25 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="57.6">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="11">
         <v>44379</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="64">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -2815,7 +2827,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -2830,7 +2842,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -2843,7 +2855,7 @@
         <v>44382</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="74"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="12"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -2934,7 +2946,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="66"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -2947,7 +2959,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3025,7 +3037,7 @@
         <v>44396</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -3038,7 +3050,7 @@
         <v>44397</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3116,7 +3128,7 @@
         <v>44403</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="66"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -3129,7 +3141,7 @@
         <v>44404</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -4069,7 +4081,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -4084,7 +4096,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="67"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -4202,7 +4214,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -4217,7 +4229,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -4329,7 +4341,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -4344,7 +4356,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="67"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -4462,7 +4474,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -4477,7 +4489,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="67"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -4678,7 +4690,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -4693,7 +4705,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -4811,7 +4823,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="67" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -4826,7 +4838,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -4902,7 +4914,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -4917,7 +4929,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -4930,7 +4942,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -4945,7 +4957,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -5057,7 +5069,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -5072,7 +5084,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="69"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -5277,7 +5289,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -5292,7 +5304,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -5408,7 +5420,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5423,7 +5435,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="69"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5499,7 +5511,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5514,7 +5526,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5527,7 +5539,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5542,7 +5554,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -5660,7 +5672,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5675,7 +5687,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="67"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5781,7 +5793,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5796,7 +5808,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="67"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -6008,7 +6020,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6023,7 +6035,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6141,7 +6153,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6156,7 +6168,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6274,7 +6286,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6289,7 +6301,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6407,7 +6419,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6422,7 +6434,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6632,7 +6644,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6647,7 +6659,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6765,7 +6777,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6780,7 +6792,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6898,7 +6910,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6913,7 +6925,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7031,7 +7043,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7046,7 +7058,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="69"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -7241,7 +7253,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -7256,7 +7268,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -7368,7 +7380,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -7383,7 +7395,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -7417,7 +7429,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -7432,7 +7444,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7483,7 +7495,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -7498,7 +7510,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -7616,7 +7628,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -7631,7 +7643,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -7842,7 +7854,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -7857,7 +7869,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="73"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7975,7 +7987,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -7990,7 +8002,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -8108,7 +8120,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -8123,7 +8135,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="70"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -8176,7 +8188,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="69" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -8191,7 +8203,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -8204,7 +8216,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="70"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -8217,7 +8229,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -8232,7 +8244,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -8350,7 +8362,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="67" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -8365,7 +8377,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8260534C-1115-4FC7-8CBB-26A7F7EB86C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB6094-44EE-4504-9612-3D1F797BA6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="253">
   <si>
     <t>Task</t>
   </si>
@@ -801,6 +801,18 @@
   <si>
     <t>1) Invenetory - screens designed and alignment fixed
 2) Hayaai website - India address changed for both Japanese and english</t>
+  </si>
+  <si>
+    <t>MUJISTORE</t>
+  </si>
+  <si>
+    <t>Compared with original and latest. Created Doc</t>
+  </si>
+  <si>
+    <t>Invenetory - screens designed and Modification</t>
+  </si>
+  <si>
+    <t>Proposal document verified,Muji verified</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2082,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2740,7 +2752,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2854,10 +2866,18 @@
       <c r="B6" s="11">
         <v>44382</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="56"/>
+      <c r="C6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -2867,10 +2887,18 @@
       <c r="B7" s="11">
         <v>44383</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
@@ -2880,10 +2908,18 @@
       <c r="B8" s="11">
         <v>44384</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="64">
+        <v>1</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -2893,10 +2929,18 @@
       <c r="B9" s="11">
         <v>44385</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -2906,10 +2950,18 @@
       <c r="B10" s="11">
         <v>44386</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">
@@ -2920,7 +2972,9 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -2933,7 +2987,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="50"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -2946,7 +3000,7 @@
         <v>44389</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="67"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -2959,7 +3013,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="71"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3239,10 +3293,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB6094-44EE-4504-9612-3D1F797BA6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242653A3-EEE7-4F6A-A967-DCCFCC0D7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="257">
   <si>
     <t>Task</t>
   </si>
@@ -813,6 +813,18 @@
   </si>
   <si>
     <t>Proposal document verified,Muji verified</t>
+  </si>
+  <si>
+    <t>Created Doc</t>
+  </si>
+  <si>
+    <t>MJA</t>
+  </si>
+  <si>
+    <t>Layout design prepared</t>
+  </si>
+  <si>
+    <t>Layout design prepared , wireframe designed</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1196,9 +1208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2211,7 +2220,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2226,7 +2235,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2344,7 +2353,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2359,7 +2368,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="71"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2477,7 +2486,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2492,7 +2501,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2610,7 +2619,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2625,7 +2634,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="71"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2751,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D33972-07D6-4C4F-8CDA-FF7C4943C63D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2839,7 +2848,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -2854,7 +2863,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="71"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -2972,7 +2981,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -2987,7 +2996,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="71"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -2999,10 +3008,18 @@
       <c r="B13" s="11">
         <v>44389</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -3012,10 +3029,18 @@
       <c r="B14" s="11">
         <v>44390</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -3025,10 +3050,18 @@
       <c r="B15" s="11">
         <v>44391</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3091,7 +3124,7 @@
         <v>44396</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -3104,7 +3137,7 @@
         <v>44397</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3182,7 +3215,7 @@
         <v>44403</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="67"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -3195,7 +3228,7 @@
         <v>44404</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="71"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -4135,7 +4168,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -4150,7 +4183,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="68"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -4268,7 +4301,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -4283,7 +4316,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -4395,7 +4428,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -4410,7 +4443,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="68"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -4528,7 +4561,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -4543,7 +4576,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="68"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -4744,7 +4777,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -4759,7 +4792,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -4877,7 +4910,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="66" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -4892,7 +4925,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="68"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -4968,7 +5001,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -4983,7 +5016,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="68"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -4996,7 +5029,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -5011,7 +5044,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="67"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -5123,7 +5156,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -5138,7 +5171,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -5343,7 +5376,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -5358,7 +5391,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="70"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -5474,7 +5507,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5489,7 +5522,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="70"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5565,7 +5598,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="66" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5580,7 +5613,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5593,7 +5626,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5608,7 +5641,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="68"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -5726,7 +5759,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5741,7 +5774,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="68"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5847,7 +5880,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5862,7 +5895,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="68"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -6074,7 +6107,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6089,7 +6122,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6207,7 +6240,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6222,7 +6255,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6340,7 +6373,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6355,7 +6388,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6473,7 +6506,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6488,7 +6521,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="68"/>
+      <c r="D29" s="67"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6698,7 +6731,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6713,7 +6746,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="71"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6831,7 +6864,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6846,7 +6879,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6964,7 +6997,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6979,7 +7012,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="68"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7097,7 +7130,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7112,7 +7145,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="70"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -7307,7 +7340,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -7322,7 +7355,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -7434,7 +7467,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -7449,7 +7482,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="71"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -7483,7 +7516,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="66" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -7498,7 +7531,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7549,7 +7582,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -7564,7 +7597,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="71"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -7682,7 +7715,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -7697,7 +7730,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="71"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -7908,7 +7941,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -7923,7 +7956,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="74"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8041,7 +8074,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -8056,7 +8089,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="71"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -8174,7 +8207,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -8189,7 +8222,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="71"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -8242,7 +8275,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="68" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -8257,7 +8290,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -8270,7 +8303,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="71"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -8283,7 +8316,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -8298,7 +8331,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="71"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -8416,7 +8449,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="66" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -8431,7 +8464,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="70"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242653A3-EEE7-4F6A-A967-DCCFCC0D7FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9CED6-1707-4B45-BFF5-D94506F9C696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="259">
   <si>
     <t>Task</t>
   </si>
@@ -825,6 +825,12 @@
   </si>
   <si>
     <t>Layout design prepared , wireframe designed</t>
+  </si>
+  <si>
+    <t>wireframe designed</t>
+  </si>
+  <si>
+    <t>wireframe designed for Employer screens</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1233,6 +1239,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2761,7 +2773,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3071,10 +3083,18 @@
       <c r="B16" s="11">
         <v>44392</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3084,10 +3104,18 @@
       <c r="B17" s="11">
         <v>44393</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="64">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -3098,7 +3126,9 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="50"/>
+      <c r="D18" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -3111,7 +3141,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="65"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3124,7 +3154,7 @@
         <v>44396</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="12"/>
       <c r="F20" s="47"/>
       <c r="G20" s="1"/>
@@ -3137,7 +3167,7 @@
         <v>44397</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3326,10 +3356,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9CED6-1707-4B45-BFF5-D94506F9C696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5AF20-1040-4CBD-A256-9FC11D46F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="261">
   <si>
     <t>Task</t>
   </si>
@@ -831,6 +831,12 @@
   </si>
   <si>
     <t>wireframe designed for Employer screens</t>
+  </si>
+  <si>
+    <t>wireframe designed- Features For employers - Login, Register, Dashboard</t>
+  </si>
+  <si>
+    <t>wireframe designed- Features For employers - Login, Register, Dashboard - modifications done</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1239,12 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2773,7 +2773,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3146,30 +3146,46 @@
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="28.8">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>44396</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="64">
+        <v>1</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44397</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F5AF20-1040-4CBD-A256-9FC11D46F1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612E3598-312E-4D22-B438-0CFA9E58FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="263">
   <si>
     <t>Task</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>wireframe designed- Features For employers - Login, Register, Dashboard - modifications done</t>
+  </si>
+  <si>
+    <t>Proposal document created</t>
+  </si>
+  <si>
+    <t>MJA tracker created</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1245,6 +1251,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2773,7 +2782,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3195,10 +3204,18 @@
       <c r="B22" s="11">
         <v>44398</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3208,10 +3225,18 @@
       <c r="B23" s="11">
         <v>44399</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" s="64">
+        <v>1</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -3221,10 +3246,18 @@
       <c r="B24" s="11">
         <v>44400</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -3235,7 +3268,9 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="50"/>
+      <c r="D25" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -3248,7 +3283,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="50"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3261,7 +3296,7 @@
         <v>44403</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="66"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -3274,7 +3309,7 @@
         <v>44404</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3372,10 +3407,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D27:D28"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612E3598-312E-4D22-B438-0CFA9E58FF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF302DF-805A-4E10-9F4E-0812C60D7AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="266">
   <si>
     <t>Task</t>
   </si>
@@ -843,6 +843,15 @@
   </si>
   <si>
     <t>MJA tracker created</t>
+  </si>
+  <si>
+    <t>WBS created for weekly report</t>
+  </si>
+  <si>
+    <t>PPT created for Report tracking</t>
+  </si>
+  <si>
+    <t>PPT created for Report tracking, Proposal create</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1251,9 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2782,7 +2788,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E28" sqref="E28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3208,13 +3214,13 @@
         <v>254</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E22" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -3295,10 +3301,18 @@
       <c r="B27" s="11">
         <v>44403</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -3308,10 +3322,18 @@
       <c r="B28" s="11">
         <v>44404</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF302DF-805A-4E10-9F4E-0812C60D7AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263C362-F1F9-4ECD-BAB3-6001B85960C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="267">
   <si>
     <t>Task</t>
   </si>
@@ -852,6 +852,10 @@
   </si>
   <si>
     <t>PPT created for Report tracking, Proposal create</t>
+  </si>
+  <si>
+    <t>Deployment plan created
+KT Attended</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1260,6 +1264,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2787,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D33972-07D6-4C4F-8CDA-FF7C4943C63D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3336,17 +3343,25 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44405</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263C362-F1F9-4ECD-BAB3-6001B85960C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60900D8-BCDC-4DC5-9A47-C0EE5D6A7C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="MAY-2021" sheetId="26" r:id="rId9"/>
     <sheet name="JUNE-2021" sheetId="27" r:id="rId10"/>
     <sheet name="JULY-2021" sheetId="28" r:id="rId11"/>
+    <sheet name="AUG-2021 " sheetId="29" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="269">
   <si>
     <t>Task</t>
   </si>
@@ -855,7 +856,15 @@
   </si>
   <si>
     <t>Deployment plan created
-KT Attended</t>
+Pennacement-KT Attended</t>
+  </si>
+  <si>
+    <t>PPT modified
+Pennacement-KT Attended</t>
+  </si>
+  <si>
+    <t>Report created
+Pennacement-KT Attended</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1241,6 +1250,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,8 +1280,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2254,7 +2272,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2269,7 +2287,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2387,7 +2405,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2402,7 +2420,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2520,7 +2538,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2535,7 +2553,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2653,7 +2671,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2668,7 +2686,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2794,8 +2812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D33972-07D6-4C4F-8CDA-FF7C4943C63D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2882,7 +2900,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -2897,7 +2915,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="70"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3015,7 +3033,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3030,7 +3048,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3148,7 +3166,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3163,7 +3181,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="70"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3281,7 +3299,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3296,7 +3314,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3353,7 +3371,7 @@
       <c r="C29" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="67" t="s">
         <v>266</v>
       </c>
       <c r="E29" s="12">
@@ -3364,30 +3382,46 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>44406</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="28.8">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="11">
         <v>44407</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -3398,7 +3432,9 @@
         <v>44408</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="53"/>
+      <c r="D32" s="66" t="s">
+        <v>112</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -3449,6 +3485,498 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D25:D26"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F4041-351F-4FFB-BD0A-13CE4A878BBC}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44409</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44410</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44412</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44413</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44414</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44415</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44416</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44417</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44418</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44419</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44420</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44421</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44422</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44423</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44424</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44425</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44427</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44428</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44429</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44430</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44432</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44433</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44434</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44436</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44437</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44438</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44439</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4286,7 +4814,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -4301,7 +4829,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="67"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -4419,7 +4947,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -4434,7 +4962,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -4546,7 +5074,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -4561,7 +5089,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="67"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -4679,7 +5207,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -4694,7 +5222,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="67"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -4895,7 +5423,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -4910,7 +5438,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="67"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -5028,7 +5556,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="68" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -5043,7 +5571,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -5119,7 +5647,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="68" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -5134,7 +5662,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="67"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -5147,7 +5675,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -5162,7 +5690,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="67"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -5274,7 +5802,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -5289,7 +5817,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="69"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -5494,7 +6022,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -5509,7 +6037,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="69"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -5625,7 +6153,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5640,7 +6168,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="69"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5716,7 +6244,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5731,7 +6259,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="67"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5744,7 +6272,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5759,7 +6287,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="67"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -5877,7 +6405,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5892,7 +6420,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="67"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5998,7 +6526,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6013,7 +6541,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="67"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -6225,7 +6753,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6240,7 +6768,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="70"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6358,7 +6886,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6373,7 +6901,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6491,7 +7019,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6506,7 +7034,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6624,7 +7152,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6639,7 +7167,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -6849,7 +7377,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6864,7 +7392,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="70"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6982,7 +7510,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6997,7 +7525,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7115,7 +7643,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7130,7 +7658,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="67"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7248,7 +7776,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7263,7 +7791,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="69"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -7458,7 +7986,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -7473,7 +8001,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="69"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -7585,7 +8113,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -7600,7 +8128,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="70"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -7634,7 +8162,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="68" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -7649,7 +8177,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7700,7 +8228,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -7715,7 +8243,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -7833,7 +8361,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -7848,7 +8376,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="70"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -8059,7 +8587,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -8074,7 +8602,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="73"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8192,7 +8720,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -8207,7 +8735,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="70"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -8325,7 +8853,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -8340,7 +8868,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="70"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -8393,7 +8921,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="70" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -8408,7 +8936,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -8421,7 +8949,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="70"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -8434,7 +8962,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -8449,7 +8977,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="70"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -8567,7 +9095,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -8582,7 +9110,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="69"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60900D8-BCDC-4DC5-9A47-C0EE5D6A7C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26C50B8-1F66-4163-9974-F4CE41F8B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="270">
   <si>
     <t>Task</t>
   </si>
@@ -865,6 +865,9 @@
   <si>
     <t>Report created
 Pennacement-KT Attended</t>
+  </si>
+  <si>
+    <t>Reports modified</t>
   </si>
 </sst>
 </file>
@@ -1256,6 +1259,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,12 +1287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2272,7 +2275,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2287,7 +2290,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="72"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2405,7 +2408,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2420,7 +2423,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="72"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2538,7 +2541,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2553,7 +2556,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2671,7 +2674,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2686,7 +2689,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2812,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D33972-07D6-4C4F-8CDA-FF7C4943C63D}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2900,7 +2903,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -2915,7 +2918,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="72"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3033,7 +3036,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3048,7 +3051,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="72"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3166,7 +3169,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3181,7 +3184,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3299,7 +3302,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3314,7 +3317,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="72"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3494,8 +3497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F4041-351F-4FFB-BD0A-13CE4A878BBC}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3540,7 +3543,7 @@
         <v>44409</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="64"/>
@@ -3554,10 +3557,18 @@
       <c r="B3" s="11">
         <v>44410</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="64">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -3568,7 +3579,7 @@
         <v>44411</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="76"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -3659,7 +3670,7 @@
         <v>44418</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -3750,7 +3761,7 @@
         <v>44425</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="76"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -3841,7 +3852,7 @@
         <v>44432</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="76"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -4814,7 +4825,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -4829,7 +4840,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="69"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -4947,7 +4958,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -4962,7 +4973,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="69"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -5074,7 +5085,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -5089,7 +5100,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="69"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -5207,7 +5218,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -5222,7 +5233,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="69"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -5423,7 +5434,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -5438,7 +5449,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="69"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -5556,7 +5567,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="70" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -5571,7 +5582,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -5647,7 +5658,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="70" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -5662,7 +5673,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="69"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -5675,7 +5686,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -5690,7 +5701,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -5802,7 +5813,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -5817,7 +5828,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="71"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -6022,7 +6033,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -6037,7 +6048,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="71"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -6153,7 +6164,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -6168,7 +6179,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="71"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -6244,7 +6255,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="70" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -6259,7 +6270,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="69"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -6272,7 +6283,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -6287,7 +6298,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="69"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -6405,7 +6416,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -6420,7 +6431,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="69"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6526,7 +6537,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6541,7 +6552,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="69"/>
+      <c r="D32" s="71"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -6753,7 +6764,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6768,7 +6779,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="72"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6886,7 +6897,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6901,7 +6912,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7019,7 +7030,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7034,7 +7045,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="69"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7152,7 +7163,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7167,7 +7178,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="69"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -7377,7 +7388,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7392,7 +7403,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="72"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7510,7 +7521,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7525,7 +7536,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7643,7 +7654,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7658,7 +7669,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="69"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7776,7 +7787,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7791,7 +7802,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="71"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -7986,7 +7997,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8001,7 +8012,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="71"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -8113,7 +8124,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -8128,7 +8139,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="72"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -8162,7 +8173,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="70" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -8177,7 +8188,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8228,7 +8239,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -8243,7 +8254,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -8361,7 +8372,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -8376,7 +8387,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="72"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -8587,7 +8598,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -8602,7 +8613,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="75"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8720,7 +8731,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -8735,7 +8746,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="72"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -8853,7 +8864,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -8868,7 +8879,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="72"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -8921,7 +8932,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="72" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -8936,7 +8947,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -8949,7 +8960,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -8962,7 +8973,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -8977,7 +8988,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="72"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -9095,7 +9106,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="70" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -9110,7 +9121,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="71"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26C50B8-1F66-4163-9974-F4CE41F8B8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A3DDE-CD43-410C-8FF8-6701DAF467FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="272">
   <si>
     <t>Task</t>
   </si>
@@ -869,6 +869,12 @@
   <si>
     <t>Reports modified</t>
   </si>
+  <si>
+    <t>Full test - Design and Japanese version</t>
+  </si>
+  <si>
+    <t>Design issues checking and fix</t>
+  </si>
 </sst>
 </file>
 
@@ -877,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +962,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1084,7 +1097,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1288,6 +1301,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3498,7 +3514,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3578,10 +3594,18 @@
       <c r="B4" s="11">
         <v>44411</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="64">
+        <v>1</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -3591,10 +3615,18 @@
       <c r="B5" s="11">
         <v>44412</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="56"/>
+      <c r="C5" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="64">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1">
@@ -3604,10 +3636,18 @@
       <c r="B6" s="11">
         <v>44413</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="56"/>
+      <c r="C6" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -3631,7 +3671,9 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="50"/>
+      <c r="D8" s="70" t="s">
+        <v>112</v>
+      </c>
       <c r="E8" s="64"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -3644,7 +3686,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="50"/>
+      <c r="D9" s="78"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3988,6 +4030,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:D9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A3DDE-CD43-410C-8FF8-6701DAF467FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1AD014-036F-4BB8-AF75-26F73D48E6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="274">
   <si>
     <t>Task</t>
   </si>
@@ -874,6 +874,12 @@
   </si>
   <si>
     <t>Design issues checking and fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Activites </t>
+  </si>
+  <si>
+    <t>Tracker updated.</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2838,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3514,7 +3520,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3657,10 +3663,18 @@
       <c r="B7" s="11">
         <v>44414</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
@@ -3698,10 +3712,18 @@
       <c r="B10" s="11">
         <v>44417</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1AD014-036F-4BB8-AF75-26F73D48E6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82291C5-C389-44EB-81D3-F60023B1C411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="276">
   <si>
     <t>Task</t>
   </si>
@@ -880,6 +880,12 @@
   </si>
   <si>
     <t>Tracker updated.</t>
+  </si>
+  <si>
+    <t>Sample layout designed</t>
+  </si>
+  <si>
+    <t>Resume Search screen - UI design Completed</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3526,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3733,10 +3739,18 @@
       <c r="B11" s="11">
         <v>44418</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -3746,10 +3760,18 @@
       <c r="B12" s="11">
         <v>44419</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82291C5-C389-44EB-81D3-F60023B1C411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDEEC2-54C5-42DC-803A-BE63DFDE8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="278">
   <si>
     <t>Task</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>Resume Search screen - UI design Completed</t>
+  </si>
+  <si>
+    <t>Production LIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard UI design </t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3532,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3781,10 +3787,18 @@
       <c r="B13" s="11">
         <v>44420</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="E13" s="64">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -3794,10 +3808,18 @@
       <c r="B14" s="11">
         <v>44421</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -3808,7 +3830,9 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="70" t="s">
+        <v>112</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -3821,7 +3845,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4074,8 +4098,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CDEEC2-54C5-42DC-803A-BE63DFDE8CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE3ADC-3F56-42FA-B3FE-BE6B16251486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="279">
   <si>
     <t>Task</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dashboard UI design </t>
+  </si>
+  <si>
+    <t>Mobile and Ipad view issues fixing</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +3535,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3857,10 +3860,18 @@
       <c r="B17" s="11">
         <v>44424</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" s="64">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -3870,10 +3881,18 @@
       <c r="B18" s="11">
         <v>44425</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE3ADC-3F56-42FA-B3FE-BE6B16251486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54523CB5-F522-4BA9-B9A1-D4E34BA8D58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="284">
   <si>
     <t>Task</t>
   </si>
@@ -895,6 +895,23 @@
   </si>
   <si>
     <t>Mobile and Ipad view issues fixing</t>
+  </si>
+  <si>
+    <t>MUJISTORE,MJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Mobile and Ipad view issues fixing
+	MJA - Ui design Job manager screen</t>
+  </si>
+  <si>
+    <t>Muji- tested in all browsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muji- tested in Firefox 
+MJA- UI design </t>
+  </si>
+  <si>
+    <t>MUJISTORE, MJA</t>
   </si>
 </sst>
 </file>
@@ -3535,7 +3552,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3895,17 +3912,25 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="11">
         <v>44426</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -3915,23 +3940,39 @@
       <c r="B20" s="11">
         <v>44427</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44428</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54523CB5-F522-4BA9-B9A1-D4E34BA8D58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D7779-464F-47F4-B3DD-751809A05C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="288">
   <si>
     <t>Task</t>
   </si>
@@ -912,6 +912,19 @@
   </si>
   <si>
     <t>MUJISTORE, MJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muji- Tested in Firefox
+MJA- UI design </t>
+  </si>
+  <si>
+    <t>Requirement Docment created (Sample)</t>
+  </si>
+  <si>
+    <t>MJA Tracker completed(Phase-1)</t>
+  </si>
+  <si>
+    <t>MJA Estimation completed</t>
   </si>
 </sst>
 </file>
@@ -1311,9 +1324,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,6 +1351,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2329,7 +2342,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2344,7 +2357,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2462,7 +2475,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2477,7 +2490,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="74"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2595,7 +2608,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2610,7 +2623,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2728,7 +2741,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="70" t="s">
+      <c r="D27" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2743,7 +2756,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -2957,7 +2970,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -2972,7 +2985,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="74"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3090,7 +3103,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3105,7 +3118,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="74"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3223,7 +3236,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3238,7 +3251,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3356,7 +3369,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3371,7 +3384,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3551,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F4041-351F-4FFB-BD0A-13CE4A878BBC}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3597,7 +3610,7 @@
         <v>44409</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="64"/>
@@ -3717,7 +3730,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3732,7 +3745,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="78"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3850,7 +3863,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3865,7 +3878,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -3983,7 +3996,9 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="50"/>
+      <c r="D22" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -3996,7 +4011,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4009,22 +4024,32 @@
         <v>44431</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="50"/>
+      <c r="D24" s="34" t="s">
+        <v>221</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="56"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="28.8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44432</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4034,10 +4059,18 @@
       <c r="B26" s="11">
         <v>44433</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4047,10 +4080,18 @@
       <c r="B27" s="11">
         <v>44434</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4060,10 +4101,18 @@
       <c r="B28" s="11">
         <v>44435</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4074,7 +4123,9 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="67"/>
+      <c r="D29" s="69" t="s">
+        <v>112</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -4087,7 +4138,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="50"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4099,7 +4150,9 @@
       <c r="B31" s="11">
         <v>44438</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="D31" s="50"/>
       <c r="E31" s="12"/>
       <c r="F31" s="56"/>
@@ -4158,9 +4211,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D29:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4999,7 +5054,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5014,7 +5069,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="71"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5132,7 +5187,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5147,7 +5202,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="71"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -5259,7 +5314,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -5274,7 +5329,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="71"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -5392,7 +5447,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="70" t="s">
+      <c r="D29" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -5407,7 +5462,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="71"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -5608,7 +5663,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -5623,7 +5678,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="71"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -5741,7 +5796,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="69" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -5756,7 +5811,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="71"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -5832,7 +5887,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -5847,7 +5902,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="71"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -5860,7 +5915,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="70" t="s">
+      <c r="D20" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -5875,7 +5930,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -5987,7 +6042,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6002,7 +6057,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -6207,7 +6262,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -6222,7 +6277,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="73"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -6338,7 +6393,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -6353,7 +6408,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="73"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -6429,7 +6484,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="69" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -6444,7 +6499,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="71"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -6457,7 +6512,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -6472,7 +6527,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="71"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -6590,7 +6645,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="70" t="s">
+      <c r="D24" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -6605,7 +6660,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="71"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6711,7 +6766,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6726,7 +6781,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="71"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -6938,7 +6993,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6953,7 +7008,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="74"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7071,7 +7126,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7086,7 +7141,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7204,7 +7259,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7219,7 +7274,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="71"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7337,7 +7392,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7352,7 +7407,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="71"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -7562,7 +7617,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7577,7 +7632,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="74"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7695,7 +7750,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7710,7 +7765,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7828,7 +7883,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7843,7 +7898,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="71"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7961,7 +8016,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7976,7 +8031,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -8171,7 +8226,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8186,7 +8241,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="73"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -8298,7 +8353,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -8313,7 +8368,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="74"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -8347,7 +8402,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="69" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -8362,7 +8417,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8413,7 +8468,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -8428,7 +8483,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -8546,7 +8601,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -8561,7 +8616,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="74"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -8772,7 +8827,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -8787,7 +8842,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="77"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -8905,7 +8960,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -8920,7 +8975,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="74"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9038,7 +9093,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9053,7 +9108,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="74"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9106,7 +9161,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9121,7 +9176,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9134,7 +9189,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9147,7 +9202,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="70" t="s">
+      <c r="D23" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9162,7 +9217,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="74"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -9280,7 +9335,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="70" t="s">
+      <c r="D30" s="69" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -9295,7 +9350,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="73"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8D7779-464F-47F4-B3DD-751809A05C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E008D-11C5-4E5B-91BE-81FB7C693B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="291">
   <si>
     <t>Task</t>
   </si>
@@ -925,6 +925,16 @@
   </si>
   <si>
     <t>MJA Estimation completed</t>
+  </si>
+  <si>
+    <t>MJA, Penna</t>
+  </si>
+  <si>
+    <t>Penna Documents collected 
+Mja - Screening questionare Design</t>
+  </si>
+  <si>
+    <t>Mja - Screening questionare Design</t>
   </si>
 </sst>
 </file>
@@ -3564,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F4041-351F-4FFB-BD0A-13CE4A878BBC}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4143,7 +4153,7 @@
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="16.2" customHeight="1">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -4151,24 +4161,38 @@
         <v>44438</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+        <v>288</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="28.8">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="11">
         <v>44439</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E008D-11C5-4E5B-91BE-81FB7C693B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E7FA7-5780-40F0-8755-CF4089E36791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="JUNE-2021" sheetId="27" r:id="rId10"/>
     <sheet name="JULY-2021" sheetId="28" r:id="rId11"/>
     <sheet name="AUG-2021 " sheetId="29" r:id="rId12"/>
+    <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="295">
   <si>
     <t>Task</t>
   </si>
@@ -935,6 +936,18 @@
   </si>
   <si>
     <t>Mja - Screening questionare Design</t>
+  </si>
+  <si>
+    <t>2021/09/31</t>
+  </si>
+  <si>
+    <t>MJA, PENNA</t>
+  </si>
+  <si>
+    <t>Job Manager - Screening Questionnaire UI Design</t>
+  </si>
+  <si>
+    <t>Resume search agent, saved resume - UI Design</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1365,6 +1378,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3574,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F4041-351F-4FFB-BD0A-13CE4A878BBC}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4241,6 +4266,514 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D29:D30"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44440</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="64">
+        <v>1</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44441</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="64">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44442</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44443</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44444</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44445</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44446</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44447</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44448</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44449</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44450</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44451</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44452</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44453</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44454</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44455</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44456</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44457</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44458</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44459</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44460</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44461</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44462</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44463</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44464</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44465</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44466</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44467</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44468</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44469</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768E7FA7-5780-40F0-8755-CF4089E36791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D08E51-0D1F-4CD7-B5EB-9EBE1AA5459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="299">
   <si>
     <t>Task</t>
   </si>
@@ -948,6 +948,19 @@
   </si>
   <si>
     <t>Resume search agent, saved resume - UI Design</t>
+  </si>
+  <si>
+    <t>Muji,MJA</t>
+  </si>
+  <si>
+    <t>Muji- production deployment
+MJA - DB values doc created</t>
+  </si>
+  <si>
+    <t>Muji</t>
+  </si>
+  <si>
+    <t>Download original videos for all formats tested in Firefox</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1349,6 +1362,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,17 +1404,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2377,7 +2393,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2392,7 +2408,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2510,7 +2526,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2525,7 +2541,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2643,7 +2659,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2658,7 +2674,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2776,7 +2792,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2791,7 +2807,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3005,7 +3021,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3020,7 +3036,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="73"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3138,7 +3154,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3153,7 +3169,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="73"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3271,7 +3287,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3286,7 +3302,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="73"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3404,7 +3420,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3419,7 +3435,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="73"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3765,7 +3781,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3780,7 +3796,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3898,7 +3914,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3913,7 +3929,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4031,7 +4047,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4046,7 +4062,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4158,7 +4174,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4173,7 +4189,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="78"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4276,7 +4292,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4323,7 +4339,7 @@
       <c r="C2" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="72" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="64">
@@ -4355,17 +4371,25 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>44442</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4376,7 +4400,9 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="63"/>
+      <c r="D5" s="79" t="s">
+        <v>112</v>
+      </c>
       <c r="E5" s="64"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -4389,22 +4415,30 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="63"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11">
         <v>44445</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
@@ -4415,7 +4449,7 @@
         <v>44446</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="64"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -4428,7 +4462,7 @@
         <v>44447</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4508,7 +4542,7 @@
         <v>44453</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="79"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -4599,7 +4633,7 @@
         <v>44460</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -4690,7 +4724,7 @@
         <v>44467</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -4703,7 +4737,7 @@
         <v>44468</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="81"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4774,6 +4808,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5611,7 +5648,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5626,7 +5663,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="70"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5744,7 +5781,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5759,7 +5796,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="70"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -5871,7 +5908,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -5886,7 +5923,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="70"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6004,7 +6041,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6019,7 +6056,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="70"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6220,7 +6257,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6235,7 +6272,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="70"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6353,7 +6390,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6368,7 +6405,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="70"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6444,7 +6481,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6459,7 +6496,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="70"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6472,7 +6509,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6487,7 +6524,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="70"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6599,7 +6636,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6614,7 +6651,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -6819,7 +6856,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -6834,7 +6871,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="72"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -6950,7 +6987,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -6965,7 +7002,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="72"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7041,7 +7078,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7056,7 +7093,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="70"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7069,7 +7106,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7084,7 +7121,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="70"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7202,7 +7239,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7217,7 +7254,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="70"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7323,7 +7360,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7338,7 +7375,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="70"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7550,7 +7587,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7565,7 +7602,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="73"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7683,7 +7720,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7698,7 +7735,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="74"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7816,7 +7853,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7831,7 +7868,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="70"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7949,7 +7986,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -7964,7 +8001,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="70"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8174,7 +8211,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8189,7 +8226,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="73"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8307,7 +8344,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8322,7 +8359,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="74"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8440,7 +8477,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8455,7 +8492,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="70"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8573,7 +8610,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8588,7 +8625,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -8783,7 +8820,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8798,7 +8835,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="72"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -8910,7 +8947,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -8925,7 +8962,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="73"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -8959,7 +8996,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="73" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -8974,7 +9011,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9025,7 +9062,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9040,7 +9077,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="73"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9158,7 +9195,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9173,7 +9210,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="73"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9384,7 +9421,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="79" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9399,7 +9436,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="76"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9517,7 +9554,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9532,7 +9569,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="73"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9650,7 +9687,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9665,7 +9702,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="73"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9718,7 +9755,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="75" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9733,7 +9770,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9746,7 +9783,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9759,7 +9796,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9774,7 +9811,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="73"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -9892,7 +9929,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -9907,7 +9944,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="72"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D08E51-0D1F-4CD7-B5EB-9EBE1AA5459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D567EC-CF41-40B3-8877-012DBFD5C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="756" windowWidth="16500" windowHeight="11604" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="308">
   <si>
     <t>Task</t>
   </si>
@@ -961,6 +961,34 @@
   </si>
   <si>
     <t>Download original videos for all formats tested in Firefox</t>
+  </si>
+  <si>
+    <t>JOBSeeker - Signup Screen UI design</t>
+  </si>
+  <si>
+    <t>JOBSeeker - Signin Screen UI design</t>
+  </si>
+  <si>
+    <t>Penna</t>
+  </si>
+  <si>
+    <t>Penna- Issue Tracker created</t>
+  </si>
+  <si>
+    <t>REVER,Penna</t>
+  </si>
+  <si>
+    <t>REVER - CTDI Discussion
+Penna - Followups</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>Follow ups for server access</t>
+  </si>
+  <si>
+    <t>Report Created Followups</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1363,9 +1391,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2393,7 +2418,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2408,7 +2433,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2526,7 +2551,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2541,7 +2566,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="77"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2659,7 +2684,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2674,7 +2699,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2792,7 +2817,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2807,7 +2832,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="77"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3021,7 +3046,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3036,7 +3061,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3154,7 +3179,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3169,7 +3194,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3287,7 +3312,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3302,7 +3327,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3420,7 +3445,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3435,7 +3460,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3781,7 +3806,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3796,7 +3821,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="81"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3914,7 +3939,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3929,7 +3954,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4047,7 +4072,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4062,7 +4087,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4174,7 +4199,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4189,7 +4214,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4292,7 +4317,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4339,7 +4364,7 @@
       <c r="C2" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="64">
@@ -4400,7 +4425,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4415,7 +4440,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="83"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4448,10 +4473,18 @@
       <c r="B8" s="11">
         <v>44446</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1">
@@ -4461,24 +4494,38 @@
       <c r="B9" s="11">
         <v>44447</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44448</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="55" t="s">
-        <v>3</v>
+      <c r="C10" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4490,7 +4537,9 @@
         <v>44449</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="48"/>
+      <c r="D11" s="34" t="s">
+        <v>305</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -4503,7 +4552,9 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="72" t="s">
+        <v>112</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -4516,7 +4567,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4528,10 +4579,18 @@
       <c r="B14" s="11">
         <v>44452</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -4541,10 +4600,18 @@
       <c r="B15" s="11">
         <v>44453</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4554,10 +4621,18 @@
       <c r="B16" s="11">
         <v>44454</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4737,7 +4812,7 @@
         <v>44468</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="71"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4808,8 +4883,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5648,7 +5724,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5663,7 +5739,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5781,7 +5857,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5796,7 +5872,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -5908,7 +5984,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -5923,7 +5999,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="74"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6041,7 +6117,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6056,7 +6132,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="74"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6257,7 +6333,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6272,7 +6348,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6390,7 +6466,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6405,7 +6481,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="74"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6481,7 +6557,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6496,7 +6572,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6509,7 +6585,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6524,7 +6600,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6636,7 +6712,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6651,7 +6727,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -6856,7 +6932,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -6871,7 +6947,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -6987,7 +7063,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7002,7 +7078,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7078,7 +7154,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7093,7 +7169,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7106,7 +7182,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7121,7 +7197,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="74"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7239,7 +7315,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7254,7 +7330,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7360,7 +7436,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7375,7 +7451,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7587,7 +7663,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7602,7 +7678,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7720,7 +7796,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7735,7 +7811,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7853,7 +7929,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7868,7 +7944,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -7986,7 +8062,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8001,7 +8077,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8211,7 +8287,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8226,7 +8302,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8344,7 +8420,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8359,7 +8435,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8477,7 +8553,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8492,7 +8568,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8610,7 +8686,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8625,7 +8701,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -8820,7 +8896,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8835,7 +8911,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -8947,7 +9023,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -8962,7 +9038,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -8996,7 +9072,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9011,7 +9087,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9062,7 +9138,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9077,7 +9153,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9195,7 +9271,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9210,7 +9286,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9421,7 +9497,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9436,7 +9512,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="80"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9554,7 +9630,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9569,7 +9645,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="77"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9687,7 +9763,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9702,7 +9778,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="77"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9755,7 +9831,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9770,7 +9846,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9783,7 +9859,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9796,7 +9872,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9811,7 +9887,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="77"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -9929,7 +10005,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -9944,7 +10020,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="76"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D567EC-CF41-40B3-8877-012DBFD5C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F9F22-AD52-410D-BD5A-44AB9722F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="756" windowWidth="16500" windowHeight="11604" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="756" windowWidth="16500" windowHeight="11604" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="308">
   <si>
     <t>Task</t>
   </si>
@@ -3641,7 +3641,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4317,7 +4317,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4607,10 +4607,10 @@
         <v>300</v>
       </c>
       <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>5</v>
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>3</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4628,10 +4628,10 @@
         <v>299</v>
       </c>
       <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>5</v>
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>3</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4642,10 +4642,18 @@
       <c r="B17" s="11">
         <v>44455</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4655,10 +4663,18 @@
       <c r="B18" s="11">
         <v>44456</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4669,7 +4685,9 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="72" t="s">
+        <v>112</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -4682,7 +4700,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4883,9 +4901,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F9F22-AD52-410D-BD5A-44AB9722F594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DBD5D6-D339-4B4B-B67B-C75E19192CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="756" windowWidth="16500" windowHeight="11604" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="309">
   <si>
     <t>Task</t>
   </si>
@@ -989,6 +989,10 @@
   </si>
   <si>
     <t>Report Created Followups</t>
+  </si>
+  <si>
+    <t>Mja Tested Jobseeker ui Design
+Penna - Proposal prepare</t>
   </si>
 </sst>
 </file>
@@ -4316,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4705,17 +4709,25 @@
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44459</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DBD5D6-D339-4B4B-B67B-C75E19192CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5637599-0477-4120-B4FD-39F9CD061B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="314">
   <si>
     <t>Task</t>
   </si>
@@ -993,6 +993,23 @@
   <si>
     <t>Mja Tested Jobseeker ui Design
 Penna - Proposal prepare</t>
+  </si>
+  <si>
+    <t>Kaisokku</t>
+  </si>
+  <si>
+    <t>Logo Create , PPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireframe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logo Created
+Wieframe </t>
+  </si>
+  <si>
+    <t>100%
+40%</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1402,6 +1419,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2422,7 +2442,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2437,7 +2457,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2555,7 +2575,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2570,7 +2590,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2688,7 +2708,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2703,7 +2723,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2821,7 +2841,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2836,7 +2856,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3050,7 +3070,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3065,7 +3085,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3183,7 +3203,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3198,7 +3218,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3316,7 +3336,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3331,7 +3351,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3449,7 +3469,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3464,7 +3484,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3810,7 +3830,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3825,7 +3845,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3943,7 +3963,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3958,7 +3978,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4076,7 +4096,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4091,7 +4111,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4203,7 +4223,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4218,7 +4238,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="81"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4320,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4429,7 +4449,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="79" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4444,7 +4464,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="82"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4556,7 +4576,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4571,7 +4591,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="76"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4689,7 +4709,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4704,7 +4724,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4737,23 +4757,39 @@
       <c r="B22" s="11">
         <v>44460</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44461</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -4763,10 +4799,18 @@
       <c r="B24" s="11">
         <v>44462</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.85</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4776,10 +4820,18 @@
       <c r="B25" s="11">
         <v>44463</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4790,7 +4842,9 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="73" t="s">
+        <v>112</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4803,7 +4857,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -4913,10 +4967,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5755,7 +5810,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5770,7 +5825,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5888,7 +5943,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5903,7 +5958,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -6015,7 +6070,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -6030,7 +6085,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6148,7 +6203,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6163,7 +6218,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="73"/>
+      <c r="D30" s="74"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6364,7 +6419,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6379,7 +6434,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6497,7 +6552,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6512,7 +6567,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6588,7 +6643,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="73" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6603,7 +6658,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="73"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6616,7 +6671,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6631,7 +6686,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6743,7 +6798,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6758,7 +6813,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -6963,7 +7018,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -6978,7 +7033,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -7094,7 +7149,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7109,7 +7164,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="75"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7185,7 +7240,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="73" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7200,7 +7255,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7213,7 +7268,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7228,7 +7283,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7346,7 +7401,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7361,7 +7416,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7467,7 +7522,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7482,7 +7537,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="74"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7694,7 +7749,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7709,7 +7764,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7827,7 +7882,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7842,7 +7897,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -7960,7 +8015,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -7975,7 +8030,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8093,7 +8148,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8108,7 +8163,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8318,7 +8373,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8333,7 +8388,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8451,7 +8506,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8466,7 +8521,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8584,7 +8639,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8599,7 +8654,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8717,7 +8772,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8732,7 +8787,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -8927,7 +8982,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8942,7 +8997,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -9054,7 +9109,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -9069,7 +9124,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -9103,7 +9158,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="73" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9118,7 +9173,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9169,7 +9224,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9184,7 +9239,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9302,7 +9357,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9317,7 +9372,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9528,7 +9583,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9543,7 +9598,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="79"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9661,7 +9716,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9676,7 +9731,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9794,7 +9849,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9809,7 +9864,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="76"/>
+      <c r="D17" s="77"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9862,7 +9917,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="75" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9877,7 +9932,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9890,7 +9945,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9903,7 +9958,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9918,7 +9973,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="76"/>
+      <c r="D24" s="77"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -10036,7 +10091,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -10051,7 +10106,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="75"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5637599-0477-4120-B4FD-39F9CD061B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74281D-3390-40C4-B086-08185EDA20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="316">
   <si>
     <t>Task</t>
   </si>
@@ -1010,6 +1010,13 @@
   <si>
     <t>100%
 40%</t>
+  </si>
+  <si>
+    <t>Kaisokku,Penna</t>
+  </si>
+  <si>
+    <t>Kaisokku - Proposal PPT
+Penna - Proposal prepare</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1410,9 +1417,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2442,7 +2446,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2457,7 +2461,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2575,7 +2579,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2590,7 +2594,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="77"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2708,7 +2712,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2723,7 +2727,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2841,7 +2845,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2856,7 +2860,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="77"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3070,7 +3074,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3085,7 +3089,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3203,7 +3207,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3218,7 +3222,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3336,7 +3340,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3351,7 +3355,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3469,7 +3473,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3484,7 +3488,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3830,7 +3834,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3845,7 +3849,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="81"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3963,7 +3967,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3978,7 +3982,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4096,7 +4100,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4111,7 +4115,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4223,7 +4227,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4238,7 +4242,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4340,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4388,7 +4392,7 @@
       <c r="C2" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="64">
@@ -4449,7 +4453,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4464,7 +4468,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="83"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4576,7 +4580,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4591,7 +4595,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="77"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4709,7 +4713,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4724,7 +4728,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="77"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4784,7 +4788,7 @@
       <c r="D23" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>313</v>
       </c>
       <c r="F23" s="54" t="s">
@@ -4842,7 +4846,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4857,35 +4861,51 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="77"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="28.8">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="11">
         <v>44466</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44467</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4896,7 +4916,7 @@
         <v>44468</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="70"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -5810,7 +5830,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5825,7 +5845,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="74"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5943,7 +5963,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5958,7 +5978,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -6070,7 +6090,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -6085,7 +6105,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="74"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6203,7 +6223,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="73" t="s">
+      <c r="D29" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6218,7 +6238,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="74"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6419,7 +6439,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6434,7 +6454,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="74"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6552,7 +6572,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6567,7 +6587,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="74"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6643,7 +6663,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6658,7 +6678,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="74"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6671,7 +6691,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6686,7 +6706,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6798,7 +6818,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6813,7 +6833,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -7018,7 +7038,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -7033,7 +7053,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="76"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -7149,7 +7169,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7164,7 +7184,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7240,7 +7260,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7255,7 +7275,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7268,7 +7288,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7283,7 +7303,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="74"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7401,7 +7421,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="73" t="s">
+      <c r="D24" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7416,7 +7436,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="74"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7522,7 +7542,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7537,7 +7557,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="74"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7749,7 +7769,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7764,7 +7784,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7882,7 +7902,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7897,7 +7917,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8015,7 +8035,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8030,7 +8050,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8148,7 +8168,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8163,7 +8183,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8373,7 +8393,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8388,7 +8408,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="77"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8506,7 +8526,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8521,7 +8541,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8639,7 +8659,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8654,7 +8674,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="74"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8772,7 +8792,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="73" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8787,7 +8807,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -8982,7 +9002,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -8997,7 +9017,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -9109,7 +9129,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -9124,7 +9144,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="77"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -9158,7 +9178,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9173,7 +9193,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9224,7 +9244,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9239,7 +9259,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9357,7 +9377,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9372,7 +9392,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="77"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9583,7 +9603,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9598,7 +9618,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="80"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9716,7 +9736,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9731,7 +9751,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="77"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9849,7 +9869,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9864,7 +9884,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="77"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9917,7 +9937,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9932,7 +9952,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9945,7 +9965,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9958,7 +9978,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9973,7 +9993,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="77"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -10091,7 +10111,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -10106,7 +10126,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="76"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A74281D-3390-40C4-B086-08185EDA20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E83264C-3F27-4339-BBD6-265ABC420D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="317">
   <si>
     <t>Task</t>
   </si>
@@ -1017,6 +1017,9 @@
   <si>
     <t>Kaisokku - Proposal PPT
 Penna - Proposal prepare</t>
+  </si>
+  <si>
+    <t>UI design</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1417,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2446,7 +2446,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2461,7 +2461,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2579,7 +2579,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2594,7 +2594,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2712,7 +2712,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2727,7 +2727,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="74"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2845,7 +2845,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2860,7 +2860,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3074,7 +3074,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3089,7 +3089,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3207,7 +3207,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3222,7 +3222,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3340,7 +3340,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3355,7 +3355,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3473,7 +3473,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3488,7 +3488,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3834,7 +3834,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3849,7 +3849,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3967,7 +3967,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3982,7 +3982,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4100,7 +4100,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4115,7 +4115,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="76"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4227,7 +4227,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4242,7 +4242,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="81"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4344,8 +4344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4392,7 +4392,7 @@
       <c r="C2" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>294</v>
       </c>
       <c r="E2" s="64">
@@ -4453,7 +4453,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4468,7 +4468,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="82"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4580,7 +4580,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4595,7 +4595,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="76"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4713,7 +4713,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4728,7 +4728,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="76"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4788,7 +4788,7 @@
       <c r="D23" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="E23" s="71" t="s">
+      <c r="E23" s="70" t="s">
         <v>313</v>
       </c>
       <c r="F23" s="54" t="s">
@@ -4846,7 +4846,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4861,7 +4861,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="76"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -4915,10 +4915,18 @@
       <c r="B30" s="11">
         <v>44468</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16.2" customHeight="1">
@@ -5830,7 +5838,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5845,7 +5853,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5963,7 +5971,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5978,7 +5986,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -6090,7 +6098,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -6105,7 +6113,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6223,7 +6231,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6238,7 +6246,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="73"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6439,7 +6447,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6454,7 +6462,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6572,7 +6580,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="71" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6587,7 +6595,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6663,7 +6671,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6678,7 +6686,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="73"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6691,7 +6699,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6706,7 +6714,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6818,7 +6826,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6833,7 +6841,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="74"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -7038,7 +7046,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -7053,7 +7061,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -7169,7 +7177,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7184,7 +7192,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="75"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7260,7 +7268,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="71" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7275,7 +7283,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7288,7 +7296,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7303,7 +7311,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7421,7 +7429,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7436,7 +7444,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7542,7 +7550,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7557,7 +7565,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7769,7 +7777,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7784,7 +7792,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7902,7 +7910,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7917,7 +7925,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8035,7 +8043,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8050,7 +8058,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8168,7 +8176,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8183,7 +8191,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8393,7 +8401,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8408,7 +8416,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8526,7 +8534,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8541,7 +8549,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8659,7 +8667,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8674,7 +8682,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8792,7 +8800,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8807,7 +8815,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="74"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -9002,7 +9010,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -9017,7 +9025,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="75"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -9129,7 +9137,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -9144,7 +9152,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -9178,7 +9186,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9193,7 +9201,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9244,7 +9252,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9259,7 +9267,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9377,7 +9385,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9392,7 +9400,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9603,7 +9611,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9618,7 +9626,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="79"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9736,7 +9744,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9751,7 +9759,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9869,7 +9877,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="73" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9884,7 +9892,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="76"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9937,7 +9945,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="73" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9952,7 +9960,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="77"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9965,7 +9973,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9978,7 +9986,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9993,7 +10001,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="76"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -10111,7 +10119,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="71" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -10126,7 +10134,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="75"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E83264C-3F27-4339-BBD6-265ABC420D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54328C75-1810-4A50-85F1-C7FD8D35C6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="317">
   <si>
     <t>Task</t>
   </si>
@@ -938,9 +938,6 @@
     <t>Mja - Screening questionare Design</t>
   </si>
   <si>
-    <t>2021/09/31</t>
-  </si>
-  <si>
     <t>MJA, PENNA</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>UI design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM - new requirement. Muji discussion </t>
   </si>
 </sst>
 </file>
@@ -4342,10 +4342,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4390,10 +4390,10 @@
         <v>44440</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E2" s="64">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>254</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="64">
         <v>1</v>
@@ -4432,10 +4432,10 @@
         <v>44442</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="65" t="s">
         <v>295</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>296</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -4481,10 +4481,10 @@
         <v>44445</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>297</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>298</v>
       </c>
       <c r="E7" s="12">
         <v>1</v>
@@ -4502,10 +4502,10 @@
         <v>44446</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="12">
         <v>1</v>
@@ -4523,10 +4523,10 @@
         <v>44447</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -4544,10 +4544,10 @@
         <v>44448</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="50" t="s">
         <v>303</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>304</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
@@ -4608,10 +4608,10 @@
         <v>44452</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="48" t="s">
         <v>301</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>302</v>
       </c>
       <c r="E14" s="12">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>254</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" s="12">
         <v>0.3</v>
@@ -4653,7 +4653,7 @@
         <v>254</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E16" s="12">
         <v>0.4</v>
@@ -4674,7 +4674,7 @@
         <v>254</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E17" s="12">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>254</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E18" s="12">
         <v>1</v>
@@ -4744,7 +4744,7 @@
         <v>288</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E21" s="12">
         <v>0.4</v>
@@ -4762,10 +4762,10 @@
         <v>44460</v>
       </c>
       <c r="C22" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>309</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>310</v>
       </c>
       <c r="E22" s="12">
         <v>0.3</v>
@@ -4783,13 +4783,13 @@
         <v>44461</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D23" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" s="70" t="s">
         <v>312</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>313</v>
       </c>
       <c r="F23" s="54" t="s">
         <v>5</v>
@@ -4804,10 +4804,10 @@
         <v>44462</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="12">
         <v>0.85</v>
@@ -4825,10 +4825,10 @@
         <v>44463</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -4874,10 +4874,10 @@
         <v>44466</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>314</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>315</v>
       </c>
       <c r="E28" s="12">
         <v>0.6</v>
@@ -4895,10 +4895,10 @@
         <v>44467</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>314</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>315</v>
       </c>
       <c r="E29" s="12">
         <v>1</v>
@@ -4916,10 +4916,10 @@
         <v>44468</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E30" s="12">
         <v>0.2</v>
@@ -4936,61 +4936,56 @@
       <c r="B31" s="11">
         <v>44469</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="C34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="5"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6"/>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="8"/>
-      <c r="C38" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54328C75-1810-4A50-85F1-C7FD8D35C6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211038A3-8AEF-49DD-9C71-9C76537466E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="JULY-2021" sheetId="28" r:id="rId11"/>
     <sheet name="AUG-2021 " sheetId="29" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
+    <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="323">
   <si>
     <t>Task</t>
   </si>
@@ -1020,6 +1021,25 @@
   </si>
   <si>
     <t xml:space="preserve">MOM - new requirement. Muji discussion </t>
+  </si>
+  <si>
+    <t>Planned Leave</t>
+  </si>
+  <si>
+    <t>Kaisokku-RPA doc created.Coordinate meeting</t>
+  </si>
+  <si>
+    <t>Kaisokku,Muji</t>
+  </si>
+  <si>
+    <t>1)Kaisokku-images searched for RPA
+2)Design Document</t>
+  </si>
+  <si>
+    <t>kaisokku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI design- changes </t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1427,6 +1447,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1459,6 +1482,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2446,7 +2475,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2461,7 +2490,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="75"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2579,7 +2608,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2594,7 +2623,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="75"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2712,7 +2741,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2727,7 +2756,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="74"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2845,7 +2874,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2860,7 +2889,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3074,7 +3103,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3089,7 +3118,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3207,7 +3236,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3222,7 +3251,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="75"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3340,7 +3369,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3355,7 +3384,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="75"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3473,7 +3502,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3488,7 +3517,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="75"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3834,7 +3863,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3849,7 +3878,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="79"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3967,7 +3996,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -3982,7 +4011,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="75"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4100,7 +4129,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4115,7 +4144,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="75"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4227,7 +4256,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4242,7 +4271,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="80"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4344,7 +4373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6EFC69-F9D9-4878-B9C4-64BCF591B08E}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -4453,7 +4482,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4468,7 +4497,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="81"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4580,7 +4609,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4595,7 +4624,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="75"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4713,7 +4742,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4728,7 +4757,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="75"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4846,7 +4875,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4861,7 +4890,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="75"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -4995,6 +5024,546 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588A858D-26B0-4307-9B6C-69745CBEDE84}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44470</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44471</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44472</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44473</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44474</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="64"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44475</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44476</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44478</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44479</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44480</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44482</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44484</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44485</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44486</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44488</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44490</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44491</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44492</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44493</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44494</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44495</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44496</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44498</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44499</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44500</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5833,7 +6402,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -5848,7 +6417,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="72"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -5966,7 +6535,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -5981,7 +6550,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -6093,7 +6662,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -6108,7 +6677,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="72"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6226,7 +6795,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6241,7 +6810,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="72"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -6442,7 +7011,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -6457,7 +7026,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -6575,7 +7144,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -6590,7 +7159,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -6666,7 +7235,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -6681,7 +7250,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="72"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -6694,7 +7263,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -6709,7 +7278,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -6821,7 +7390,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -6836,7 +7405,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="74"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -7041,7 +7610,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -7056,7 +7625,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -7172,7 +7741,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7187,7 +7756,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="74"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7263,7 +7832,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7278,7 +7847,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="72"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7291,7 +7860,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7306,7 +7875,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7424,7 +7993,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -7439,7 +8008,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="72"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -7545,7 +8114,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -7560,7 +8129,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="72"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -7772,7 +8341,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -7787,7 +8356,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -7905,7 +8474,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -7920,7 +8489,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8038,7 +8607,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8053,7 +8622,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8171,7 +8740,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8186,7 +8755,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="72"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8396,7 +8965,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8411,7 +8980,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8529,7 +9098,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8544,7 +9113,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8662,7 +9231,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8677,7 +9246,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8795,7 +9364,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8810,7 +9379,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="74"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -9005,7 +9574,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -9020,7 +9589,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -9132,7 +9701,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -9147,7 +9716,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="75"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -9181,7 +9750,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="72" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9196,7 +9765,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="74"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9247,7 +9816,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9262,7 +9831,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="75"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9380,7 +9949,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9395,7 +9964,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="75"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -9606,7 +10175,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -9621,7 +10190,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -9739,7 +10308,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -9754,7 +10323,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="75"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -9872,7 +10441,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="74" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -9887,7 +10456,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="75"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -9940,7 +10509,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="74" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -9955,7 +10524,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -9968,7 +10537,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -9981,7 +10550,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -9996,7 +10565,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="75"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -10114,7 +10683,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="72" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -10129,7 +10698,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="74"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211038A3-8AEF-49DD-9C71-9C76537466E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853EF04-94DC-4C17-A69A-48F9B9A98207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="AUG-2021 " sheetId="29" r:id="rId12"/>
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
+    <sheet name="NOV-2021" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="330">
   <si>
     <t>Task</t>
   </si>
@@ -1040,6 +1041,28 @@
   </si>
   <si>
     <t xml:space="preserve">UI design- changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJA </t>
+  </si>
+  <si>
+    <t>Super Admin layout screen</t>
+  </si>
+  <si>
+    <t>Middleware Demo html screen created</t>
+  </si>
+  <si>
+    <t>1)Penna Proposal Modified
+2) Kaisokku Images serached</t>
+  </si>
+  <si>
+    <t>Penna,Kaisokku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muji </t>
+  </si>
+  <si>
+    <t>Design Document verified</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1450,6 +1473,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1485,9 +1517,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2475,7 +2504,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2490,7 +2519,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2608,7 +2637,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2623,7 +2652,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2741,7 +2770,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2756,7 +2785,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2874,7 +2903,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2889,7 +2918,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3103,7 +3132,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3118,7 +3147,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3236,7 +3265,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3251,7 +3280,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3369,7 +3398,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3384,7 +3413,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3502,7 +3531,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3517,7 +3546,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3863,7 +3892,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3878,7 +3907,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="80"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -3996,7 +4025,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4011,7 +4040,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4129,7 +4158,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4144,7 +4173,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="76"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4256,7 +4285,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4271,7 +4300,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="81"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4482,7 +4511,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4497,7 +4526,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="82"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4609,7 +4638,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4624,7 +4653,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="76"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4742,7 +4771,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4757,7 +4786,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="76"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4875,7 +4904,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4890,7 +4919,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="76"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5035,7 +5064,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5101,7 +5130,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5116,7 +5145,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="83"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5228,7 +5257,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5243,7 +5272,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="76"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5255,23 +5284,39 @@
       <c r="B12" s="11">
         <v>44480</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="11">
         <v>44481</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -5281,10 +5326,18 @@
       <c r="B14" s="11">
         <v>44482</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -5295,7 +5348,9 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="75" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -5308,7 +5363,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5321,7 +5376,9 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="56"/>
       <c r="G17" s="1"/>
@@ -5334,7 +5391,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5346,10 +5403,18 @@
       <c r="B19" s="11">
         <v>44487</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -5438,7 +5503,7 @@
         <v>44494</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="84"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -5561,10 +5626,502 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAB64D6-6CE0-4B85-BB1C-8E40E9266D4C}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44470</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44471</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44472</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44473</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44474</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44475</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44476</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44478</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44479</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44480</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44482</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44484</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44485</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44486</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44488</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44489</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44490</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44491</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44492</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44493</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44494</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44495</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44496</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44498</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44499</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44500</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="5"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5574,7 +6131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:G32"/>
     </sheetView>
   </sheetViews>
@@ -6402,7 +6959,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -6417,7 +6974,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="73"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -6535,7 +7092,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -6550,7 +7107,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -6662,7 +7219,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -6677,7 +7234,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="73"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -6795,7 +7352,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -6810,7 +7367,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="73"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -7011,7 +7568,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -7026,7 +7583,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="73"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -7144,7 +7701,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -7159,7 +7716,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="73"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -7235,7 +7792,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="75" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -7250,7 +7807,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="73"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -7263,7 +7820,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -7278,7 +7835,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="73"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -7390,7 +7947,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -7405,7 +7962,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -7610,7 +8167,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -7625,7 +8182,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="75"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -7741,7 +8298,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -7756,7 +8313,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="75"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -7832,7 +8389,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -7847,7 +8404,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="73"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -7860,7 +8417,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -7875,7 +8432,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="73"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -7993,7 +8550,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -8008,7 +8565,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="73"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -8114,7 +8671,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -8129,7 +8686,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="73"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -8341,7 +8898,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8356,7 +8913,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -8474,7 +9031,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -8489,7 +9046,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -8607,7 +9164,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -8622,7 +9179,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -8740,7 +9297,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -8755,7 +9312,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="73"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -8965,7 +9522,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -8980,7 +9537,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9098,7 +9655,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9113,7 +9670,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="77"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9231,7 +9788,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -9246,7 +9803,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="73"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -9364,7 +9921,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -9379,7 +9936,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="75"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -9574,7 +10131,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -9589,7 +10146,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="75"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -9701,7 +10258,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -9716,7 +10273,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -9750,7 +10307,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -9765,7 +10322,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9816,7 +10373,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -9831,7 +10388,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -9949,7 +10506,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -9964,7 +10521,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="76"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -10175,7 +10732,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -10190,7 +10747,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="79"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10308,7 +10865,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -10323,7 +10880,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -10441,7 +10998,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -10456,7 +11013,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="76"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -10509,7 +11066,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="77" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -10524,7 +11081,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="77"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -10537,7 +11094,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -10550,7 +11107,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -10565,7 +11122,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="76"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -10683,7 +11240,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="72" t="s">
+      <c r="D30" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -10698,7 +11255,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="75"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9853EF04-94DC-4C17-A69A-48F9B9A98207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3099A-99CC-4923-B25B-E5770523275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="331">
   <si>
     <t>Task</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>Design Document verified</t>
+  </si>
+  <si>
+    <t>Middleware Demo -Ui design created , User Manula created for demo</t>
   </si>
 </sst>
 </file>
@@ -5063,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588A858D-26B0-4307-9B6C-69745CBEDE84}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5417,17 +5420,25 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="28.8">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="11">
         <v>44488</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C3099A-99CC-4923-B25B-E5770523275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB36DD-0E06-41E8-94C7-BE4D7B22D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="332">
   <si>
     <t>Task</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>Middleware Demo -Ui design created , User Manula created for demo</t>
+  </si>
+  <si>
+    <t>Clinker Test Certificate - View changes</t>
   </si>
 </sst>
 </file>
@@ -5067,7 +5070,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F20"/>
+      <selection activeCell="E20" sqref="E20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5448,10 +5451,18 @@
       <c r="B21" s="11">
         <v>44489</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDB36DD-0E06-41E8-94C7-BE4D7B22D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E7210-92CB-40DC-A68D-04E2699CEA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="333">
   <si>
     <t>Task</t>
   </si>
@@ -1069,6 +1069,10 @@
   </si>
   <si>
     <t>Clinker Test Certificate - View changes</t>
+  </si>
+  <si>
+    <t>1)Penna FollowUps , Issue Tracker updated
+2) Kaisokku Front End</t>
   </si>
 </sst>
 </file>
@@ -5070,7 +5074,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:F21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5465,17 +5469,25 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44490</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -5499,7 +5511,9 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="56"/>
       <c r="G24" s="1"/>
@@ -5512,7 +5526,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5648,11 +5662,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E7210-92CB-40DC-A68D-04E2699CEA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665285D-BF7C-4291-884C-00C362287CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="335">
   <si>
     <t>Task</t>
   </si>
@@ -1073,6 +1073,13 @@
   <si>
     <t>1)Penna FollowUps , Issue Tracker updated
 2) Kaisokku Front End</t>
+  </si>
+  <si>
+    <t>Penna - Issue Tracker Updated, CronJob and Error Log Monitoring tracker created
+MJA - Proposal created for Android and IOS version</t>
+  </si>
+  <si>
+    <t>Penna,MJA</t>
   </si>
 </sst>
 </file>
@@ -5073,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588A858D-26B0-4307-9B6C-69745CBEDE84}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5490,17 +5497,25 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="43.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44491</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" customHeight="1">
@@ -5538,10 +5553,10 @@
       <c r="B26" s="11">
         <v>44494</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665285D-BF7C-4291-884C-00C362287CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85366D-A59E-45DD-B5BF-80D51AC06943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="339">
   <si>
     <t>Task</t>
   </si>
@@ -1080,6 +1080,18 @@
   </si>
   <si>
     <t>Penna,MJA</t>
+  </si>
+  <si>
+    <t>Penna - Issue Tracker Updated, CronJob and Error Log Monitoring tracker created for Invoice</t>
+  </si>
+  <si>
+    <t>Signin Ui design</t>
+  </si>
+  <si>
+    <t>Signin UP design</t>
+  </si>
+  <si>
+    <t>Contact Ui design, Penna followup</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1534,6 +1546,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5081,7 +5096,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5546,17 +5561,25 @@
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="28.8">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="11">
         <v>44494</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -5566,10 +5589,18 @@
       <c r="B27" s="11">
         <v>44495</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -5579,10 +5610,18 @@
       <c r="B28" s="11">
         <v>44496</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -5592,10 +5631,18 @@
       <c r="B29" s="11">
         <v>44497</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -5619,7 +5666,9 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="50"/>
+      <c r="D31" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="56"/>
       <c r="G31" s="1"/>
@@ -5632,7 +5681,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="50"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -5677,7 +5726,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D15:D16"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85366D-A59E-45DD-B5BF-80D51AC06943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC396FFD-C2D4-4D2E-91E1-416D488C6C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2976" yWindow="1092" windowWidth="20064" windowHeight="11268" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="345">
   <si>
     <t>Task</t>
   </si>
@@ -1092,6 +1092,24 @@
   </si>
   <si>
     <t>Contact Ui design, Penna followup</t>
+  </si>
+  <si>
+    <t>Home page issues checked. MJA , Penna followup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Home page design issues  2) Diwali wishes Design created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page design issues  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soruce Code Migration Tracker Created</t>
+  </si>
+  <si>
+    <t>Diwali Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soruce Code Migration Tracker Updates, Penna Followups</t>
   </si>
 </sst>
 </file>
@@ -1511,6 +1529,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,9 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2536,7 +2554,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2551,7 +2569,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="79"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2669,7 +2687,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2684,7 +2702,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2802,7 +2820,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2817,7 +2835,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2935,7 +2953,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2950,7 +2968,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="79"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3164,7 +3182,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3179,7 +3197,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3297,7 +3315,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3312,7 +3330,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3430,7 +3448,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3445,7 +3463,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="79"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3563,7 +3581,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3578,7 +3596,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3924,7 +3942,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3939,7 +3957,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4057,7 +4075,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4072,7 +4090,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4190,7 +4208,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4205,7 +4223,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4317,7 +4335,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4332,7 +4350,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4543,7 +4561,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="82" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4558,7 +4576,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4670,7 +4688,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4685,7 +4703,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="79"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4803,7 +4821,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4818,7 +4836,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="79"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4936,7 +4954,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4951,7 +4969,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5095,15 +5113,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588A858D-26B0-4307-9B6C-69745CBEDE84}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="43.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -5162,7 +5180,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5177,7 +5195,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="86"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5289,7 +5307,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5304,7 +5322,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5380,7 +5398,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5395,7 +5413,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5408,7 +5426,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5423,7 +5441,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5541,7 +5559,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5556,7 +5574,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5571,7 +5589,7 @@
       <c r="C26" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="75" t="s">
         <v>335</v>
       </c>
       <c r="E26" s="12">
@@ -5652,10 +5670,18 @@
       <c r="B30" s="11">
         <v>44498</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16.2" customHeight="1">
@@ -5666,7 +5692,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5681,7 +5707,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="79"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -5741,10 +5767,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAB64D6-6CE0-4B85-BB1C-8E40E9266D4C}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5752,10 +5778,10 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5781,17 +5807,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>44470</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="56"/>
+        <v>44501</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1">
@@ -5799,12 +5833,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <v>44471</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="56"/>
+        <v>44502</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -5812,12 +5854,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <v>44472</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="56"/>
+        <v>44503</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -5825,10 +5875,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>44473</v>
+        <v>44504</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="48"/>
+      <c r="D5" s="34" t="s">
+        <v>343</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -5838,10 +5890,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44474</v>
+        <v>44505</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="72"/>
+      <c r="D6" s="72" t="s">
+        <v>317</v>
+      </c>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5851,10 +5905,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <v>44475</v>
+        <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="65"/>
+      <c r="D7" s="76" t="s">
+        <v>112</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -5864,10 +5920,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <v>44476</v>
+        <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="48"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -5877,12 +5933,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>44477</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="56"/>
+        <v>44508</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -5890,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <v>44478</v>
+        <v>44509</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="73"/>
@@ -5903,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <v>44479</v>
+        <v>44510</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="53"/>
@@ -5916,7 +5980,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11">
-        <v>44480</v>
+        <v>44511</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="73"/>
@@ -5929,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11">
-        <v>44481</v>
+        <v>44512</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="48"/>
@@ -5942,7 +6006,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11">
-        <v>44482</v>
+        <v>44513</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="48"/>
@@ -5955,7 +6019,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11">
-        <v>44483</v>
+        <v>44514</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="48"/>
@@ -5968,7 +6032,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11">
-        <v>44484</v>
+        <v>44515</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="48"/>
@@ -5981,7 +6045,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11">
-        <v>44485</v>
+        <v>44516</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="48"/>
@@ -5994,7 +6058,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11">
-        <v>44486</v>
+        <v>44517</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="48"/>
@@ -6007,7 +6071,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11">
-        <v>44487</v>
+        <v>44518</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="73"/>
@@ -6020,7 +6084,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11">
-        <v>44488</v>
+        <v>44519</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="48"/>
@@ -6033,7 +6097,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11">
-        <v>44489</v>
+        <v>44520</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="48"/>
@@ -6046,7 +6110,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11">
-        <v>44490</v>
+        <v>44521</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="48"/>
@@ -6059,7 +6123,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="48"/>
@@ -6072,7 +6136,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11">
-        <v>44492</v>
+        <v>44523</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="48"/>
@@ -6085,7 +6149,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11">
-        <v>44493</v>
+        <v>44524</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="48"/>
@@ -6098,7 +6162,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11">
-        <v>44494</v>
+        <v>44525</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="73"/>
@@ -6111,7 +6175,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11">
-        <v>44495</v>
+        <v>44526</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="48"/>
@@ -6124,7 +6188,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11">
-        <v>44496</v>
+        <v>44527</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="48"/>
@@ -6137,7 +6201,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11">
-        <v>44497</v>
+        <v>44528</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="48"/>
@@ -6150,7 +6214,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>44498</v>
+        <v>44529</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="48"/>
@@ -6163,7 +6227,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <v>44499</v>
+        <v>44530</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="50"/>
@@ -6171,59 +6235,49 @@
       <c r="F31" s="56"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="16.2" customHeight="1">
-      <c r="A32" s="10">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>44500</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="C34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="62"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="B35" s="5"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="5"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6"/>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="B36" s="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" s="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" s="8"/>
-      <c r="C38" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7061,7 +7115,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -7076,7 +7130,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -7194,7 +7248,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -7209,7 +7263,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -7321,7 +7375,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -7336,7 +7390,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -7454,7 +7508,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -7469,7 +7523,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -7670,7 +7724,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -7685,7 +7739,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -7803,7 +7857,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -7818,7 +7872,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -7894,7 +7948,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -7909,7 +7963,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -7922,7 +7976,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -7937,7 +7991,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -8049,7 +8103,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -8064,7 +8118,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -8269,7 +8323,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -8284,7 +8338,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -8400,7 +8454,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -8415,7 +8469,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -8491,7 +8545,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -8506,7 +8560,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -8519,7 +8573,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -8534,7 +8588,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -8652,7 +8706,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -8667,7 +8721,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -8773,7 +8827,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -8788,7 +8842,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -9000,7 +9054,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9015,7 +9069,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9133,7 +9187,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9148,7 +9202,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9266,7 +9320,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -9281,7 +9335,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -9399,7 +9453,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -9414,7 +9468,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -9624,7 +9678,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9639,7 +9693,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9757,7 +9811,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9772,7 +9826,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9890,7 +9944,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -9905,7 +9959,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -10023,7 +10077,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -10038,7 +10092,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -10233,7 +10287,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -10248,7 +10302,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -10360,7 +10414,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -10375,7 +10429,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -10409,7 +10463,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -10424,7 +10478,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10475,7 +10529,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -10490,7 +10544,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="79"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -10608,7 +10662,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -10623,7 +10677,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -10834,7 +10888,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -10849,7 +10903,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10967,7 +11021,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -10982,7 +11036,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="79"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -11100,7 +11154,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -11115,7 +11169,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -11168,7 +11222,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -11183,7 +11237,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -11196,7 +11250,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -11209,7 +11263,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -11224,7 +11278,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="79"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -11342,7 +11396,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -11357,7 +11411,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC396FFD-C2D4-4D2E-91E1-416D488C6C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193DF61C-0B1A-4FA3-8919-A04533FACFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="1092" windowWidth="20064" windowHeight="11268" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="192" windowWidth="20064" windowHeight="11268" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="347">
   <si>
     <t>Task</t>
   </si>
@@ -1110,6 +1110,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Soruce Code Migration Tracker Updates, Penna Followups</t>
+  </si>
+  <si>
+    <t>Kaisokku, Penna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaisokku- Design issue, Penna- Followups </t>
   </si>
 </sst>
 </file>
@@ -5770,7 +5776,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5778,7 +5784,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
@@ -5807,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="31.2" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5956,10 +5962,18 @@
       <c r="B10" s="11">
         <v>44509</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193DF61C-0B1A-4FA3-8919-A04533FACFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE5311-90BB-4C0B-A53F-F298C700BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="192" windowWidth="20064" windowHeight="11268" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="349">
   <si>
     <t>Task</t>
   </si>
@@ -1116,6 +1116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kaisokku- Design issue, Penna- Followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FollowUps, Migration Tracker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migration Tracker Timeline filled </t>
   </si>
 </sst>
 </file>
@@ -5776,7 +5782,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5934,7 +5940,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -5983,10 +5989,18 @@
       <c r="B11" s="11">
         <v>44510</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -5996,10 +6010,18 @@
       <c r="B12" s="11">
         <v>44511</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -6009,10 +6031,18 @@
       <c r="B13" s="11">
         <v>44512</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -6023,7 +6053,9 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="76" t="s">
+        <v>112</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -6036,7 +6068,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6048,10 +6080,18 @@
       <c r="B16" s="11">
         <v>44515</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>348</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -6289,8 +6329,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DE5311-90BB-4C0B-A53F-F298C700BF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F09339-03F7-4410-BD69-6A15563537EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="351">
   <si>
     <t>Task</t>
   </si>
@@ -1122,6 +1122,12 @@
   </si>
   <si>
     <t xml:space="preserve">Migration Tracker Timeline filled </t>
+  </si>
+  <si>
+    <t>List of Projects PPT created with Bricks</t>
+  </si>
+  <si>
+    <t>TechMahendra</t>
   </si>
 </sst>
 </file>
@@ -5782,7 +5788,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6101,10 +6107,18 @@
       <c r="B17" s="11">
         <v>44516</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>349</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F09339-03F7-4410-BD69-6A15563537EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFEFFD-314F-4B09-B7D1-4D8B6CC9084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="359">
   <si>
     <t>Task</t>
   </si>
@@ -1127,7 +1127,31 @@
     <t>List of Projects PPT created with Bricks</t>
   </si>
   <si>
-    <t>TechMahendra</t>
+    <t>Followups, Coordinations</t>
+  </si>
+  <si>
+    <t>TechMahindra</t>
+  </si>
+  <si>
+    <t>Followups, Kaisokku- listed in Doc- Logo Fontsize</t>
+  </si>
+  <si>
+    <t>Video system,Penna</t>
+  </si>
+  <si>
+    <t>Requirement Gathering Document</t>
+  </si>
+  <si>
+    <t>Video Distribution System- Requirement Gathering Document. Penna- Coordinations</t>
+  </si>
+  <si>
+    <t>Video Distribution System- Requirement Gathering Document. Penna- Coordinations, Updated Invoice Doc</t>
+  </si>
+  <si>
+    <t>MJA,Penna</t>
+  </si>
+  <si>
+    <t>Mja tracker with ETA for Admin and  updated WBS tracker, Penna - Coordinate for Migration server</t>
   </si>
 </sst>
 </file>
@@ -1541,9 +1565,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1586,6 +1607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2572,7 +2594,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2587,7 +2609,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="80"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2705,7 +2727,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2720,7 +2742,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="80"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2838,7 +2860,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2853,7 +2875,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="79"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2971,7 +2993,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -2986,7 +3008,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="80"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3200,7 +3222,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3215,7 +3237,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="80"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3333,7 +3355,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3348,7 +3370,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3466,7 +3488,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3481,7 +3503,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="80"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3599,7 +3621,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3614,7 +3636,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3960,7 +3982,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3975,7 +3997,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="84"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4093,7 +4115,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4108,7 +4130,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4226,7 +4248,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4241,7 +4263,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="80"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4353,7 +4375,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4368,7 +4390,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="85"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4579,7 +4601,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4594,7 +4616,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4706,7 +4728,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4721,7 +4743,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="80"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4839,7 +4861,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4854,7 +4876,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="80"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4972,7 +4994,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -4987,7 +5009,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="80"/>
+      <c r="D27" s="79"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5198,7 +5220,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5213,7 +5235,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="87"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5325,7 +5347,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5340,7 +5362,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="80"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5416,7 +5438,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5431,7 +5453,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="79"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5444,7 +5466,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5459,7 +5481,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="79"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5577,7 +5599,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5592,7 +5614,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="80"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5607,7 +5629,7 @@
       <c r="C26" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="74" t="s">
         <v>335</v>
       </c>
       <c r="E26" s="12">
@@ -5710,7 +5732,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5725,7 +5747,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="80"/>
+      <c r="D32" s="79"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -5787,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAB64D6-6CE0-4B85-BB1C-8E40E9266D4C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5877,7 +5899,7 @@
       <c r="C4" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="73" t="s">
         <v>342</v>
       </c>
       <c r="E4" s="12">
@@ -5926,7 +5948,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5941,7 +5963,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="87"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6059,7 +6081,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6074,7 +6096,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6108,7 +6130,7 @@
         <v>44516</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>349</v>
@@ -6128,10 +6150,18 @@
       <c r="B18" s="11">
         <v>44517</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6141,10 +6171,18 @@
       <c r="B19" s="11">
         <v>44518</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -6154,10 +6192,18 @@
       <c r="B20" s="11">
         <v>44519</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -6168,7 +6214,9 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="56"/>
       <c r="G21" s="1"/>
@@ -6181,35 +6229,51 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44522</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="16.8" customHeight="1">
+    <row r="24" spans="1:7" ht="43.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="11">
         <v>44523</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -6220,7 +6284,9 @@
         <v>44524</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="34" t="s">
+        <v>317</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6232,23 +6298,39 @@
       <c r="B26" s="11">
         <v>44525</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="28.8">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="11">
         <v>44526</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -6259,7 +6341,9 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="75" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -6272,7 +6356,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6284,10 +6368,18 @@
       <c r="B30" s="11">
         <v>44529</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16.2" customHeight="1">
@@ -6319,7 +6411,7 @@
       <c r="F33" s="62"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5"/>
+      <c r="B34" s="87"/>
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6343,9 +6435,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7184,7 +7278,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -7199,7 +7293,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -7317,7 +7411,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -7332,7 +7426,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -7444,7 +7538,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -7459,7 +7553,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -7577,7 +7671,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -7592,7 +7686,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="77"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -7793,7 +7887,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -7808,7 +7902,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -7926,7 +8020,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -7941,7 +8035,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="77"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -8017,7 +8111,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -8032,7 +8126,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -8045,7 +8139,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -8060,7 +8154,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="77"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -8172,7 +8266,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -8187,7 +8281,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="79"/>
+      <c r="D28" s="78"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -8392,7 +8486,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -8407,7 +8501,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="79"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -8523,7 +8617,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -8538,7 +8632,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="79"/>
+      <c r="D11" s="78"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -8614,7 +8708,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -8629,7 +8723,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -8642,7 +8736,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -8657,7 +8751,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="77"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -8775,7 +8869,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -8790,7 +8884,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="77"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -8896,7 +8990,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -8911,7 +9005,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="77"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -9123,7 +9217,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9138,7 +9232,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="80"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9256,7 +9350,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9271,7 +9365,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9389,7 +9483,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -9404,7 +9498,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -9522,7 +9616,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -9537,7 +9631,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="77"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -9747,7 +9841,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9762,7 +9856,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="80"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9880,7 +9974,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9895,7 +9989,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10013,7 +10107,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -10028,7 +10122,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -10146,7 +10240,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -10161,7 +10255,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -10356,7 +10450,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -10371,7 +10465,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -10483,7 +10577,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -10498,7 +10592,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -10532,7 +10626,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -10547,7 +10641,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="79"/>
+      <c r="D15" s="78"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10598,7 +10692,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -10613,7 +10707,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="80"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -10731,7 +10825,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -10746,7 +10840,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="79"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -10957,7 +11051,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -10972,7 +11066,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="83"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11090,7 +11184,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -11105,7 +11199,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="80"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -11223,7 +11317,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -11238,7 +11332,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="80"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -11291,7 +11385,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="77" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -11306,7 +11400,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="81"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -11319,7 +11413,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="80"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -11332,7 +11426,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -11347,7 +11441,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="80"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -11465,7 +11559,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -11480,7 +11574,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="79"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFEFFD-314F-4B09-B7D1-4D8B6CC9084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B347EB-8FA2-4F5A-A3E1-62935B48A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,18 +28,28 @@
     <sheet name="SEP-2021" sheetId="30" r:id="rId13"/>
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
     <sheet name="NOV-2021" sheetId="32" r:id="rId15"/>
+    <sheet name="DEC-2021" sheetId="33" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="365">
   <si>
     <t>Task</t>
   </si>
@@ -1152,6 +1162,29 @@
   </si>
   <si>
     <t>Mja tracker with ETA for Admin and  updated WBS tracker, Penna - Coordinate for Migration server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Followups, Coordinations </t>
+  </si>
+  <si>
+    <t>Kyojin
+Challenger</t>
+  </si>
+  <si>
+    <t>Kyojin - Brochure created
+Challenger - Starshield - app timeline
+Penna - Followups</t>
+  </si>
+  <si>
+    <t>Penna
+Challenger</t>
+  </si>
+  <si>
+    <t>Challenger - Starshield - app timeline - Gantt chart
+Penna - Followups</t>
+  </si>
+  <si>
+    <t>WeekOff</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1368,6 +1401,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1375,7 +1423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1571,6 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1607,7 +1656,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,6 +1666,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4ADAC2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2594,7 +2650,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2609,7 +2665,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="79"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2727,7 +2783,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2742,7 +2798,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="79"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2860,7 +2916,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2875,7 +2931,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="78"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -2993,7 +3049,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3008,7 +3064,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="79"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3222,7 +3278,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3237,7 +3293,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3355,7 +3411,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3370,7 +3426,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3488,7 +3544,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3503,7 +3559,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="79"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3621,7 +3677,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3636,7 +3692,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -3982,7 +4038,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -3997,7 +4053,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="83"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4115,7 +4171,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4130,7 +4186,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4248,7 +4304,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4263,7 +4319,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4375,7 +4431,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4390,7 +4446,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="84"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4601,7 +4657,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="82" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4616,7 +4672,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="85"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4728,7 +4784,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4743,7 +4799,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="79"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4861,7 +4917,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4876,7 +4932,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="79"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -4994,7 +5050,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5009,7 +5065,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5220,7 +5276,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5235,7 +5291,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="86"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5347,7 +5403,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5362,7 +5418,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="79"/>
+      <c r="D11" s="80"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5438,7 +5494,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5453,7 +5509,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="78"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5466,7 +5522,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5481,7 +5537,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5599,7 +5655,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5614,7 +5670,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5732,7 +5788,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5747,7 +5803,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="79"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -5809,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBAB64D6-6CE0-4B85-BB1C-8E40E9266D4C}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5948,7 +6004,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -5963,7 +6019,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="86"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6081,7 +6137,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6096,7 +6152,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="79"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6214,7 +6270,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6229,7 +6285,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6341,7 +6397,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6356,7 +6412,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6389,10 +6445,18 @@
       <c r="B31" s="11">
         <v>44530</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -6411,7 +6475,7 @@
       <c r="F33" s="62"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="87"/>
+      <c r="B34" s="75"/>
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -6440,6 +6504,520 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D28:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93065489-5707-441F-8EE9-AAAA1054860E}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="44.4" customHeight="1">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44531</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44532</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44533</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44534</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="76" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44535</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44536</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44537</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44538</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44539</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44540</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44541</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44542</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44543</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44544</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44545</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44546</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44547</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44548</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44549</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44550</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44551</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <v>44552</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11">
+        <v>44553</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11">
+        <v>44554</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <v>44555</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11">
+        <v>44556</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44557</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44558</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44559</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.2" customHeight="1">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44560</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44561</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="75"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7278,7 +7856,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -7293,7 +7871,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="76"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -7411,7 +7989,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -7426,7 +8004,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -7538,7 +8116,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -7553,7 +8131,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="76"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -7671,7 +8249,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -7686,7 +8264,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="76"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -7887,7 +8465,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -7902,7 +8480,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -8020,7 +8598,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -8035,7 +8613,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -8111,7 +8689,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -8126,7 +8704,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="76"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -8139,7 +8717,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -8154,7 +8732,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -8266,7 +8844,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -8281,7 +8859,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="78"/>
+      <c r="D28" s="79"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -8486,7 +9064,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -8501,7 +9079,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -8617,7 +9195,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -8632,7 +9210,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -8708,7 +9286,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -8723,7 +9301,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="76"/>
+      <c r="D16" s="77"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -8736,7 +9314,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -8751,7 +9329,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -8869,7 +9447,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -8884,7 +9462,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -8990,7 +9568,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -9005,7 +9583,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="76"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -9217,7 +9795,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9232,7 +9810,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9350,7 +9928,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9365,7 +9943,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -9483,7 +10061,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -9498,7 +10076,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -9616,7 +10194,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -9631,7 +10209,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -9841,7 +10419,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9856,7 +10434,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="79"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -9974,7 +10552,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -9989,7 +10567,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10107,7 +10685,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -10122,7 +10700,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -10240,7 +10818,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -10255,7 +10833,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -10450,7 +11028,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -10465,7 +11043,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -10577,7 +11155,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -10592,7 +11170,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="79"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -10626,7 +11204,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -10641,7 +11219,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10692,7 +11270,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -10707,7 +11285,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="79"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -10825,7 +11403,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -10840,7 +11418,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="79"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -11051,7 +11629,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="82" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -11066,7 +11644,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11184,7 +11762,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -11199,7 +11777,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="79"/>
+      <c r="D10" s="80"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -11317,7 +11895,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="78" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -11332,7 +11910,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -11385,7 +11963,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="78" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -11400,7 +11978,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="80"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -11413,7 +11991,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -11426,7 +12004,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -11441,7 +12019,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="79"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -11559,7 +12137,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="76" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -11574,7 +12152,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B347EB-8FA2-4F5A-A3E1-62935B48A5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64EC91-AF40-44BC-A95A-2CE763AB67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="378">
   <si>
     <t>Task</t>
   </si>
@@ -1185,6 +1185,53 @@
   </si>
   <si>
     <t>WeekOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna
+</t>
+  </si>
+  <si>
+    <t>Penna - Followups, MRP New Project Meeting</t>
+  </si>
+  <si>
+    <t>Yearly Project report - Designed
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>Rever,Penna</t>
+  </si>
+  <si>
+    <t>GSS,Penna</t>
+  </si>
+  <si>
+    <t>Expiration- new project flow Document 
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>Starshield - EW add screens 
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>App, Penna</t>
+  </si>
+  <si>
+    <t>App,Penna</t>
+  </si>
+  <si>
+    <t>Starshield - EW add screens ,Invoice designed in Jasper
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>Yearly Project report - Designed
+Starshield - EW add screens 
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>MRP printing - Proposal
+Penna - Followups for Migration, MRP,Middleware</t>
+  </si>
+  <si>
+    <t>App,Penna,GSS</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1401,21 +1448,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1423,7 +1455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1655,9 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6515,15 +6544,15 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
@@ -6594,17 +6623,25 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="11">
         <v>44533</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="56"/>
+      <c r="C4" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -6635,69 +6672,109 @@
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="16.2" customHeight="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="28.8" customHeight="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="11">
         <v>44536</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="56"/>
+      <c r="C7" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="30.6" customHeight="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="11">
         <v>44537</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="11">
         <v>44538</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="11">
         <v>44539</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>44540</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="56"/>
+      <c r="C11" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1">
@@ -6708,7 +6785,9 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="76" t="s">
+        <v>364</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -6721,35 +6800,51 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="11">
         <v>44543</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="11">
         <v>44544</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="56"/>
+      <c r="C15" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -7014,10 +7109,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D14:D15"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64EC91-AF40-44BC-A95A-2CE763AB67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EFDC8F-B8AC-468B-9DD2-ABB445E0B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="OCT-2021" sheetId="31" r:id="rId14"/>
     <sheet name="NOV-2021" sheetId="32" r:id="rId15"/>
     <sheet name="DEC-2021" sheetId="33" r:id="rId16"/>
+    <sheet name="JAN-2022" sheetId="34" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="401">
   <si>
     <t>Task</t>
   </si>
@@ -1232,6 +1233,94 @@
   </si>
   <si>
     <t>App,Penna,GSS</t>
+  </si>
+  <si>
+    <t>App , Penna</t>
+  </si>
+  <si>
+    <t>UI working on CR 
+Penna Followup for Migration</t>
+  </si>
+  <si>
+    <t>Starshield - EW add screens (Pay after registration)
+Penna Followup for Migration</t>
+  </si>
+  <si>
+    <t>Starshield - EW add screens (Quickpay, Pay after registration)
+Penna Followup for Migration</t>
+  </si>
+  <si>
+    <t>Penna,App</t>
+  </si>
+  <si>
+    <t>MJA, Penna, App</t>
+  </si>
+  <si>
+    <t>MJA - Moduels listing
+Penna Followup</t>
+  </si>
+  <si>
+    <t>MJA - Moduels listing
+Penna Followup  
+B2B- UI working on CR</t>
+  </si>
+  <si>
+    <t>GSS - Yearly Reort created in Excel
+Penna Followup  
+B2B- UI working on CR</t>
+  </si>
+  <si>
+    <t>GSS, Penna, App</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MJA,Penna</t>
+  </si>
+  <si>
+    <t>New Year Greetings designed
+Penna Followup, Migration Tracker 
+MJA - Moduels listed, Assienged Task</t>
+  </si>
+  <si>
+    <t>Penna Followup, Migration Tracker 
+MJA - Jobseeker- Profile UI</t>
+  </si>
+  <si>
+    <t>MJA,Penna , App</t>
+  </si>
+  <si>
+    <t>Penna Followup, Migration Tracker 
+MJA - Moduels listed, Assienged Task</t>
+  </si>
+  <si>
+    <t>Penna Followup, Migration Tracker 
+MJA - Jobseeker- Profile UI
+B2B- UI - CR Done</t>
+  </si>
+  <si>
+    <t>Penna Followup Mails sent, Migration Tracker 
+MJA - Jobseeker- Profile UI</t>
+  </si>
+  <si>
+    <t>Penna Followups 
+MJA - Jobseeker- Profile UI</t>
+  </si>
+  <si>
+    <t>App Followups , Penna Followups
+MJA - Jobseeker- Profile UI</t>
+  </si>
+  <si>
+    <t>MJA, Penna,App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Followups 
+MJA - Jobseeker- Profile  Completion UI </t>
+  </si>
+  <si>
+    <t>Penna Migration report updated and Followups 
+MJA - Jobseeker- Jobs UI Design</t>
+  </si>
+  <si>
+    <t>MJA - 40%</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1384,6 +1473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1652,6 +1747,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1687,6 +1797,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2679,7 +2807,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2694,7 +2822,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="80"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -2812,7 +2940,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -2827,7 +2955,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="80"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -2945,7 +3073,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -2960,7 +3088,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="79"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3078,7 +3206,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3093,7 +3221,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="80"/>
+      <c r="D28" s="85"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3307,7 +3435,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3322,7 +3450,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="80"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3440,7 +3568,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3455,7 +3583,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3573,7 +3701,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3588,7 +3716,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="80"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3706,7 +3834,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3721,7 +3849,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4067,7 +4195,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4082,7 +4210,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="84"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4200,7 +4328,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4215,7 +4343,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="80"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4333,7 +4461,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4348,7 +4476,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="80"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4460,7 +4588,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4475,7 +4603,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="85"/>
+      <c r="D30" s="90"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4686,7 +4814,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4701,7 +4829,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="86"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -4813,7 +4941,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -4828,7 +4956,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="80"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -4946,7 +5074,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -4961,7 +5089,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="80"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5079,7 +5207,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5094,7 +5222,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="80"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5305,7 +5433,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5320,7 +5448,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="87"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5432,7 +5560,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5447,7 +5575,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="80"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5523,7 +5651,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="81" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5538,7 +5666,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="79"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5551,7 +5679,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5566,7 +5694,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="79"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5684,7 +5812,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5699,7 +5827,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="80"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -5817,7 +5945,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -5832,7 +5960,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="80"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6033,7 +6161,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6048,7 +6176,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="87"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6166,7 +6294,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6181,7 +6309,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="80"/>
+      <c r="D15" s="85"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6299,7 +6427,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6314,7 +6442,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="80"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6426,7 +6554,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6441,7 +6569,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="80"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6543,8 +6671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93065489-5707-441F-8EE9-AAAA1054860E}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6554,7 +6682,7 @@
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="48.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6652,7 +6780,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="81" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -6667,7 +6795,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="79"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -6735,7 +6863,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6785,7 +6913,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="81" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -6800,7 +6928,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="79"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -6847,43 +6975,67 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="28.8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="11">
         <v>44545</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="56"/>
+      <c r="C16" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="11">
         <v>44546</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="56"/>
+      <c r="C17" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="28.8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="11">
         <v>44547</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="56"/>
+      <c r="C18" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -6894,7 +7046,9 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="81" t="s">
+        <v>364</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -6907,74 +7061,114 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="11">
         <v>44550</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="11">
         <v>44551</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="11">
         <v>44552</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="43.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="11">
         <v>44553</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="56"/>
+      <c r="C24" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="11">
         <v>44554</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -6985,7 +7179,9 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="81" t="s">
+        <v>364</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -6998,74 +7194,114 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="48"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="43.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="11">
         <v>44557</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="11">
         <v>44558</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="12">
+        <v>1</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="11">
         <v>44559</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="E30" s="12">
+        <v>1</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="16.2" customHeight="1">
+    <row r="31" spans="1:7" ht="28.8">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="11">
         <v>44560</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="C31" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="43.2">
       <c r="A32" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="11">
         <v>44561</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>393</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -7109,10 +7345,565 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D28:D29"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D26:D27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F2E86E-6F65-4BC7-837F-30A10875EAE7}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76">
+        <v>44563</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="32.4" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76">
+        <v>44564</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76">
+        <v>44566</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="76">
+        <v>44567</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76">
+        <v>44568</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="60">
+        <v>1</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="76">
+        <v>44569</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76">
+        <v>44570</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76">
+        <v>44571</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="76">
+        <v>44572</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="76">
+        <v>44573</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>44574</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="76">
+        <v>44575</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E15" s="60"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="76">
+        <v>44576</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="76">
+        <v>44577</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="76">
+        <v>44578</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76">
+        <v>44579</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="76">
+        <v>44580</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="76">
+        <v>44581</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="76">
+        <v>44582</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44583</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="76">
+        <v>44584</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="76">
+        <v>44585</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="76">
+        <v>44586</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="76">
+        <v>44587</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="76">
+        <v>44588</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="76">
+        <v>44589</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="76">
+        <v>44590</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="76">
+        <v>44591</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="76">
+        <v>44592</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="31"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="C34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="75"/>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="6"/>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="8"/>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7951,7 +8742,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -7966,7 +8757,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="77"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -8084,7 +8875,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -8099,7 +8890,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -8211,7 +9002,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -8226,7 +9017,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="77"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -8344,7 +9135,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -8359,7 +9150,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="77"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -8560,7 +9351,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -8575,7 +9366,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="77"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -8693,7 +9484,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="81" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -8708,7 +9499,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="77"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -8784,7 +9575,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -8799,7 +9590,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="77"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -8812,7 +9603,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -8827,7 +9618,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="77"/>
+      <c r="D21" s="82"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -8939,7 +9730,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="83" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -8954,7 +9745,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="79"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -9159,7 +9950,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="83" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -9174,7 +9965,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="79"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -9290,7 +10081,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="83" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -9305,7 +10096,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="79"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -9381,7 +10172,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="81" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -9396,7 +10187,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="77"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -9409,7 +10200,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -9424,7 +10215,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="77"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -9542,7 +10333,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -9557,7 +10348,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="77"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -9663,7 +10454,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -9678,7 +10469,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="77"/>
+      <c r="D32" s="82"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -9890,7 +10681,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -9905,7 +10696,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="80"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -10023,7 +10814,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -10038,7 +10829,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10156,7 +10947,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -10171,7 +10962,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -10289,7 +11080,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -10304,7 +11095,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="77"/>
+      <c r="D29" s="82"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -10514,7 +11305,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -10529,7 +11320,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="80"/>
+      <c r="D8" s="85"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -10647,7 +11438,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -10662,7 +11453,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -10780,7 +11571,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -10795,7 +11586,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="77"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -10913,7 +11704,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -10928,7 +11719,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="79"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -11123,7 +11914,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -11138,7 +11929,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="84"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -11250,7 +12041,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -11265,7 +12056,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="80"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -11299,7 +12090,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="81" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -11314,7 +12105,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="79"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -11365,7 +12156,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -11380,7 +12171,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="80"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -11498,7 +12289,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -11513,7 +12304,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -11724,7 +12515,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -11739,7 +12530,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="83"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11857,7 +12648,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -11872,7 +12663,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="80"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -11990,7 +12781,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="83" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -12005,7 +12796,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="80"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -12058,7 +12849,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="83" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -12073,7 +12864,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="81"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -12086,7 +12877,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="80"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -12099,7 +12890,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -12114,7 +12905,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="80"/>
+      <c r="D24" s="85"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -12232,7 +13023,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="81" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -12247,7 +13038,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="79"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EFDC8F-B8AC-468B-9DD2-ABB445E0B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E275B0-CF84-4945-A833-3BD11F157206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="NOV-2021" sheetId="32" r:id="rId15"/>
     <sheet name="DEC-2021" sheetId="33" r:id="rId16"/>
     <sheet name="JAN-2022" sheetId="34" r:id="rId17"/>
+    <sheet name="FEB-2022" sheetId="35" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="427">
   <si>
     <t>Task</t>
   </si>
@@ -1321,6 +1322,116 @@
   </si>
   <si>
     <t>MJA - 40%</t>
+  </si>
+  <si>
+    <t>Penna,MJA, Starshield</t>
+  </si>
+  <si>
+    <t>Penna Migration report updated and Followups 
+MJA - Followups 
+Starshield B2B- Mobile Ver - UI Design</t>
+  </si>
+  <si>
+    <t>Penna Migration report updated and Followups 
+MJA - Followups 
+Starshield B2B- Mobile Ver - UI Design - Modifications</t>
+  </si>
+  <si>
+    <t>Penna Migration report updated and Followups 
+MJA - Followups 
+Starshield B2C - Mobile Ver - UI Design 
+Starshield B2B - SalesAgent/Partner - Flow Document</t>
+  </si>
+  <si>
+    <t>Starshield - 40%</t>
+  </si>
+  <si>
+    <t>Starshield - 20%</t>
+  </si>
+  <si>
+    <t>Starshield - 100%</t>
+  </si>
+  <si>
+    <t>Starshield - 80%</t>
+  </si>
+  <si>
+    <t>Starshield - 70%</t>
+  </si>
+  <si>
+    <t>Starshield - 60%</t>
+  </si>
+  <si>
+    <t>Starshield Document - 100%</t>
+  </si>
+  <si>
+    <t>Starshield  - 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups 
+Starshield B2C - Mobile Ver - UI Design- Sent to Starshield team for confirmation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups 
+Starshield B2C - Mobile Ver - UI Design - Modification,CR 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups 
+Starshield B2C - Mobile Ver - UI Design </t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield B2B- Mobile Ver - UI Design - Modifications</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield B2B- Mobile Ver - UI Design</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Jobseeker- Jobs UI Design</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield - Email Templates modification</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Jobseeker Sign In UI Design
+Starshield B2C - Mobile Ver - UI Design 
+Starshield B2B - SalesAgent/Partner - Flow Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups,Employer Sign In UI Design
+Starshield B2C - Mobile Ver - UI Design 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups 
+Starshield B2B -Tab ver - UI Design </t>
+  </si>
+  <si>
+    <t>Starshield  - 40%</t>
+  </si>
+  <si>
+    <t>Starshield  - 60%</t>
+  </si>
+  <si>
+    <t>Starshield  - 75%</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield B2C - Changes and Sent files to Arangala team</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1759,8 +1870,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1813,8 +1924,17 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2138,7 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -7359,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F2E86E-6F65-4BC7-837F-30A10875EAE7}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A25" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7525,7 +7645,7 @@
       <c r="E8" s="60">
         <v>1</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="80" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="31"/>
@@ -7579,43 +7699,67 @@
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="76">
         <v>44572</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="76">
         <v>44573</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="76">
         <v>44574</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56"/>
+      <c r="C14" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -7672,56 +7816,88 @@
       <c r="F18" s="56"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="76">
         <v>44579</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="43.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="76">
         <v>44580</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
+      <c r="C20" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="76">
         <v>44581</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="56"/>
+      <c r="C21" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="76">
         <v>44582</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
@@ -7752,69 +7928,109 @@
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="43.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="76">
         <v>44585</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="56"/>
+      <c r="C25" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="43.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="76">
         <v>44586</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="43.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="76">
         <v>44587</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="56"/>
+      <c r="C27" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="43.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="76">
         <v>44588</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="56"/>
+      <c r="C28" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="43.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="76">
         <v>44589</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
@@ -7845,17 +8061,25 @@
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="43.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="76">
         <v>44592</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7">
@@ -7904,6 +8128,559 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D23:D24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F0647-FADF-4B29-89A7-D8101DEC415A}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.6">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>44593</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="57.6">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76">
+        <v>44594</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="53.4" customHeight="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76">
+        <v>44595</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="100" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="57.6">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76">
+        <v>44596</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="100" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76">
+        <v>44597</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="76">
+        <v>44598</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="57" customHeight="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76">
+        <v>44599</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="76">
+        <v>44600</v>
+      </c>
+      <c r="C9" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76">
+        <v>44601</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76">
+        <v>44602</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="100" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="76">
+        <v>44603</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="101">
+        <v>1</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="76">
+        <v>44604</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>44605</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="76">
+        <v>44606</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="43.2">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="76">
+        <v>44607</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="100" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="76">
+        <v>44608</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="76">
+        <v>44609</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76">
+        <v>44610</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="76">
+        <v>44611</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="76">
+        <v>44612</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="76">
+        <v>44613</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44614</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="76">
+        <v>44615</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="76">
+        <v>44616</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="76">
+        <v>44617</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="76">
+        <v>44618</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="76">
+        <v>44619</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="76">
+        <v>44620</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="62"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="75"/>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="7"/>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="8"/>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E275B0-CF84-4945-A833-3BD11F157206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B95D5-0545-4DFB-9763-ABDBDC79FB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="428">
   <si>
     <t>Task</t>
   </si>
@@ -1432,6 +1432,11 @@
     <t>Penna Migration and Followups 
 MJA - Followups 
 Starshield B2C - Changes and Sent files to Arangala team</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Report
+MJA - Jobs Search</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1873,6 +1878,15 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1924,17 +1938,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2927,7 +2935,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2942,7 +2950,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="85"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -3060,7 +3068,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -3075,7 +3083,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="85"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3193,7 +3201,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3208,7 +3216,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="84"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3326,7 +3334,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3341,7 +3349,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="85"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3555,7 +3563,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3570,7 +3578,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="85"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3688,7 +3696,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3703,7 +3711,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="85"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3821,7 +3829,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3836,7 +3844,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -3954,7 +3962,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -3969,7 +3977,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="85"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4315,7 +4323,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4330,7 +4338,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="89"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4448,7 +4456,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4463,7 +4471,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4581,7 +4589,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4596,7 +4604,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="85"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4708,7 +4716,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4723,7 +4731,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="90"/>
+      <c r="D30" s="93"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4934,7 +4942,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="90" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4949,7 +4957,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="91"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5061,7 +5069,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -5076,7 +5084,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="85"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -5194,7 +5202,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -5209,7 +5217,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="85"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5327,7 +5335,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5342,7 +5350,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="85"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5553,7 +5561,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5568,7 +5576,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="92"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5680,7 +5688,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5695,7 +5703,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="85"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5771,7 +5779,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5786,7 +5794,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="84"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5799,7 +5807,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5814,7 +5822,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="84"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5932,7 +5940,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5947,7 +5955,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="85"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6065,7 +6073,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6080,7 +6088,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="85"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6281,7 +6289,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6296,7 +6304,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="92"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6414,7 +6422,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6429,7 +6437,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="85"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6547,7 +6555,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6562,7 +6570,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6674,7 +6682,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6689,7 +6697,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="85"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6900,7 +6908,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="84" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -6915,7 +6923,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="84"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -7033,7 +7041,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="84" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -7048,7 +7056,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="84"/>
+      <c r="D13" s="87"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -7166,7 +7174,7 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="84" t="s">
         <v>364</v>
       </c>
       <c r="E19" s="12"/>
@@ -7181,7 +7189,7 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="84"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -7299,7 +7307,7 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="84" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="12"/>
@@ -7314,7 +7322,7 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="85"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -7525,7 +7533,7 @@
         <v>44562</v>
       </c>
       <c r="C2" s="77"/>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="96" t="s">
         <v>364</v>
       </c>
       <c r="E2" s="60"/>
@@ -7540,7 +7548,7 @@
         <v>44563</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="95"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="60"/>
       <c r="F3" s="56"/>
       <c r="G3" s="31"/>
@@ -7658,7 +7666,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="96" t="s">
         <v>364</v>
       </c>
       <c r="E9" s="60"/>
@@ -7673,7 +7681,7 @@
         <v>44570</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="94"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="60"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31"/>
@@ -7770,7 +7778,7 @@
         <v>44575</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="96" t="s">
         <v>364</v>
       </c>
       <c r="E15" s="60"/>
@@ -7785,7 +7793,7 @@
         <v>44576</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="96"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="60"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -7798,7 +7806,7 @@
         <v>44577</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="95"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="31"/>
@@ -7908,7 +7916,7 @@
         <v>44583</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="96" t="s">
         <v>364</v>
       </c>
       <c r="E23" s="60"/>
@@ -7923,7 +7931,7 @@
         <v>44584</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="97"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="60"/>
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
@@ -8041,7 +8049,7 @@
         <v>44590</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="96" t="s">
         <v>364</v>
       </c>
       <c r="E30" s="60"/>
@@ -8056,7 +8064,7 @@
         <v>44591</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="94"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="60"/>
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
@@ -8139,7 +8147,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8228,7 +8236,7 @@
       <c r="C4" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="82" t="s">
         <v>421</v>
       </c>
       <c r="E4" s="70" t="s">
@@ -8249,7 +8257,7 @@
       <c r="C5" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="82" t="s">
         <v>414</v>
       </c>
       <c r="E5" s="70" t="s">
@@ -8267,12 +8275,12 @@
       <c r="B6" s="76">
         <v>44597</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -8282,10 +8290,10 @@
       <c r="B7" s="76">
         <v>44598</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" ht="57" customHeight="1">
@@ -8298,7 +8306,7 @@
       <c r="C8" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="82" t="s">
         <v>413</v>
       </c>
       <c r="E8" s="70" t="s">
@@ -8319,7 +8327,7 @@
       <c r="C9" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="82" t="s">
         <v>422</v>
       </c>
       <c r="E9" s="70" t="s">
@@ -8340,7 +8348,7 @@
       <c r="C10" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="82" t="s">
         <v>422</v>
       </c>
       <c r="E10" s="70" t="s">
@@ -8361,7 +8369,7 @@
       <c r="C11" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="82" t="s">
         <v>422</v>
       </c>
       <c r="E11" s="70" t="s">
@@ -8382,10 +8390,10 @@
       <c r="C12" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="82" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="83">
         <v>1</v>
       </c>
       <c r="F12" s="80" t="s">
@@ -8400,12 +8408,12 @@
       <c r="B13" s="76">
         <v>44604</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="93" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
       <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">
@@ -8415,10 +8423,10 @@
       <c r="B14" s="76">
         <v>44605</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="43.8" customHeight="1">
@@ -8431,10 +8439,10 @@
       <c r="C15" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="81" t="s">
         <v>410</v>
       </c>
       <c r="F15" s="55" t="s">
@@ -8452,10 +8460,10 @@
       <c r="C16" s="77" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="100" t="s">
+      <c r="D16" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="81" t="s">
         <v>407</v>
       </c>
       <c r="F16" s="80" t="s">
@@ -8463,30 +8471,46 @@
       </c>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="76">
         <v>44608</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="C17" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="43.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="76">
         <v>44609</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
+      <c r="C18" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="E18" s="102">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7">
@@ -8496,10 +8520,10 @@
       <c r="B19" s="76">
         <v>44610</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
@@ -8509,12 +8533,12 @@
       <c r="B20" s="76">
         <v>44611</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="93" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
       <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
@@ -8524,10 +8548,10 @@
       <c r="B21" s="76">
         <v>44612</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
       <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7">
@@ -8537,10 +8561,10 @@
       <c r="B22" s="76">
         <v>44613</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
@@ -8550,10 +8574,10 @@
       <c r="B23" s="76">
         <v>44614</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
@@ -8563,10 +8587,10 @@
       <c r="B24" s="76">
         <v>44615</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
@@ -8576,10 +8600,10 @@
       <c r="B25" s="76">
         <v>44616</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
       <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7">
@@ -8589,10 +8613,10 @@
       <c r="B26" s="76">
         <v>44617</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">
@@ -8602,12 +8626,12 @@
       <c r="B27" s="76">
         <v>44618</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="93" t="s">
+      <c r="C27" s="81"/>
+      <c r="D27" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
@@ -8617,10 +8641,10 @@
       <c r="B28" s="76">
         <v>44619</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7">
@@ -8630,10 +8654,10 @@
       <c r="B29" s="76">
         <v>44620</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
@@ -9519,7 +9543,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -9534,7 +9558,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="82"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -9652,7 +9676,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -9667,7 +9691,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -9779,7 +9803,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -9794,7 +9818,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="82"/>
+      <c r="D23" s="85"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -9912,7 +9936,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -9927,7 +9951,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="82"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -10128,7 +10152,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -10143,7 +10167,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="82"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -10261,7 +10285,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="84" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -10276,7 +10300,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="82"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -10352,7 +10376,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="84" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -10367,7 +10391,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="82"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -10380,7 +10404,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -10395,7 +10419,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="82"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -10507,7 +10531,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -10522,7 +10546,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="84"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -10727,7 +10751,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -10742,7 +10766,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="84"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -10858,7 +10882,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -10873,7 +10897,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="84"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -10949,7 +10973,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="84" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -10964,7 +10988,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="82"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -10977,7 +11001,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -10992,7 +11016,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="82"/>
+      <c r="D18" s="85"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -11110,7 +11134,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -11125,7 +11149,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="82"/>
+      <c r="D25" s="85"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -11231,7 +11255,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="81" t="s">
+      <c r="D31" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -11246,7 +11270,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="82"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -11458,7 +11482,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -11473,7 +11497,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -11591,7 +11615,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -11606,7 +11630,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="86"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -11724,7 +11748,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -11739,7 +11763,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="82"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -11857,7 +11881,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -11872,7 +11896,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="82"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -12082,7 +12106,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12097,7 +12121,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12215,7 +12239,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12230,7 +12254,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="86"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12348,7 +12372,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -12363,7 +12387,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="82"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -12481,7 +12505,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="81" t="s">
+      <c r="D28" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -12496,7 +12520,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="84"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -12691,7 +12715,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -12706,7 +12730,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="84"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -12818,7 +12842,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -12833,7 +12857,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="85"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -12867,7 +12891,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="84" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -12882,7 +12906,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="84"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12933,7 +12957,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -12948,7 +12972,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -13066,7 +13090,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -13081,7 +13105,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="85"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -13292,7 +13316,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="90" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -13307,7 +13331,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="88"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -13425,7 +13449,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -13440,7 +13464,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="85"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -13558,7 +13582,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -13573,7 +13597,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="85"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -13626,7 +13650,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="86" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -13641,7 +13665,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="86"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -13654,7 +13678,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -13667,7 +13691,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -13682,7 +13706,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="85"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -13800,7 +13824,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="84" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -13815,7 +13839,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="84"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391B95D5-0545-4DFB-9763-ABDBDC79FB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFBEF7-7CD4-4A1C-9A7D-D75677318C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="430">
   <si>
     <t>Task</t>
   </si>
@@ -1437,6 +1437,14 @@
     <t>Penna Migration and Followups 
 MJA - Followups, Report
 MJA - Jobs Search</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Report
+REVER-Certificate Design</t>
+  </si>
+  <si>
+    <t>Penna,MJA,Rever</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1940,9 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8146,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F0647-FADF-4B29-89A7-D8101DEC415A}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8505,7 +8510,7 @@
       <c r="D18" s="82" t="s">
         <v>427</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="83">
         <v>0.5</v>
       </c>
       <c r="F18" s="55" t="s">
@@ -8513,17 +8518,25 @@
       </c>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="76">
         <v>44610</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="C19" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
@@ -8554,17 +8567,25 @@
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="76">
         <v>44613</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
+      <c r="C22" s="77" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>428</v>
+      </c>
+      <c r="E22" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFBEF7-7CD4-4A1C-9A7D-D75677318C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB3593-6E56-4443-87CC-DA1D635636D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="431">
   <si>
     <t>Task</t>
   </si>
@@ -1445,6 +1445,11 @@
   </si>
   <si>
     <t>Penna,MJA,Rever</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Report
+Starshield - Email Templates updated content, App UI modifications</t>
   </si>
 </sst>
 </file>
@@ -8152,7 +8157,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8588,17 +8593,25 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="57.6">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="76">
         <v>44614</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
+      <c r="C23" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="E23" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBB3593-6E56-4443-87CC-DA1D635636D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA1EA5-B2AD-4F5A-BDF9-0BD2B11C67BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="433">
   <si>
     <t>Task</t>
   </si>
@@ -1450,6 +1450,15 @@
     <t>Penna Migration and Followups 
 MJA - Followups, Report
 Starshield - Email Templates updated content, App UI modifications</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design
+Starshield - Email Templates updated content, App UI  Screens updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups, Support  </t>
   </si>
 </sst>
 </file>
@@ -8156,8 +8165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F0647-FADF-4B29-89A7-D8101DEC415A}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8614,43 +8623,67 @@
       </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="57.6">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="76">
         <v>44615</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="E24" s="83">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="40.799999999999997" customHeight="1">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="76">
         <v>44616</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
+      <c r="C25" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="57.6">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="76">
         <v>44617</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
+      <c r="C26" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" s="83">
+        <v>1</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA1EA5-B2AD-4F5A-BDF9-0BD2B11C67BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B0D70D-FABF-41E0-8DF8-067AEF7ADE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="DEC-2021" sheetId="33" r:id="rId16"/>
     <sheet name="JAN-2022" sheetId="34" r:id="rId17"/>
     <sheet name="FEB-2022" sheetId="35" r:id="rId18"/>
+    <sheet name="MAR-2022" sheetId="36" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="436">
   <si>
     <t>Task</t>
   </si>
@@ -1459,6 +1460,21 @@
   <si>
     <t xml:space="preserve">Penna Migration and Followups 
 MJA - Followups, Support  </t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for Admin Masters
+Starshield - Email Templates updated content, App UI  Screens updated</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for Admin Job postings
+Starshield - Followups</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for Admin Masters
+Starshield - App Docs, Icons, assets all uploaded in Git</t>
   </si>
 </sst>
 </file>
@@ -1688,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1962,6 +1978,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8165,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0F0647-FADF-4B29-89A7-D8101DEC415A}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A24" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8714,17 +8733,25 @@
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="57.6">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="76">
         <v>44620</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
+      <c r="C29" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="83">
+        <v>1</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
@@ -8772,6 +8799,516 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D27:D28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B18562-A34B-4A70-9932-BCC6CC442739}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="57.6">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>44621</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="E2" s="83">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76">
+        <v>44622</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="83">
+        <v>1</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76">
+        <v>44623</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" s="83">
+        <v>1</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76">
+        <v>44624</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76">
+        <v>44625</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="76">
+        <v>44626</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76">
+        <v>44627</v>
+      </c>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="76">
+        <v>44628</v>
+      </c>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76">
+        <v>44629</v>
+      </c>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76">
+        <v>44630</v>
+      </c>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="76">
+        <v>44631</v>
+      </c>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="76">
+        <v>44632</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>44633</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="76">
+        <v>44634</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="76">
+        <v>44635</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="76">
+        <v>44636</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="76">
+        <v>44637</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76">
+        <v>44638</v>
+      </c>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="76">
+        <v>44639</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="76">
+        <v>44640</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="76">
+        <v>44641</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44642</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="76">
+        <v>44643</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="76">
+        <v>44644</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="76">
+        <v>44645</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="76">
+        <v>44646</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="76">
+        <v>44647</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="76">
+        <v>44648</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="76">
+        <v>44649</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="76">
+        <v>44650</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="76">
+        <v>44651</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="75"/>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="6"/>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8"/>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B0D70D-FABF-41E0-8DF8-067AEF7ADE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6AE2F6-895E-4DB0-B78A-CFC1145A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="438">
   <si>
     <t>Task</t>
   </si>
@@ -1475,6 +1475,14 @@
     <t>Penna Migration and Followups 
 MJA - Followups and UI design for Admin Masters
 Starshield - App Docs, Icons, assets all uploaded in Git</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for Job Search
+Starshield - Followups</t>
+  </si>
+  <si>
+    <t>MJA- 50%</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1925,6 +1933,9 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,8 +1990,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2973,7 +2984,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2988,7 +2999,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="88"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -3106,7 +3117,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -3121,7 +3132,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="88"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3239,7 +3250,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3254,7 +3265,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="87"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3372,7 +3383,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3387,7 +3398,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="88"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3601,7 +3612,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3616,7 +3627,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3734,7 +3745,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3749,7 +3760,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3867,7 +3878,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3882,7 +3893,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="88"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -4000,7 +4011,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -4015,7 +4026,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4361,7 +4372,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4376,7 +4387,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="92"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4494,7 +4505,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4509,7 +4520,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4627,7 +4638,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4642,7 +4653,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="88"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4754,7 +4765,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4769,7 +4780,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="93"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4980,7 +4991,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -4995,7 +5006,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="94"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5107,7 +5118,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -5122,7 +5133,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -5240,7 +5251,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -5255,7 +5266,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5373,7 +5384,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5388,7 +5399,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5599,7 +5610,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5614,7 +5625,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5726,7 +5737,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5741,7 +5752,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5817,7 +5828,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5832,7 +5843,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="87"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5845,7 +5856,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5860,7 +5871,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="87"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5978,7 +5989,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -5993,7 +6004,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="88"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6111,7 +6122,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6126,7 +6137,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="88"/>
+      <c r="D32" s="89"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6327,7 +6338,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6342,7 +6353,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="95"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6460,7 +6471,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6475,7 +6486,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6593,7 +6604,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6608,7 +6619,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="88"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6720,7 +6731,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6735,7 +6746,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="88"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6946,7 +6957,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -6961,7 +6972,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -7079,7 +7090,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -7094,7 +7105,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="87"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -7212,7 +7223,7 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E19" s="12"/>
@@ -7227,7 +7238,7 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="87"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -7345,7 +7356,7 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="12"/>
@@ -7360,7 +7371,7 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -7571,7 +7582,7 @@
         <v>44562</v>
       </c>
       <c r="C2" s="77"/>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E2" s="60"/>
@@ -7586,7 +7597,7 @@
         <v>44563</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="60"/>
       <c r="F3" s="56"/>
       <c r="G3" s="31"/>
@@ -7704,7 +7715,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E9" s="60"/>
@@ -7719,7 +7730,7 @@
         <v>44570</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="97"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="60"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31"/>
@@ -7816,7 +7827,7 @@
         <v>44575</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E15" s="60"/>
@@ -7831,7 +7842,7 @@
         <v>44576</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="99"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="60"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -7844,7 +7855,7 @@
         <v>44577</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="98"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="31"/>
@@ -7954,7 +7965,7 @@
         <v>44583</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E23" s="60"/>
@@ -7969,7 +7980,7 @@
         <v>44584</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="100"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="60"/>
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
@@ -8087,7 +8098,7 @@
         <v>44590</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E30" s="60"/>
@@ -8102,7 +8113,7 @@
         <v>44591</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="97"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="60"/>
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
@@ -8185,7 +8196,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8314,7 +8325,7 @@
         <v>44597</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E6" s="81"/>
@@ -8329,7 +8340,7 @@
         <v>44598</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="100"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -8447,7 +8458,7 @@
         <v>44604</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E13" s="81"/>
@@ -8462,7 +8473,7 @@
         <v>44605</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="101"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -8580,7 +8591,7 @@
         <v>44611</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E20" s="81"/>
@@ -8595,7 +8606,7 @@
         <v>44612</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="97"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -8713,7 +8724,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E27" s="81"/>
@@ -8728,7 +8739,7 @@
         <v>44619</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="97"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
@@ -8810,7 +8821,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8903,10 +8914,10 @@
         <v>434</v>
       </c>
       <c r="E4" s="83">
-        <v>1</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>5</v>
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>3</v>
       </c>
       <c r="G4" s="31"/>
     </row>
@@ -8918,7 +8929,9 @@
         <v>44624</v>
       </c>
       <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
+      <c r="D5" s="103" t="s">
+        <v>317</v>
+      </c>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
       <c r="G5" s="31"/>
@@ -8931,7 +8944,7 @@
         <v>44625</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="97" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="81"/>
@@ -8946,35 +8959,51 @@
         <v>44626</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="76">
         <v>44627</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="C8" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" s="83">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="76">
         <v>44628</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="C9" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">
@@ -9273,7 +9302,7 @@
       <c r="C32" s="10"/>
       <c r="D32" s="48"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="102"/>
+      <c r="F32" s="84"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:6">
@@ -10147,7 +10176,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -10162,7 +10191,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -10280,7 +10309,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -10295,7 +10324,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -10407,7 +10436,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -10422,7 +10451,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="85"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -10540,7 +10569,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -10555,7 +10584,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -10756,7 +10785,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -10771,7 +10800,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -10889,7 +10918,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -10904,7 +10933,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -10980,7 +11009,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="85" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -10995,7 +11024,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -11008,7 +11037,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -11023,7 +11052,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -11135,7 +11164,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -11150,7 +11179,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="87"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -11355,7 +11384,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -11370,7 +11399,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -11486,7 +11515,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -11501,7 +11530,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="87"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -11577,7 +11606,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -11592,7 +11621,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -11605,7 +11634,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -11620,7 +11649,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -11738,7 +11767,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -11753,7 +11782,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -11859,7 +11888,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -11874,7 +11903,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -12086,7 +12115,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12101,7 +12130,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12219,7 +12248,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12234,7 +12263,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12352,7 +12381,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -12367,7 +12396,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -12485,7 +12514,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -12500,7 +12529,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -12710,7 +12739,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12725,7 +12754,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="88"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12843,7 +12872,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12858,7 +12887,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12976,7 +13005,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -12991,7 +13020,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="85"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -13109,7 +13138,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -13124,7 +13153,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="87"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -13319,7 +13348,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -13334,7 +13363,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -13446,7 +13475,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -13461,7 +13490,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="88"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -13495,7 +13524,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -13510,7 +13539,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="87"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13561,7 +13590,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -13576,7 +13605,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="88"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -13694,7 +13723,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -13709,7 +13738,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -13920,7 +13949,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -13935,7 +13964,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -14053,7 +14082,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -14068,7 +14097,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="88"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -14186,7 +14215,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -14201,7 +14230,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="88"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -14254,7 +14283,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="87" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -14269,7 +14298,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -14282,7 +14311,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="88"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -14295,7 +14324,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -14310,7 +14339,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="88"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -14428,7 +14457,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -14443,7 +14472,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="87"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6AE2F6-895E-4DB0-B78A-CFC1145A28AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC209AA0-C77B-4D03-AD2E-FB4E88C7A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="442">
   <si>
     <t>Task</t>
   </si>
@@ -1483,6 +1483,25 @@
   </si>
   <si>
     <t>MJA- 50%</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for Job Search
+Starshield - Followups and email templates content modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups and UI design for Apply Job
+Starshield - Followups </t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield - Followups</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups Starshield - Followups</t>
   </si>
 </sst>
 </file>
@@ -1936,6 +1955,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1988,9 +2010,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2984,7 +3003,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -2999,7 +3018,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -3117,7 +3136,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -3132,7 +3151,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3250,7 +3269,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3265,7 +3284,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="88"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3383,7 +3402,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3398,7 +3417,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3612,7 +3631,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3627,7 +3646,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3745,7 +3764,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3760,7 +3779,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3878,7 +3897,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3893,7 +3912,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -4011,7 +4030,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -4026,7 +4045,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4372,7 +4391,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4387,7 +4406,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4505,7 +4524,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4520,7 +4539,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4638,7 +4657,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4653,7 +4672,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="89"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4765,7 +4784,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4780,7 +4799,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="94"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -4991,7 +5010,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="92" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -5006,7 +5025,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5118,7 +5137,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -5133,7 +5152,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="89"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -5251,7 +5270,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -5266,7 +5285,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5384,7 +5403,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5399,7 +5418,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5610,7 +5629,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5625,7 +5644,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5737,7 +5756,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5752,7 +5771,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5828,7 +5847,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5843,7 +5862,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5856,7 +5875,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5871,7 +5890,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -5989,7 +6008,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -6004,7 +6023,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6122,7 +6141,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6137,7 +6156,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6338,7 +6357,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6353,7 +6372,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6471,7 +6490,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6486,7 +6505,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6604,7 +6623,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6619,7 +6638,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6731,7 +6750,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6746,7 +6765,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="89"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6957,7 +6976,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -6972,7 +6991,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="88"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -7090,7 +7109,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -7105,7 +7124,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -7223,7 +7242,7 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E19" s="12"/>
@@ -7238,7 +7257,7 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -7356,7 +7375,7 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="12"/>
@@ -7371,7 +7390,7 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -7582,7 +7601,7 @@
         <v>44562</v>
       </c>
       <c r="C2" s="77"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E2" s="60"/>
@@ -7597,7 +7616,7 @@
         <v>44563</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="60"/>
       <c r="F3" s="56"/>
       <c r="G3" s="31"/>
@@ -7715,7 +7734,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E9" s="60"/>
@@ -7730,7 +7749,7 @@
         <v>44570</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="60"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31"/>
@@ -7827,7 +7846,7 @@
         <v>44575</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E15" s="60"/>
@@ -7842,7 +7861,7 @@
         <v>44576</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="60"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -7855,7 +7874,7 @@
         <v>44577</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="31"/>
@@ -7965,7 +7984,7 @@
         <v>44583</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E23" s="60"/>
@@ -7980,7 +7999,7 @@
         <v>44584</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="60"/>
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
@@ -8098,7 +8117,7 @@
         <v>44590</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E30" s="60"/>
@@ -8113,7 +8132,7 @@
         <v>44591</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="98"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="60"/>
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
@@ -8325,7 +8344,7 @@
         <v>44597</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E6" s="81"/>
@@ -8340,7 +8359,7 @@
         <v>44598</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -8458,7 +8477,7 @@
         <v>44604</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E13" s="81"/>
@@ -8473,7 +8492,7 @@
         <v>44605</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -8591,7 +8610,7 @@
         <v>44611</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E20" s="81"/>
@@ -8606,7 +8625,7 @@
         <v>44612</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="98"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -8724,7 +8743,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E27" s="81"/>
@@ -8739,7 +8758,7 @@
         <v>44619</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
@@ -8820,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B18562-A34B-4A70-9932-BCC6CC442739}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8929,7 +8948,7 @@
         <v>44624</v>
       </c>
       <c r="C5" s="81"/>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="85" t="s">
         <v>317</v>
       </c>
       <c r="E5" s="81"/>
@@ -8944,7 +8963,7 @@
         <v>44625</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="81"/>
@@ -8959,7 +8978,7 @@
         <v>44626</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -9006,43 +9025,67 @@
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="76">
         <v>44629</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
+      <c r="C10" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="83">
+        <v>1</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="76">
         <v>44630</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="C11" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="83">
+        <v>1</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="76">
         <v>44631</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="C12" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="83">
+        <v>1</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="31"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1">
@@ -9053,7 +9096,9 @@
         <v>44632</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="D13" s="98" t="s">
+        <v>112</v>
+      </c>
       <c r="E13" s="81"/>
       <c r="F13" s="81"/>
       <c r="G13" s="31"/>
@@ -9066,35 +9111,51 @@
         <v>44633</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="76">
         <v>44634</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
+      <c r="C15" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="E15" s="83">
+        <v>1</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="57.6">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="76">
         <v>44635</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
+      <c r="C16" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="83">
+        <v>1</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7">
@@ -9336,8 +9397,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10176,7 +10238,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -10191,7 +10253,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="86"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -10309,7 +10371,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -10324,7 +10386,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -10436,7 +10498,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -10451,7 +10513,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -10569,7 +10631,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -10584,7 +10646,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -10785,7 +10847,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -10800,7 +10862,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="86"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -10918,7 +10980,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -10933,7 +10995,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -11009,7 +11071,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -11024,7 +11086,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -11037,7 +11099,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -11052,7 +11114,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -11164,7 +11226,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -11179,7 +11241,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="88"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -11384,7 +11446,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -11399,7 +11461,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -11515,7 +11577,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -11530,7 +11592,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -11606,7 +11668,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -11621,7 +11683,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -11634,7 +11696,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -11649,7 +11711,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -11767,7 +11829,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -11782,7 +11844,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -11888,7 +11950,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -11903,7 +11965,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -12115,7 +12177,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12130,7 +12192,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12248,7 +12310,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12263,7 +12325,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12381,7 +12443,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -12396,7 +12458,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -12514,7 +12576,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -12529,7 +12591,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -12739,7 +12801,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12754,7 +12816,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12872,7 +12934,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12887,7 +12949,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13005,7 +13067,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -13020,7 +13082,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -13138,7 +13200,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -13153,7 +13215,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="88"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -13348,7 +13410,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -13363,7 +13425,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -13475,7 +13537,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -13490,7 +13552,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -13524,7 +13586,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -13539,7 +13601,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13590,7 +13652,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -13605,7 +13667,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -13723,7 +13785,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -13738,7 +13800,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -13949,7 +14011,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -13964,7 +14026,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -14082,7 +14144,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -14097,7 +14159,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="89"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -14215,7 +14277,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -14230,7 +14292,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -14283,7 +14345,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="88" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -14298,7 +14360,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="90"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -14311,7 +14373,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -14324,7 +14386,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -14339,7 +14401,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -14457,7 +14519,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -14472,7 +14534,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="88"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC209AA0-C77B-4D03-AD2E-FB4E88C7A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB33D8A-8A49-4C01-8685-74FB86903857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="446">
   <si>
     <t>Task</t>
   </si>
@@ -1502,6 +1502,24 @@
   <si>
     <t>Penna Migration and Followups 
 MJA - Followups Starshield - Followups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups 
+Starshield - Followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups and Created Report
+Starshield - Followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups and UI design for Job Alert
+Starshield - Followups </t>
+  </si>
+  <si>
+    <t>MJA - 50%</t>
   </si>
 </sst>
 </file>
@@ -8839,8 +8857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B18562-A34B-4A70-9932-BCC6CC442739}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9158,43 +9176,67 @@
       </c>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="43.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="76">
         <v>44636</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
+      <c r="C17" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="83">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="43.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="76">
         <v>44637</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
+      <c r="C18" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="E18" s="83">
+        <v>1</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="76">
         <v>44638</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="C19" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>445</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
@@ -9205,7 +9247,9 @@
         <v>44639</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="D20" s="98" t="s">
+        <v>112</v>
+      </c>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
       <c r="G20" s="31"/>
@@ -9218,7 +9262,7 @@
         <v>44640</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -9397,9 +9441,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB33D8A-8A49-4C01-8685-74FB86903857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA54D9F-0C5F-4BEE-A57F-47477027BB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="453">
   <si>
     <t>Task</t>
   </si>
@@ -1520,6 +1520,33 @@
   </si>
   <si>
     <t>MJA - 50%</t>
+  </si>
+  <si>
+    <t>MJA - 80%</t>
+  </si>
+  <si>
+    <t>MJA - 100%</t>
+  </si>
+  <si>
+    <t>2nd Half - Leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups Starshield - Followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups  Starshield - Followups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups, Tracker updated 
+Starshield - Followups </t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Tracker updated 
+Starshield - Followups, UI modifications</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1969,9 +1996,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3021,7 +3045,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -3036,7 +3060,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="90"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -3154,7 +3178,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -3169,7 +3193,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="90"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3287,7 +3311,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3302,7 +3326,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3420,7 +3444,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3435,7 +3459,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="90"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3649,7 +3673,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3664,7 +3688,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="90"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3782,7 +3806,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3797,7 +3821,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3915,7 +3939,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3930,7 +3954,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="90"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -4048,7 +4072,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -4063,7 +4087,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="90"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4409,7 +4433,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4424,7 +4448,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="94"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4542,7 +4566,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4557,7 +4581,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="90"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4675,7 +4699,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4690,7 +4714,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="90"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4802,7 +4826,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4817,7 +4841,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="95"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -5028,7 +5052,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="92" t="s">
+      <c r="D5" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -5043,7 +5067,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="96"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5155,7 +5179,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -5170,7 +5194,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="90"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -5288,7 +5312,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -5303,7 +5327,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="90"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5421,7 +5445,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5436,7 +5460,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="90"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5647,7 +5671,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5662,7 +5686,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="97"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5774,7 +5798,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5789,7 +5813,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="90"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5865,7 +5889,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5880,7 +5904,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5893,7 +5917,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5908,7 +5932,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="89"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -6026,7 +6050,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -6041,7 +6065,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="90"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6159,7 +6183,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6174,7 +6198,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="90"/>
+      <c r="D32" s="89"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6375,7 +6399,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6390,7 +6414,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="97"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6508,7 +6532,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6523,7 +6547,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6641,7 +6665,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6656,7 +6680,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="90"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6768,7 +6792,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6783,7 +6807,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="90"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -6994,7 +7018,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -7009,7 +7033,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="89"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -7127,7 +7151,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -7142,7 +7166,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="89"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -7260,7 +7284,7 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E19" s="12"/>
@@ -7275,7 +7299,7 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="89"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -7393,7 +7417,7 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="85" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="12"/>
@@ -7408,7 +7432,7 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="90"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -7619,7 +7643,7 @@
         <v>44562</v>
       </c>
       <c r="C2" s="77"/>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E2" s="60"/>
@@ -7634,7 +7658,7 @@
         <v>44563</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="100"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="60"/>
       <c r="F3" s="56"/>
       <c r="G3" s="31"/>
@@ -7752,7 +7776,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E9" s="60"/>
@@ -7767,7 +7791,7 @@
         <v>44570</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="99"/>
+      <c r="D10" s="98"/>
       <c r="E10" s="60"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31"/>
@@ -7864,7 +7888,7 @@
         <v>44575</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E15" s="60"/>
@@ -7879,7 +7903,7 @@
         <v>44576</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="101"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="60"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -7892,7 +7916,7 @@
         <v>44577</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="100"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="31"/>
@@ -8002,7 +8026,7 @@
         <v>44583</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="98" t="s">
+      <c r="D23" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E23" s="60"/>
@@ -8017,7 +8041,7 @@
         <v>44584</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="102"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="60"/>
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
@@ -8135,7 +8159,7 @@
         <v>44590</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E30" s="60"/>
@@ -8150,7 +8174,7 @@
         <v>44591</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="99"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="60"/>
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
@@ -8362,7 +8386,7 @@
         <v>44597</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E6" s="81"/>
@@ -8377,7 +8401,7 @@
         <v>44598</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="102"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -8495,7 +8519,7 @@
         <v>44604</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E13" s="81"/>
@@ -8510,7 +8534,7 @@
         <v>44605</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="103"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -8628,7 +8652,7 @@
         <v>44611</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E20" s="81"/>
@@ -8643,7 +8667,7 @@
         <v>44612</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="99"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -8761,7 +8785,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="97" t="s">
         <v>364</v>
       </c>
       <c r="E27" s="81"/>
@@ -8776,7 +8800,7 @@
         <v>44619</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="99"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
@@ -8857,8 +8881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B18562-A34B-4A70-9932-BCC6CC442739}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8966,7 +8990,7 @@
         <v>44624</v>
       </c>
       <c r="C5" s="81"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="84" t="s">
         <v>317</v>
       </c>
       <c r="E5" s="81"/>
@@ -8981,7 +9005,7 @@
         <v>44625</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="97" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="81"/>
@@ -8996,7 +9020,7 @@
         <v>44626</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="103"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -9114,7 +9138,7 @@
         <v>44632</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="97" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="81"/>
@@ -9129,7 +9153,7 @@
         <v>44633</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="99"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -9247,7 +9271,7 @@
         <v>44639</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="98" t="s">
+      <c r="D20" s="97" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="81"/>
@@ -9262,74 +9286,116 @@
         <v>44640</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="103"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="76">
         <v>44641</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
+      <c r="C22" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="43.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="76">
         <v>44642</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
+      <c r="C23" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>447</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="28.8">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="76">
         <v>44643</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
+      <c r="C24" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>450</v>
+      </c>
+      <c r="E24" s="83">
+        <v>1</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="28.8">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="76">
         <v>44644</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="E25" s="83">
+        <v>1</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="76">
         <v>44645</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
+      <c r="C26" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" s="83">
+        <v>1</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">
@@ -9340,7 +9406,9 @@
         <v>44646</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="D27" s="97" t="s">
+        <v>112</v>
+      </c>
       <c r="E27" s="81"/>
       <c r="F27" s="81"/>
       <c r="G27" s="31"/>
@@ -9353,61 +9421,93 @@
         <v>44647</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="43.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="76">
         <v>44648</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="C29" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" s="83">
+        <v>1</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="43.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="76">
         <v>44649</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" s="83">
+        <v>1</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="43.2">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="76">
         <v>44650</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="C31" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="83">
+        <v>1</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="43.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="76">
         <v>44651</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="84"/>
+      <c r="C32" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="83">
+        <v>1</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:6">
@@ -9441,10 +9541,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10283,7 +10384,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -10298,7 +10399,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="87"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -10416,7 +10517,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -10431,7 +10532,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="87"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -10543,7 +10644,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -10558,7 +10659,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="87"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -10676,7 +10777,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -10691,7 +10792,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="87"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -10892,7 +10993,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -10907,7 +11008,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="87"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -11025,7 +11126,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="85" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -11040,7 +11141,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="87"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -11116,7 +11217,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="85" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -11131,7 +11232,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="87"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -11144,7 +11245,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -11159,7 +11260,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="87"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -11271,7 +11372,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -11286,7 +11387,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -11491,7 +11592,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -11506,7 +11607,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="89"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -11622,7 +11723,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -11637,7 +11738,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="89"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -11713,7 +11814,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -11728,7 +11829,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="87"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -11741,7 +11842,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -11756,7 +11857,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="87"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -11874,7 +11975,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -11889,7 +11990,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="87"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -11995,7 +12096,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -12010,7 +12111,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="87"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -12222,7 +12323,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12237,7 +12338,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="90"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12355,7 +12456,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12370,7 +12471,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="91"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -12488,7 +12589,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -12503,7 +12604,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="87"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -12621,7 +12722,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -12636,7 +12737,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="87"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -12846,7 +12947,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12861,7 +12962,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="90"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -12979,7 +13080,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -12994,7 +13095,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="91"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13112,7 +13213,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -13127,7 +13228,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="87"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -13245,7 +13346,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -13260,7 +13361,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="89"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -13455,7 +13556,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -13470,7 +13571,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="89"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -13582,7 +13683,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -13597,7 +13698,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -13631,7 +13732,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="85" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -13646,7 +13747,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13697,7 +13798,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -13712,7 +13813,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="90"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -13830,7 +13931,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -13845,7 +13946,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="90"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -14056,7 +14157,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -14071,7 +14172,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="93"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -14189,7 +14290,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -14204,7 +14305,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="90"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -14322,7 +14423,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="87" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -14337,7 +14438,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="90"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -14390,7 +14491,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="87" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -14405,7 +14506,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="91"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -14418,7 +14519,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="90"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -14431,7 +14532,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -14446,7 +14547,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="90"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -14564,7 +14665,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -14579,7 +14680,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="89"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA54D9F-0C5F-4BEE-A57F-47477027BB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805087E5-95CF-41C2-A01A-CE0D098F55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="JAN-2022" sheetId="34" r:id="rId17"/>
     <sheet name="FEB-2022" sheetId="35" r:id="rId18"/>
     <sheet name="MAR-2022" sheetId="36" r:id="rId19"/>
+    <sheet name="APR-2022" sheetId="37" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="459">
   <si>
     <t>Task</t>
   </si>
@@ -1547,6 +1548,33 @@
     <t>Penna Migration and Followups 
 MJA - Followups, Tracker updated 
 Starshield - Followups, UI modifications</t>
+  </si>
+  <si>
+    <t>Penna,MJA, Starshield,MRP</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Tracker updated 
+Starshield - Followups,MRP - Login Screen UI</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Tracker updated 
+Starshield - Followups,MRP - Packer Dashboard Screen UI</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups 
+Starshield - Followups,MRP - Packer Dashboard Screen UI</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups and UI design for JobSeeker Accounts
+Starshield - Followups,</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups Starshield - Followups,MRP - Packer Dashboard,Dispatcher Dashboard,Admin Dashboard -UI</t>
   </si>
 </sst>
 </file>
@@ -1776,7 +1804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2053,6 +2081,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8881,8 +8915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B18562-A34B-4A70-9932-BCC6CC442739}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A25" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9434,10 +9468,10 @@
         <v>44648</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E29" s="83">
         <v>1</v>
@@ -9468,7 +9502,7 @@
       </c>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:7" ht="43.2">
+    <row r="31" spans="1:7" ht="61.8" customHeight="1">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -9479,7 +9513,7 @@
         <v>401</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E31" s="83">
         <v>1</v>
@@ -10209,6 +10243,517 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934B415F-FD6D-442E-B9BE-B7C7FA147367}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="76">
+        <v>44652</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>456</v>
+      </c>
+      <c r="E2" s="83">
+        <v>1</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76">
+        <v>44653</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="83"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76">
+        <v>44654</v>
+      </c>
+      <c r="C4" s="77"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76">
+        <v>44655</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="83">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="43.2">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="76">
+        <v>44656</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="83">
+        <v>1</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="76">
+        <v>44657</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76">
+        <v>44658</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="76">
+        <v>44659</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="76">
+        <v>44660</v>
+      </c>
+      <c r="C10" s="77"/>
+      <c r="D10" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="76">
+        <v>44661</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="76">
+        <v>44662</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="76">
+        <v>44663</v>
+      </c>
+      <c r="C13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="76">
+        <v>44664</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="76">
+        <v>44665</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="83"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="76">
+        <v>44666</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="76">
+        <v>44667</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="76">
+        <v>44668</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="76">
+        <v>44669</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="76">
+        <v>44670</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="76">
+        <v>44671</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="76">
+        <v>44672</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="76">
+        <v>44673</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="76">
+        <v>44674</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="83"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="76">
+        <v>44675</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="76">
+        <v>44676</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="76">
+        <v>44677</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="76">
+        <v>44678</v>
+      </c>
+      <c r="C28" s="81"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="76">
+        <v>44679</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="76">
+        <v>44680</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="76">
+        <v>44681</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="83"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="75"/>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="6"/>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="8"/>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D24:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805087E5-95CF-41C2-A01A-CE0D098F55C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC16A8E-2960-4985-9ED5-064290A651EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4416" yWindow="1068" windowWidth="15024" windowHeight="11268" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="461">
   <si>
     <t>Task</t>
   </si>
@@ -1574,7 +1574,14 @@
   </si>
   <si>
     <t>Penna Migration and Followups 
-MJA - Followups Starshield - Followups,MRP - Packer Dashboard,Dispatcher Dashboard,Admin Dashboard -UI</t>
+MJA - Followups, Starshield - Followups,MRP - Packer Dashboard,Dispatcher Dashboard,Admin Dashboard -UI</t>
+  </si>
+  <si>
+    <t>Penna,MJA, MRP</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Starshield - Followups,MRP - Reports, Settings,Manage Profile -UI</t>
   </si>
 </sst>
 </file>
@@ -1804,7 +1811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2028,6 +2035,9 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2081,12 +2091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3079,7 +3083,7 @@
         <v>44352</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="12"/>
@@ -3094,7 +3098,7 @@
         <v>44353</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="89"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="12"/>
       <c r="F7" s="56"/>
       <c r="G7" s="1"/>
@@ -3212,7 +3216,7 @@
         <v>44359</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="12"/>
@@ -3227,7 +3231,7 @@
         <v>44360</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="89"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="12"/>
       <c r="F14" s="56"/>
       <c r="G14" s="1"/>
@@ -3345,7 +3349,7 @@
         <v>44366</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -3360,7 +3364,7 @@
         <v>44367</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="88"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -3478,7 +3482,7 @@
         <v>44373</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -3493,7 +3497,7 @@
         <v>44374</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="12"/>
       <c r="F28" s="56"/>
       <c r="G28" s="1"/>
@@ -3707,7 +3711,7 @@
         <v>44380</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -3722,7 +3726,7 @@
         <v>44381</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -3840,7 +3844,7 @@
         <v>44387</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -3855,7 +3859,7 @@
         <v>44388</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -3973,7 +3977,7 @@
         <v>44394</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -3988,7 +3992,7 @@
         <v>44395</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -4106,7 +4110,7 @@
         <v>44401</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -4121,7 +4125,7 @@
         <v>44402</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -4467,7 +4471,7 @@
         <v>44415</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="64"/>
@@ -4482,7 +4486,7 @@
         <v>44416</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="12"/>
       <c r="F9" s="56"/>
       <c r="G9" s="1"/>
@@ -4600,7 +4604,7 @@
         <v>44422</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="12"/>
@@ -4615,7 +4619,7 @@
         <v>44423</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="89"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -4733,7 +4737,7 @@
         <v>44429</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E22" s="12"/>
@@ -4748,7 +4752,7 @@
         <v>44430</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="89"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="64"/>
       <c r="F23" s="56"/>
       <c r="G23" s="1"/>
@@ -4860,7 +4864,7 @@
         <v>44436</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E29" s="12"/>
@@ -4875,7 +4879,7 @@
         <v>44437</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="94"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="12"/>
       <c r="F30" s="56"/>
       <c r="G30" s="1"/>
@@ -5086,7 +5090,7 @@
         <v>44443</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="92" t="s">
         <v>112</v>
       </c>
       <c r="E5" s="64"/>
@@ -5101,7 +5105,7 @@
         <v>44444</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -5213,7 +5217,7 @@
         <v>44450</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E12" s="12"/>
@@ -5228,7 +5232,7 @@
         <v>44451</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="89"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="64"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -5346,7 +5350,7 @@
         <v>44457</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E19" s="12"/>
@@ -5361,7 +5365,7 @@
         <v>44458</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="89"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -5479,7 +5483,7 @@
         <v>44464</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E26" s="12"/>
@@ -5494,7 +5498,7 @@
         <v>44465</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -5705,7 +5709,7 @@
         <v>44471</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="64"/>
@@ -5720,7 +5724,7 @@
         <v>44472</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="96"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="12"/>
       <c r="F4" s="56"/>
       <c r="G4" s="1"/>
@@ -5832,7 +5836,7 @@
         <v>44478</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -5847,7 +5851,7 @@
         <v>44479</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="89"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -5923,7 +5927,7 @@
         <v>44483</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -5938,7 +5942,7 @@
         <v>44484</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -5951,7 +5955,7 @@
         <v>44485</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -5966,7 +5970,7 @@
         <v>44486</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="12"/>
       <c r="F18" s="56"/>
       <c r="G18" s="1"/>
@@ -6084,7 +6088,7 @@
         <v>44492</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -6099,7 +6103,7 @@
         <v>44493</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="89"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -6217,7 +6221,7 @@
         <v>44499</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -6232,7 +6236,7 @@
         <v>44500</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="89"/>
+      <c r="D32" s="90"/>
       <c r="E32" s="12"/>
       <c r="F32" s="56"/>
       <c r="G32" s="1"/>
@@ -6433,7 +6437,7 @@
         <v>44506</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -6448,7 +6452,7 @@
         <v>44507</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="96"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -6566,7 +6570,7 @@
         <v>44513</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -6581,7 +6585,7 @@
         <v>44514</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -6699,7 +6703,7 @@
         <v>44520</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -6714,7 +6718,7 @@
         <v>44521</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -6826,7 +6830,7 @@
         <v>44527</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -6841,7 +6845,7 @@
         <v>44528</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="89"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -7052,7 +7056,7 @@
         <v>44534</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E5" s="12"/>
@@ -7067,7 +7071,7 @@
         <v>44535</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="88"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="64"/>
       <c r="F6" s="56"/>
       <c r="G6" s="1"/>
@@ -7185,7 +7189,7 @@
         <v>44541</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E12" s="12"/>
@@ -7200,7 +7204,7 @@
         <v>44542</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="12"/>
       <c r="F13" s="56"/>
       <c r="G13" s="1"/>
@@ -7318,7 +7322,7 @@
         <v>44548</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E19" s="12"/>
@@ -7333,7 +7337,7 @@
         <v>44549</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="12"/>
       <c r="F20" s="56"/>
       <c r="G20" s="1"/>
@@ -7451,7 +7455,7 @@
         <v>44555</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="86" t="s">
         <v>364</v>
       </c>
       <c r="E26" s="12"/>
@@ -7466,7 +7470,7 @@
         <v>44556</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="12"/>
       <c r="F27" s="56"/>
       <c r="G27" s="1"/>
@@ -7677,7 +7681,7 @@
         <v>44562</v>
       </c>
       <c r="C2" s="77"/>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E2" s="60"/>
@@ -7692,7 +7696,7 @@
         <v>44563</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="99"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="60"/>
       <c r="F3" s="56"/>
       <c r="G3" s="31"/>
@@ -7810,7 +7814,7 @@
         <v>44569</v>
       </c>
       <c r="C9" s="46"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E9" s="60"/>
@@ -7825,7 +7829,7 @@
         <v>44570</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="60"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31"/>
@@ -7922,7 +7926,7 @@
         <v>44575</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E15" s="60"/>
@@ -7937,7 +7941,7 @@
         <v>44576</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="60"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -7950,7 +7954,7 @@
         <v>44577</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56"/>
       <c r="G17" s="31"/>
@@ -8060,7 +8064,7 @@
         <v>44583</v>
       </c>
       <c r="C23" s="77"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E23" s="60"/>
@@ -8075,7 +8079,7 @@
         <v>44584</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="101"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="60"/>
       <c r="F24" s="56"/>
       <c r="G24" s="31"/>
@@ -8193,7 +8197,7 @@
         <v>44590</v>
       </c>
       <c r="C30" s="77"/>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E30" s="60"/>
@@ -8208,7 +8212,7 @@
         <v>44591</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="98"/>
+      <c r="D31" s="99"/>
       <c r="E31" s="60"/>
       <c r="F31" s="56"/>
       <c r="G31" s="31"/>
@@ -8420,7 +8424,7 @@
         <v>44597</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E6" s="81"/>
@@ -8435,7 +8439,7 @@
         <v>44598</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="101"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -8553,7 +8557,7 @@
         <v>44604</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E13" s="81"/>
@@ -8568,7 +8572,7 @@
         <v>44605</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -8686,7 +8690,7 @@
         <v>44611</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E20" s="81"/>
@@ -8701,7 +8705,7 @@
         <v>44612</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="98"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -8819,7 +8823,7 @@
         <v>44618</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="98" t="s">
         <v>364</v>
       </c>
       <c r="E27" s="81"/>
@@ -8834,7 +8838,7 @@
         <v>44619</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
@@ -9039,7 +9043,7 @@
         <v>44625</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E6" s="81"/>
@@ -9054,7 +9058,7 @@
         <v>44626</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="102"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="31"/>
@@ -9172,7 +9176,7 @@
         <v>44632</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E13" s="81"/>
@@ -9187,7 +9191,7 @@
         <v>44633</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="98"/>
+      <c r="D14" s="99"/>
       <c r="E14" s="81"/>
       <c r="F14" s="81"/>
       <c r="G14" s="31"/>
@@ -9305,7 +9309,7 @@
         <v>44639</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="81"/>
@@ -9320,7 +9324,7 @@
         <v>44640</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="102"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="81"/>
       <c r="F21" s="81"/>
       <c r="G21" s="31"/>
@@ -9440,7 +9444,7 @@
         <v>44646</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="81"/>
@@ -9455,7 +9459,7 @@
         <v>44647</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="98"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
       <c r="G28" s="31"/>
@@ -10252,8 +10256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934B415F-FD6D-442E-B9BE-B7C7FA147367}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10319,7 +10323,7 @@
         <v>44653</v>
       </c>
       <c r="C3" s="77"/>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="83"/>
@@ -10334,7 +10338,7 @@
         <v>44654</v>
       </c>
       <c r="C4" s="77"/>
-      <c r="D4" s="98"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="83"/>
       <c r="F4" s="56"/>
       <c r="G4" s="31"/>
@@ -10368,7 +10372,7 @@
         <v>44656</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="D6" s="82" t="s">
         <v>458</v>
@@ -10381,17 +10385,25 @@
       </c>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="76">
         <v>44657</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="C7" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="E7" s="83">
+        <v>1</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1">
@@ -10428,7 +10440,7 @@
         <v>44660</v>
       </c>
       <c r="C10" s="77"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="83"/>
@@ -10443,7 +10455,7 @@
         <v>44661</v>
       </c>
       <c r="C11" s="77"/>
-      <c r="D11" s="98"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="83"/>
       <c r="F11" s="56"/>
       <c r="G11" s="31"/>
@@ -10495,7 +10507,7 @@
         <v>44665</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="98" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="83"/>
@@ -10510,7 +10522,7 @@
         <v>44666</v>
       </c>
       <c r="C16" s="77"/>
-      <c r="D16" s="98"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="83"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31"/>
@@ -10523,7 +10535,7 @@
         <v>44667</v>
       </c>
       <c r="C17" s="77"/>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="83"/>
@@ -10538,7 +10550,7 @@
         <v>44668</v>
       </c>
       <c r="C18" s="77"/>
-      <c r="D18" s="98"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="83"/>
       <c r="F18" s="56"/>
       <c r="G18" s="31"/>
@@ -10616,7 +10628,7 @@
         <v>44674</v>
       </c>
       <c r="C24" s="77"/>
-      <c r="D24" s="97" t="s">
+      <c r="D24" s="98" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="83"/>
@@ -10631,7 +10643,7 @@
         <v>44675</v>
       </c>
       <c r="C25" s="77"/>
-      <c r="D25" s="98"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="83"/>
       <c r="F25" s="56"/>
       <c r="G25" s="31"/>
@@ -10709,7 +10721,7 @@
         <v>44681</v>
       </c>
       <c r="C31" s="77"/>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="85" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="83"/>
@@ -10929,7 +10941,7 @@
         <v>44142</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="12"/>
@@ -10944,7 +10956,7 @@
         <v>44143</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="86"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="12"/>
       <c r="F9" s="37"/>
       <c r="G9" s="1"/>
@@ -11062,7 +11074,7 @@
         <v>44149</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="12"/>
@@ -11077,7 +11089,7 @@
         <v>44150</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="12"/>
       <c r="F16" s="37"/>
       <c r="G16" s="1"/>
@@ -11189,7 +11201,7 @@
         <v>44156</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="12"/>
@@ -11204,7 +11216,7 @@
         <v>44157</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="12"/>
       <c r="F23" s="37"/>
       <c r="G23" s="1"/>
@@ -11322,7 +11334,7 @@
         <v>44163</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="85" t="s">
+      <c r="D29" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="12"/>
@@ -11337,7 +11349,7 @@
         <v>44164</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="12"/>
       <c r="F30" s="37"/>
       <c r="G30" s="1"/>
@@ -11538,7 +11550,7 @@
         <v>44170</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="12"/>
@@ -11553,7 +11565,7 @@
         <v>44171</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="86"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="1"/>
@@ -11671,7 +11683,7 @@
         <v>44177</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="86" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="12"/>
@@ -11686,7 +11698,7 @@
         <v>44178</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="86"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="12"/>
       <c r="F14" s="37"/>
       <c r="G14" s="1"/>
@@ -11762,7 +11774,7 @@
         <v>44182</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="12"/>
@@ -11777,7 +11789,7 @@
         <v>44183</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="12"/>
       <c r="F19" s="37"/>
       <c r="G19" s="1"/>
@@ -11790,7 +11802,7 @@
         <v>44184</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E20" s="12"/>
@@ -11805,7 +11817,7 @@
         <v>44185</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="12"/>
       <c r="F21" s="37"/>
       <c r="G21" s="1"/>
@@ -11917,7 +11929,7 @@
         <v>44191</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="87" t="s">
+      <c r="D27" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E27" s="12"/>
@@ -11932,7 +11944,7 @@
         <v>44192</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="88"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="12"/>
       <c r="F28" s="37"/>
       <c r="G28" s="1"/>
@@ -12137,7 +12149,7 @@
         <v>44198</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="12"/>
@@ -12152,7 +12164,7 @@
         <v>44199</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="12"/>
       <c r="F4" s="47"/>
       <c r="G4" s="1"/>
@@ -12268,7 +12280,7 @@
         <v>44205</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="12"/>
@@ -12283,7 +12295,7 @@
         <v>44206</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="88"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="12"/>
       <c r="F11" s="56"/>
       <c r="G11" s="1"/>
@@ -12359,7 +12371,7 @@
         <v>44210</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="12"/>
@@ -12374,7 +12386,7 @@
         <v>44211</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="86"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="12"/>
       <c r="F16" s="56"/>
       <c r="G16" s="1"/>
@@ -12387,7 +12399,7 @@
         <v>44212</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12"/>
@@ -12402,7 +12414,7 @@
         <v>44213</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="12"/>
       <c r="F18" s="58"/>
       <c r="G18" s="1"/>
@@ -12520,7 +12532,7 @@
         <v>44219</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="85" t="s">
+      <c r="D24" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E24" s="12"/>
@@ -12535,7 +12547,7 @@
         <v>44220</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="12"/>
       <c r="F25" s="56"/>
       <c r="G25" s="1"/>
@@ -12641,7 +12653,7 @@
         <v>44226</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="12"/>
@@ -12656,7 +12668,7 @@
         <v>44227</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="12"/>
       <c r="F32" s="47"/>
       <c r="G32" s="1"/>
@@ -12868,7 +12880,7 @@
         <v>44233</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -12883,7 +12895,7 @@
         <v>44234</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -13001,7 +13013,7 @@
         <v>44240</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -13016,7 +13028,7 @@
         <v>44241</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13134,7 +13146,7 @@
         <v>44247</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -13149,7 +13161,7 @@
         <v>44248</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -13267,7 +13279,7 @@
         <v>44254</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -13282,7 +13294,7 @@
         <v>44255</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="86"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="12"/>
       <c r="F29" s="47"/>
       <c r="G29" s="1"/>
@@ -13492,7 +13504,7 @@
         <v>44261</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E7" s="12"/>
@@ -13507,7 +13519,7 @@
         <v>44262</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="89"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="12"/>
       <c r="F8" s="56"/>
       <c r="G8" s="1"/>
@@ -13625,7 +13637,7 @@
         <v>44268</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="12"/>
@@ -13640,7 +13652,7 @@
         <v>44269</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -13758,7 +13770,7 @@
         <v>44275</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="85" t="s">
+      <c r="D21" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="12"/>
@@ -13773,7 +13785,7 @@
         <v>44276</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="12"/>
       <c r="F22" s="56"/>
       <c r="G22" s="1"/>
@@ -13891,7 +13903,7 @@
         <v>44282</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="12"/>
@@ -13906,7 +13918,7 @@
         <v>44283</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="88"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="12"/>
       <c r="F29" s="56"/>
       <c r="G29" s="1"/>
@@ -14101,7 +14113,7 @@
         <v>44289</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="12"/>
@@ -14116,7 +14128,7 @@
         <v>44290</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="88"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="12"/>
       <c r="F5" s="56"/>
       <c r="G5" s="1"/>
@@ -14228,7 +14240,7 @@
         <v>44296</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="12"/>
@@ -14243,7 +14255,7 @@
         <v>44297</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="12"/>
       <c r="F12" s="56"/>
       <c r="G12" s="1"/>
@@ -14277,7 +14289,7 @@
         <v>44299</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="86" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="12"/>
@@ -14292,7 +14304,7 @@
         <v>44300</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12"/>
       <c r="F15" s="56"/>
       <c r="G15" s="1"/>
@@ -14343,7 +14355,7 @@
         <v>44303</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E18" s="12"/>
@@ -14358,7 +14370,7 @@
         <v>44304</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="89"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="12"/>
       <c r="F19" s="56"/>
       <c r="G19" s="1"/>
@@ -14476,7 +14488,7 @@
         <v>44310</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="85" t="s">
+      <c r="D25" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E25" s="12"/>
@@ -14491,7 +14503,7 @@
         <v>44311</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="12"/>
       <c r="F26" s="56"/>
       <c r="G26" s="1"/>
@@ -14702,7 +14714,7 @@
         <v>44317</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="1"/>
@@ -14717,7 +14729,7 @@
         <v>44318</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -14835,7 +14847,7 @@
         <v>44324</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E9" s="12"/>
@@ -14850,7 +14862,7 @@
         <v>44325</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="89"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="12"/>
       <c r="F10" s="46"/>
       <c r="G10" s="1"/>
@@ -14968,7 +14980,7 @@
         <v>44331</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="88" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="12"/>
@@ -14983,7 +14995,7 @@
         <v>44332</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="60"/>
       <c r="F17" s="56" t="s">
         <v>5</v>
@@ -15036,7 +15048,7 @@
         <v>44335</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="88" t="s">
         <v>221</v>
       </c>
       <c r="E20" s="12"/>
@@ -15051,7 +15063,7 @@
         <v>44336</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="90"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="12"/>
       <c r="F21" s="47"/>
       <c r="G21" s="1"/>
@@ -15064,7 +15076,7 @@
         <v>44337</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="12"/>
       <c r="F22" s="46"/>
       <c r="G22" s="1"/>
@@ -15077,7 +15089,7 @@
         <v>44338</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E23" s="12"/>
@@ -15092,7 +15104,7 @@
         <v>44339</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="89"/>
+      <c r="D24" s="90"/>
       <c r="E24" s="12"/>
       <c r="F24" s="46"/>
       <c r="G24" s="1"/>
@@ -15210,7 +15222,7 @@
         <v>44345</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E30" s="12"/>
@@ -15225,7 +15237,7 @@
         <v>44346</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="88"/>
+      <c r="D31" s="89"/>
       <c r="E31" s="12"/>
       <c r="F31" s="46"/>
       <c r="G31" s="1"/>

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC16A8E-2960-4985-9ED5-064290A651EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53EE84D-442A-4DE7-BFEA-08BF483D5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4416" yWindow="1068" windowWidth="15024" windowHeight="11268" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4764" yWindow="1092" windowWidth="15024" windowHeight="11268" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="462">
   <si>
     <t>Task</t>
   </si>
@@ -1582,6 +1582,10 @@
   <si>
     <t>Penna Migration and Followups 
 MJA - Followups, Starshield - Followups,MRP - Reports, Settings,Manage Profile -UI</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Starshield - Followups,MRP - Followups</t>
   </si>
 </sst>
 </file>
@@ -10257,7 +10261,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10406,30 +10410,46 @@
       </c>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="76">
         <v>44658</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="E8" s="83">
+        <v>1</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="76">
         <v>44659</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="56"/>
+      <c r="C9" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53EE84D-442A-4DE7-BFEA-08BF483D5900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945F4D6-02A7-4112-A7DB-DC89D94609E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4764" yWindow="1092" windowWidth="15024" windowHeight="11268" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="463">
   <si>
     <t>Task</t>
   </si>
@@ -1586,6 +1586,10 @@
   <si>
     <t>Penna Migration and Followups 
 MJA - Followups, Starshield - Followups,MRP - Followups</t>
+  </si>
+  <si>
+    <t>Penna Migration and Followups 
+MJA - Followups, Starshield - Followups,MRP - Followups. Files Uploaded in Github</t>
   </si>
 </sst>
 </file>
@@ -10261,7 +10265,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10480,30 +10484,46 @@
       <c r="F11" s="56"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1">
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="76">
         <v>44662</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="56"/>
+      <c r="C12" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="83">
+        <v>1</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="76">
         <v>44663</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
+      <c r="C13" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E13" s="83">
+        <v>1</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="31"/>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945F4D6-02A7-4112-A7DB-DC89D94609E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCAAF06-1967-4114-9BE7-8F4A37EC3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="463">
   <si>
     <t>Task</t>
   </si>
@@ -10264,8 +10264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934B415F-FD6D-442E-B9BE-B7C7FA147367}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10526,17 +10526,25 @@
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="43.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="76">
         <v>44664</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
+      <c r="C14" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="83">
+        <v>1</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1">
@@ -10595,56 +10603,88 @@
       <c r="F18" s="56"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="43.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="76">
         <v>44669</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="56"/>
+      <c r="C19" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E19" s="83">
+        <v>1</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="43.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="76">
         <v>44670</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
+      <c r="C20" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E20" s="83">
+        <v>1</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="43.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="76">
         <v>44671</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
+      <c r="C21" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E21" s="83">
+        <v>1</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="43.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="76">
         <v>44672</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="56"/>
+      <c r="C22" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="83">
+        <v>1</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">

--- a/REVER_DailyTracker_MONISHA.xlsx
+++ b/REVER_DailyTracker_MONISHA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCAAF06-1967-4114-9BE7-8F4A37EC3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E24CF1-39F4-40A4-8393-AEA402F989BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="781" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="465">
   <si>
     <t>Task</t>
   </si>
@@ -1590,6 +1590,14 @@
   <si>
     <t>Penna Migration and Followups 
 MJA - Followups, Starshield - Followups,MRP - Followups. Files Uploaded in Github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups, Starshield - Followups,MRP - Followups. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penna Migration and Followups 
+MJA - Followups, Starshield - Followups,MRP - Followups. Sent mail with all github files </t>
   </si>
 </sst>
 </file>
@@ -10264,8 +10272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934B415F-FD6D-442E-B9BE-B7C7FA147367}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10645,7 +10653,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="43.2">
+    <row r="21" spans="1:7" ht="28.8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -10656,7 +10664,7 @@
         <v>459</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E21" s="83">
         <v>1</v>
@@ -10666,7 +10674,7 @@
       </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="43.2">
+    <row r="22" spans="1:7" ht="28.8">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -10677,7 +10685,7 @@
         <v>459</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E22" s="83">
         <v>1</v>
@@ -10687,17 +10695,25 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="28.8">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="76">
         <v>44673</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="56"/>
+      <c r="C23" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" s="83">
+        <v>1</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
@@ -10728,69 +10744,109 @@
       <c r="F25" s="56"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="43.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="76">
         <v>44676</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="56"/>
+      <c r="C26" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E26" s="83">
+        <v>1</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="43.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="76">
         <v>44677</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
+      <c r="C27" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="E27" s="83">
+        <v>1</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="43.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="76">
         <v>44678</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="C28" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="E28" s="83">
+        <v>1</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="28.8">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="76">
         <v>44679</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="56"/>
+      <c r="C29" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="E29" s="83">
+        <v>1</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="28.8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="76">
         <v>44680</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="77" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" s="83">
+        <v>1</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>5</v>
+      </c>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7">
